--- a/Code/Results/Cases/Case_0_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_46/res_bus/vm_pu.xlsx
@@ -418,31 +418,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.8742391974303368</v>
+        <v>0.8742391974303343</v>
       </c>
       <c r="D2">
-        <v>0.8909296627374128</v>
+        <v>0.8909296627374103</v>
       </c>
       <c r="E2">
-        <v>0.8955149502566192</v>
+        <v>0.895514950256617</v>
       </c>
       <c r="F2">
-        <v>0.8428994064649535</v>
+        <v>0.8428994064649508</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9009638237733471</v>
+        <v>0.9009638237733445</v>
       </c>
       <c r="K2">
-        <v>0.9041512626792657</v>
+        <v>0.9041512626792633</v>
       </c>
       <c r="L2">
-        <v>0.9086511980535052</v>
+        <v>0.9086511980535031</v>
       </c>
       <c r="M2">
-        <v>0.8570891992744334</v>
+        <v>0.8570891992744306</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8938196856036337</v>
+        <v>0.8938196856036335</v>
       </c>
       <c r="D3">
-        <v>0.9084503524155869</v>
+        <v>0.9084503524155871</v>
       </c>
       <c r="E3">
         <v>0.9123148469391047</v>
       </c>
       <c r="F3">
-        <v>0.8670993200020914</v>
+        <v>0.867099320002092</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9176924975779841</v>
+        <v>0.9176924975779842</v>
       </c>
       <c r="K3">
         <v>0.9204061280076959</v>
       </c>
       <c r="L3">
-        <v>0.9242078954786489</v>
+        <v>0.9242078954786488</v>
       </c>
       <c r="M3">
-        <v>0.8797718925649748</v>
+        <v>0.879771892564975</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -482,31 +482,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9054034021768784</v>
+        <v>0.9054034021768773</v>
       </c>
       <c r="D4">
-        <v>0.9188299973231543</v>
+        <v>0.918829997323153</v>
       </c>
       <c r="E4">
-        <v>0.9222715241019638</v>
+        <v>0.9222715241019626</v>
       </c>
       <c r="F4">
-        <v>0.8813520859902644</v>
+        <v>0.8813520859902636</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9275809473001079</v>
+        <v>0.9275809473001068</v>
       </c>
       <c r="K4">
-        <v>0.9300179789148368</v>
+        <v>0.9300179789148355</v>
       </c>
       <c r="L4">
-        <v>0.9334083658688659</v>
+        <v>0.9334083658688648</v>
       </c>
       <c r="M4">
-        <v>0.8931302572184966</v>
+        <v>0.8931302572184957</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -514,31 +514,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9100561058359633</v>
+        <v>0.9100561058359613</v>
       </c>
       <c r="D5">
-        <v>0.9230018210384605</v>
+        <v>0.9230018210384583</v>
       </c>
       <c r="E5">
-        <v>0.9262740675470684</v>
+        <v>0.9262740675470664</v>
       </c>
       <c r="F5">
-        <v>0.8870655959302192</v>
+        <v>0.8870655959302161</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9315505443491719</v>
+        <v>0.93155054434917</v>
       </c>
       <c r="K5">
-        <v>0.9338771766574812</v>
+        <v>0.9338771766574787</v>
       </c>
       <c r="L5">
-        <v>0.9371025771092286</v>
+        <v>0.9371025771092267</v>
       </c>
       <c r="M5">
-        <v>0.8984845437861347</v>
+        <v>0.8984845437861321</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -546,31 +546,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9108256038783606</v>
+        <v>0.9108256038783639</v>
       </c>
       <c r="D6">
-        <v>0.9236919315993409</v>
+        <v>0.9236919315993442</v>
       </c>
       <c r="E6">
-        <v>0.9269362118480872</v>
+        <v>0.9269362118480896</v>
       </c>
       <c r="F6">
-        <v>0.888009970045844</v>
+        <v>0.8880099700458475</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.932206930478361</v>
+        <v>0.9322069304783641</v>
       </c>
       <c r="K6">
-        <v>0.9345153407859822</v>
+        <v>0.9345153407859854</v>
       </c>
       <c r="L6">
-        <v>0.9377134656039762</v>
+        <v>0.9377134656039784</v>
       </c>
       <c r="M6">
-        <v>0.8993694910435133</v>
+        <v>0.8993694910435168</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -578,31 +578,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9054663773650893</v>
+        <v>0.9054663773650916</v>
       </c>
       <c r="D7">
-        <v>0.9188864535716706</v>
+        <v>0.918886453571673</v>
       </c>
       <c r="E7">
-        <v>0.9223256869276445</v>
+        <v>0.9223256869276464</v>
       </c>
       <c r="F7">
-        <v>0.8814294598649799</v>
+        <v>0.8814294598649823</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.9276346855377736</v>
+        <v>0.9276346855377757</v>
       </c>
       <c r="K7">
-        <v>0.9300702202966104</v>
+        <v>0.9300702202966126</v>
       </c>
       <c r="L7">
-        <v>0.9334583733046249</v>
+        <v>0.9334583733046269</v>
       </c>
       <c r="M7">
-        <v>0.893202769665708</v>
+        <v>0.8932027696657105</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -610,31 +610,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.8811119010483252</v>
+        <v>0.8811119010483269</v>
       </c>
       <c r="D8">
-        <v>0.8970756545084794</v>
+        <v>0.897075654508481</v>
       </c>
       <c r="E8">
-        <v>0.9014070236597412</v>
+        <v>0.9014070236597429</v>
       </c>
       <c r="F8">
-        <v>0.851410658904305</v>
+        <v>0.8514106589043071</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.9068371687482089</v>
+        <v>0.906837168748211</v>
       </c>
       <c r="K8">
-        <v>0.9098573455579482</v>
+        <v>0.9098573455579496</v>
       </c>
       <c r="L8">
-        <v>0.9141117517516941</v>
+        <v>0.9141117517516958</v>
       </c>
       <c r="M8">
-        <v>0.8650666369016354</v>
+        <v>0.8650666369016373</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -642,31 +642,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.8267543075990782</v>
+        <v>0.8267543075990746</v>
       </c>
       <c r="D9">
-        <v>0.8485934001133956</v>
+        <v>0.8485934001133925</v>
       </c>
       <c r="E9">
-        <v>0.8549672749130753</v>
+        <v>0.8549672749130722</v>
       </c>
       <c r="F9">
-        <v>0.7834264480656296</v>
+        <v>0.7834264480656258</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.860359122951764</v>
+        <v>0.8603591229517606</v>
       </c>
       <c r="K9">
-        <v>0.8647357609800222</v>
+        <v>0.8647357609800191</v>
       </c>
       <c r="L9">
-        <v>0.8709519188951541</v>
+        <v>0.870951918895151</v>
       </c>
       <c r="M9">
-        <v>0.8013855336064712</v>
+        <v>0.8013855336064676</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -674,31 +674,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.7731584404170223</v>
+        <v>0.7731584404170214</v>
       </c>
       <c r="D10">
-        <v>0.8011340342607158</v>
+        <v>0.8011340342607151</v>
       </c>
       <c r="E10">
-        <v>0.8096230143108365</v>
+        <v>0.8096230143108357</v>
       </c>
       <c r="F10">
-        <v>0.7141690045007245</v>
+        <v>0.7141690045007232</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.8145322807595902</v>
+        <v>0.8145322807595894</v>
       </c>
       <c r="K10">
-        <v>0.8203429927734663</v>
+        <v>0.8203429927734656</v>
       </c>
       <c r="L10">
-        <v>0.8285578277440325</v>
+        <v>0.8285578277440319</v>
       </c>
       <c r="M10">
-        <v>0.7367309922460556</v>
+        <v>0.7367309922460544</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -706,31 +706,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.7368881236539417</v>
+        <v>0.7368881236539447</v>
       </c>
       <c r="D11">
-        <v>0.7692537919435264</v>
+        <v>0.7692537919435293</v>
       </c>
       <c r="E11">
-        <v>0.7792538796548208</v>
+        <v>0.7792538796548233</v>
       </c>
       <c r="F11">
-        <v>0.6651329404898005</v>
+        <v>0.6651329404898048</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.7835383300766607</v>
+        <v>0.7835383300766634</v>
       </c>
       <c r="K11">
-        <v>0.7903973068580238</v>
+        <v>0.7903973068580264</v>
       </c>
       <c r="L11">
-        <v>0.8000195887485525</v>
+        <v>0.8000195887485548</v>
       </c>
       <c r="M11">
-        <v>0.6912197001974418</v>
+        <v>0.6912197001974456</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -738,31 +738,31 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7165317641374618</v>
+        <v>0.7165317641374646</v>
       </c>
       <c r="D12">
-        <v>0.751454614333424</v>
+        <v>0.7514546143334263</v>
       </c>
       <c r="E12">
-        <v>0.7623391852050485</v>
+        <v>0.7623391852050508</v>
       </c>
       <c r="F12">
-        <v>0.6363935498498018</v>
+        <v>0.6363935498498058</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.7661418939277991</v>
+        <v>0.7661418939278017</v>
       </c>
       <c r="K12">
-        <v>0.7736267596413462</v>
+        <v>0.7736267596413489</v>
       </c>
       <c r="L12">
-        <v>0.7840653079058718</v>
+        <v>0.7840653079058741</v>
       </c>
       <c r="M12">
-        <v>0.6647016285150273</v>
+        <v>0.664701628515031</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -770,31 +770,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7215910353267252</v>
+        <v>0.7215910353267282</v>
       </c>
       <c r="D13">
-        <v>0.7558719074494554</v>
+        <v>0.7558719074494582</v>
       </c>
       <c r="E13">
-        <v>0.7665338733544306</v>
+        <v>0.7665338733544329</v>
       </c>
       <c r="F13">
-        <v>0.6436402835612591</v>
+        <v>0.6436402835612632</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.7704663493696449</v>
+        <v>0.7704663493696476</v>
       </c>
       <c r="K13">
-        <v>0.7777926803743708</v>
+        <v>0.7777926803743734</v>
       </c>
       <c r="L13">
-        <v>0.7880262918050452</v>
+        <v>0.7880262918050474</v>
       </c>
       <c r="M13">
-        <v>0.6713752065021997</v>
+        <v>0.6713752065022035</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -805,28 +805,28 @@
         <v>0.7354491799134768</v>
       </c>
       <c r="D14">
-        <v>0.7679933564083851</v>
+        <v>0.7679933564083852</v>
       </c>
       <c r="E14">
-        <v>0.7780550242714455</v>
+        <v>0.7780550242714454</v>
       </c>
       <c r="F14">
-        <v>0.6631354896821972</v>
+        <v>0.6631354896821976</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.7823088138899887</v>
+        <v>0.7823088138899889</v>
       </c>
       <c r="K14">
-        <v>0.7892110357689253</v>
+        <v>0.7892110357689255</v>
       </c>
       <c r="L14">
-        <v>0.7988903230728088</v>
+        <v>0.7988903230728087</v>
       </c>
       <c r="M14">
-        <v>0.6893723910531652</v>
+        <v>0.6893723910531655</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -834,31 +834,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.7426672542992137</v>
+        <v>0.7426672542992162</v>
       </c>
       <c r="D15">
-        <v>0.7743194070628369</v>
+        <v>0.7743194070628392</v>
       </c>
       <c r="E15">
-        <v>0.7840735220020306</v>
+        <v>0.7840735220020327</v>
       </c>
       <c r="F15">
-        <v>0.6731094261441851</v>
+        <v>0.6731094261441886</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.7884762746191304</v>
+        <v>0.7884762746191326</v>
       </c>
       <c r="K15">
-        <v>0.7951629655084431</v>
+        <v>0.7951629655084453</v>
       </c>
       <c r="L15">
-        <v>0.8045572797014424</v>
+        <v>0.8045572797014446</v>
       </c>
       <c r="M15">
-        <v>0.6986023356293921</v>
+        <v>0.6986023356293952</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -866,31 +866,31 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.7751113447419264</v>
+        <v>0.775111344741927</v>
       </c>
       <c r="D16">
-        <v>0.802856329064826</v>
+        <v>0.8028563290648263</v>
       </c>
       <c r="E16">
-        <v>0.811265988313269</v>
+        <v>0.8112659883132696</v>
       </c>
       <c r="F16">
-        <v>0.7167491730027388</v>
+        <v>0.7167491730027398</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.816201474830082</v>
+        <v>0.8162014748300824</v>
       </c>
       <c r="K16">
-        <v>0.8219577727514489</v>
+        <v>0.8219577727514492</v>
       </c>
       <c r="L16">
-        <v>0.8300982619984902</v>
+        <v>0.8300982619984907</v>
       </c>
       <c r="M16">
-        <v>0.7391330594865951</v>
+        <v>0.739133059486596</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -898,31 +898,31 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.7909615153938723</v>
+        <v>0.7909615153938699</v>
       </c>
       <c r="D17">
-        <v>0.8168553698746354</v>
+        <v>0.8168553698746328</v>
       </c>
       <c r="E17">
-        <v>0.8246280547900102</v>
+        <v>0.8246280547900081</v>
       </c>
       <c r="F17">
-        <v>0.737510047999695</v>
+        <v>0.7375100479996923</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.8297509684429857</v>
+        <v>0.8297509684429833</v>
       </c>
       <c r="K17">
-        <v>0.8350722199806492</v>
+        <v>0.8350722199806468</v>
       </c>
       <c r="L17">
-        <v>0.8426139704883432</v>
+        <v>0.8426139704883411</v>
       </c>
       <c r="M17">
-        <v>0.7584823773707381</v>
+        <v>0.7584823773707353</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -930,31 +930,31 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.7992599992362419</v>
+        <v>0.7992599992362411</v>
       </c>
       <c r="D18">
-        <v>0.8241987974049193</v>
+        <v>0.8241987974049181</v>
       </c>
       <c r="E18">
-        <v>0.831642550143439</v>
+        <v>0.8316425501434384</v>
       </c>
       <c r="F18">
-        <v>0.7482639736348936</v>
+        <v>0.7482639736348924</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.8368462705712053</v>
+        <v>0.8368462705712041</v>
       </c>
       <c r="K18">
-        <v>0.8419441267839979</v>
+        <v>0.8419441267839971</v>
       </c>
       <c r="L18">
-        <v>0.8491754908760086</v>
+        <v>0.8491754908760077</v>
       </c>
       <c r="M18">
-        <v>0.7685186244288444</v>
+        <v>0.768518624428843</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -962,31 +962,31 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8019613865936802</v>
+        <v>0.8019613865936758</v>
       </c>
       <c r="D19">
-        <v>0.8265913068870678</v>
+        <v>0.8265913068870635</v>
       </c>
       <c r="E19">
-        <v>0.8339286192967316</v>
+        <v>0.8339286192967276</v>
       </c>
       <c r="F19">
-        <v>0.7517492445716482</v>
+        <v>0.7517492445716434</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.8391561709557122</v>
+        <v>0.8391561709557082</v>
       </c>
       <c r="K19">
-        <v>0.8441819120390984</v>
+        <v>0.8441819120390945</v>
       </c>
       <c r="L19">
-        <v>0.8513126619288341</v>
+        <v>0.8513126619288303</v>
       </c>
       <c r="M19">
-        <v>0.7717730554888813</v>
+        <v>0.7717730554888766</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -994,31 +994,31 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.789367619902499</v>
+        <v>0.7893676199024975</v>
       </c>
       <c r="D20">
-        <v>0.8154460028771827</v>
+        <v>0.8154460028771814</v>
       </c>
       <c r="E20">
-        <v>0.8232822133720532</v>
+        <v>0.8232822133720517</v>
       </c>
       <c r="F20">
-        <v>0.7354359422575448</v>
+        <v>0.7354359422575431</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.828388271659116</v>
+        <v>0.8283882716591146</v>
       </c>
       <c r="K20">
-        <v>0.8337527628142237</v>
+        <v>0.8337527628142225</v>
       </c>
       <c r="L20">
-        <v>0.8413543630148488</v>
+        <v>0.8413543630148475</v>
       </c>
       <c r="M20">
-        <v>0.7565476847592769</v>
+        <v>0.756547684759275</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1026,31 +1026,31 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.7316970331468495</v>
+        <v>0.7316970331468476</v>
       </c>
       <c r="D21">
-        <v>0.7647082860970608</v>
+        <v>0.7647082860970593</v>
       </c>
       <c r="E21">
-        <v>0.7749311754757325</v>
+        <v>0.7749311754757309</v>
       </c>
       <c r="F21">
-        <v>0.657904473322533</v>
+        <v>0.6579044733225302</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.7791026902539319</v>
+        <v>0.7791026902539303</v>
       </c>
       <c r="K21">
-        <v>0.7861183529325104</v>
+        <v>0.7861183529325088</v>
       </c>
       <c r="L21">
-        <v>0.7959467587578956</v>
+        <v>0.7959467587578939</v>
       </c>
       <c r="M21">
-        <v>0.6845374038852917</v>
+        <v>0.6845374038852892</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1058,31 +1058,31 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.7316970331468495</v>
+        <v>0.7316970331468476</v>
       </c>
       <c r="D22">
-        <v>0.7647082860970608</v>
+        <v>0.7647082860970593</v>
       </c>
       <c r="E22">
-        <v>0.7749311754757325</v>
+        <v>0.7749311754757309</v>
       </c>
       <c r="F22">
-        <v>0.657904473322533</v>
+        <v>0.6579044733225302</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.7791026902539319</v>
+        <v>0.7791026902539303</v>
       </c>
       <c r="K22">
-        <v>0.7861183529325104</v>
+        <v>0.7861183529325088</v>
       </c>
       <c r="L22">
-        <v>0.7959467587578956</v>
+        <v>0.7959467587578939</v>
       </c>
       <c r="M22">
-        <v>0.6845374038852917</v>
+        <v>0.6845374038852892</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1090,16 +1090,16 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.6516409969617138</v>
+        <v>0.6516409969617141</v>
       </c>
       <c r="D23">
         <v>0.69513482568797</v>
       </c>
       <c r="E23">
-        <v>0.7090958984488736</v>
+        <v>0.7090958984488731</v>
       </c>
       <c r="F23">
-        <v>0.5325347683890129</v>
+        <v>0.5325347683890126</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1111,10 +1111,10 @@
         <v>0.7201769881628705</v>
       </c>
       <c r="L23">
-        <v>0.7334203728018647</v>
+        <v>0.7334203728018645</v>
       </c>
       <c r="M23">
-        <v>0.5704620775751337</v>
+        <v>0.5704620775751333</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1122,31 +1122,31 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.6075418155492743</v>
+        <v>0.6075418155492738</v>
       </c>
       <c r="D24">
-        <v>0.6555331648404313</v>
+        <v>0.6555331648404309</v>
       </c>
       <c r="E24">
-        <v>0.6726102585290871</v>
+        <v>0.6726102585290866</v>
       </c>
       <c r="F24">
-        <v>0.3683801614318547</v>
+        <v>0.3683801614318562</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.6674305919631416</v>
+        <v>0.6674305919631413</v>
       </c>
       <c r="K24">
-        <v>0.6804348004000765</v>
+        <v>0.6804348004000763</v>
       </c>
       <c r="L24">
-        <v>0.696585466548338</v>
+        <v>0.6965854665483376</v>
       </c>
       <c r="M24">
-        <v>0.4336263757709827</v>
+        <v>0.4336263757709837</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1154,31 +1154,31 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.6334185576948153</v>
+        <v>0.6334185576948164</v>
       </c>
       <c r="D25">
-        <v>0.6753270956786031</v>
+        <v>0.6753270956786039</v>
       </c>
       <c r="E25">
-        <v>0.6922392756327074</v>
+        <v>0.6922392756327082</v>
       </c>
       <c r="F25">
-        <v>0.2832633648930245</v>
+        <v>0.2832633648930238</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.6824425949092738</v>
+        <v>0.6824425949092748</v>
       </c>
       <c r="K25">
-        <v>0.6965230044355117</v>
+        <v>0.6965230044355125</v>
       </c>
       <c r="L25">
-        <v>0.7127008723141178</v>
+        <v>0.7127008723141188</v>
       </c>
       <c r="M25">
-        <v>0.3759904797742655</v>
+        <v>0.3759904797742653</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_46/res_bus/vm_pu.xlsx
@@ -418,31 +418,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.8742391974303343</v>
+        <v>0.8742391974303368</v>
       </c>
       <c r="D2">
-        <v>0.8909296627374103</v>
+        <v>0.8909296627374128</v>
       </c>
       <c r="E2">
-        <v>0.895514950256617</v>
+        <v>0.8955149502566192</v>
       </c>
       <c r="F2">
-        <v>0.8428994064649508</v>
+        <v>0.8428994064649535</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9009638237733445</v>
+        <v>0.9009638237733471</v>
       </c>
       <c r="K2">
-        <v>0.9041512626792633</v>
+        <v>0.9041512626792657</v>
       </c>
       <c r="L2">
-        <v>0.9086511980535031</v>
+        <v>0.9086511980535052</v>
       </c>
       <c r="M2">
-        <v>0.8570891992744306</v>
+        <v>0.8570891992744334</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8938196856036335</v>
+        <v>0.8938196856036337</v>
       </c>
       <c r="D3">
-        <v>0.9084503524155871</v>
+        <v>0.9084503524155869</v>
       </c>
       <c r="E3">
         <v>0.9123148469391047</v>
       </c>
       <c r="F3">
-        <v>0.867099320002092</v>
+        <v>0.8670993200020914</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9176924975779842</v>
+        <v>0.9176924975779841</v>
       </c>
       <c r="K3">
         <v>0.9204061280076959</v>
       </c>
       <c r="L3">
-        <v>0.9242078954786488</v>
+        <v>0.9242078954786489</v>
       </c>
       <c r="M3">
-        <v>0.879771892564975</v>
+        <v>0.8797718925649748</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -482,31 +482,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9054034021768773</v>
+        <v>0.9054034021768784</v>
       </c>
       <c r="D4">
-        <v>0.918829997323153</v>
+        <v>0.9188299973231543</v>
       </c>
       <c r="E4">
-        <v>0.9222715241019626</v>
+        <v>0.9222715241019638</v>
       </c>
       <c r="F4">
-        <v>0.8813520859902636</v>
+        <v>0.8813520859902644</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9275809473001068</v>
+        <v>0.9275809473001079</v>
       </c>
       <c r="K4">
-        <v>0.9300179789148355</v>
+        <v>0.9300179789148368</v>
       </c>
       <c r="L4">
-        <v>0.9334083658688648</v>
+        <v>0.9334083658688659</v>
       </c>
       <c r="M4">
-        <v>0.8931302572184957</v>
+        <v>0.8931302572184966</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -514,31 +514,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9100561058359613</v>
+        <v>0.9100561058359633</v>
       </c>
       <c r="D5">
-        <v>0.9230018210384583</v>
+        <v>0.9230018210384605</v>
       </c>
       <c r="E5">
-        <v>0.9262740675470664</v>
+        <v>0.9262740675470684</v>
       </c>
       <c r="F5">
-        <v>0.8870655959302161</v>
+        <v>0.8870655959302192</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.93155054434917</v>
+        <v>0.9315505443491719</v>
       </c>
       <c r="K5">
-        <v>0.9338771766574787</v>
+        <v>0.9338771766574812</v>
       </c>
       <c r="L5">
-        <v>0.9371025771092267</v>
+        <v>0.9371025771092286</v>
       </c>
       <c r="M5">
-        <v>0.8984845437861321</v>
+        <v>0.8984845437861347</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -546,31 +546,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9108256038783639</v>
+        <v>0.9108256038783606</v>
       </c>
       <c r="D6">
-        <v>0.9236919315993442</v>
+        <v>0.9236919315993409</v>
       </c>
       <c r="E6">
-        <v>0.9269362118480896</v>
+        <v>0.9269362118480872</v>
       </c>
       <c r="F6">
-        <v>0.8880099700458475</v>
+        <v>0.888009970045844</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.9322069304783641</v>
+        <v>0.932206930478361</v>
       </c>
       <c r="K6">
-        <v>0.9345153407859854</v>
+        <v>0.9345153407859822</v>
       </c>
       <c r="L6">
-        <v>0.9377134656039784</v>
+        <v>0.9377134656039762</v>
       </c>
       <c r="M6">
-        <v>0.8993694910435168</v>
+        <v>0.8993694910435133</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -578,31 +578,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9054663773650916</v>
+        <v>0.9054663773650893</v>
       </c>
       <c r="D7">
-        <v>0.918886453571673</v>
+        <v>0.9188864535716706</v>
       </c>
       <c r="E7">
-        <v>0.9223256869276464</v>
+        <v>0.9223256869276445</v>
       </c>
       <c r="F7">
-        <v>0.8814294598649823</v>
+        <v>0.8814294598649799</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.9276346855377757</v>
+        <v>0.9276346855377736</v>
       </c>
       <c r="K7">
-        <v>0.9300702202966126</v>
+        <v>0.9300702202966104</v>
       </c>
       <c r="L7">
-        <v>0.9334583733046269</v>
+        <v>0.9334583733046249</v>
       </c>
       <c r="M7">
-        <v>0.8932027696657105</v>
+        <v>0.893202769665708</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -610,31 +610,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.8811119010483269</v>
+        <v>0.8811119010483252</v>
       </c>
       <c r="D8">
-        <v>0.897075654508481</v>
+        <v>0.8970756545084794</v>
       </c>
       <c r="E8">
-        <v>0.9014070236597429</v>
+        <v>0.9014070236597412</v>
       </c>
       <c r="F8">
-        <v>0.8514106589043071</v>
+        <v>0.851410658904305</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.906837168748211</v>
+        <v>0.9068371687482089</v>
       </c>
       <c r="K8">
-        <v>0.9098573455579496</v>
+        <v>0.9098573455579482</v>
       </c>
       <c r="L8">
-        <v>0.9141117517516958</v>
+        <v>0.9141117517516941</v>
       </c>
       <c r="M8">
-        <v>0.8650666369016373</v>
+        <v>0.8650666369016354</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -642,31 +642,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.8267543075990746</v>
+        <v>0.8267543075990782</v>
       </c>
       <c r="D9">
-        <v>0.8485934001133925</v>
+        <v>0.8485934001133956</v>
       </c>
       <c r="E9">
-        <v>0.8549672749130722</v>
+        <v>0.8549672749130753</v>
       </c>
       <c r="F9">
-        <v>0.7834264480656258</v>
+        <v>0.7834264480656296</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.8603591229517606</v>
+        <v>0.860359122951764</v>
       </c>
       <c r="K9">
-        <v>0.8647357609800191</v>
+        <v>0.8647357609800222</v>
       </c>
       <c r="L9">
-        <v>0.870951918895151</v>
+        <v>0.8709519188951541</v>
       </c>
       <c r="M9">
-        <v>0.8013855336064676</v>
+        <v>0.8013855336064712</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -674,31 +674,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.7731584404170214</v>
+        <v>0.7731584404170223</v>
       </c>
       <c r="D10">
-        <v>0.8011340342607151</v>
+        <v>0.8011340342607158</v>
       </c>
       <c r="E10">
-        <v>0.8096230143108357</v>
+        <v>0.8096230143108365</v>
       </c>
       <c r="F10">
-        <v>0.7141690045007232</v>
+        <v>0.7141690045007245</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.8145322807595894</v>
+        <v>0.8145322807595902</v>
       </c>
       <c r="K10">
-        <v>0.8203429927734656</v>
+        <v>0.8203429927734663</v>
       </c>
       <c r="L10">
-        <v>0.8285578277440319</v>
+        <v>0.8285578277440325</v>
       </c>
       <c r="M10">
-        <v>0.7367309922460544</v>
+        <v>0.7367309922460556</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -706,31 +706,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.7368881236539447</v>
+        <v>0.7368881236539417</v>
       </c>
       <c r="D11">
-        <v>0.7692537919435293</v>
+        <v>0.7692537919435264</v>
       </c>
       <c r="E11">
-        <v>0.7792538796548233</v>
+        <v>0.7792538796548208</v>
       </c>
       <c r="F11">
-        <v>0.6651329404898048</v>
+        <v>0.6651329404898005</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.7835383300766634</v>
+        <v>0.7835383300766607</v>
       </c>
       <c r="K11">
-        <v>0.7903973068580264</v>
+        <v>0.7903973068580238</v>
       </c>
       <c r="L11">
-        <v>0.8000195887485548</v>
+        <v>0.8000195887485525</v>
       </c>
       <c r="M11">
-        <v>0.6912197001974456</v>
+        <v>0.6912197001974418</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -738,31 +738,31 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7165317641374646</v>
+        <v>0.7165317641374618</v>
       </c>
       <c r="D12">
-        <v>0.7514546143334263</v>
+        <v>0.751454614333424</v>
       </c>
       <c r="E12">
-        <v>0.7623391852050508</v>
+        <v>0.7623391852050485</v>
       </c>
       <c r="F12">
-        <v>0.6363935498498058</v>
+        <v>0.6363935498498018</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.7661418939278017</v>
+        <v>0.7661418939277991</v>
       </c>
       <c r="K12">
-        <v>0.7736267596413489</v>
+        <v>0.7736267596413462</v>
       </c>
       <c r="L12">
-        <v>0.7840653079058741</v>
+        <v>0.7840653079058718</v>
       </c>
       <c r="M12">
-        <v>0.664701628515031</v>
+        <v>0.6647016285150273</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -770,31 +770,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7215910353267282</v>
+        <v>0.7215910353267252</v>
       </c>
       <c r="D13">
-        <v>0.7558719074494582</v>
+        <v>0.7558719074494554</v>
       </c>
       <c r="E13">
-        <v>0.7665338733544329</v>
+        <v>0.7665338733544306</v>
       </c>
       <c r="F13">
-        <v>0.6436402835612632</v>
+        <v>0.6436402835612591</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.7704663493696476</v>
+        <v>0.7704663493696449</v>
       </c>
       <c r="K13">
-        <v>0.7777926803743734</v>
+        <v>0.7777926803743708</v>
       </c>
       <c r="L13">
-        <v>0.7880262918050474</v>
+        <v>0.7880262918050452</v>
       </c>
       <c r="M13">
-        <v>0.6713752065022035</v>
+        <v>0.6713752065021997</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -805,28 +805,28 @@
         <v>0.7354491799134768</v>
       </c>
       <c r="D14">
-        <v>0.7679933564083852</v>
+        <v>0.7679933564083851</v>
       </c>
       <c r="E14">
-        <v>0.7780550242714454</v>
+        <v>0.7780550242714455</v>
       </c>
       <c r="F14">
-        <v>0.6631354896821976</v>
+        <v>0.6631354896821972</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.7823088138899889</v>
+        <v>0.7823088138899887</v>
       </c>
       <c r="K14">
-        <v>0.7892110357689255</v>
+        <v>0.7892110357689253</v>
       </c>
       <c r="L14">
-        <v>0.7988903230728087</v>
+        <v>0.7988903230728088</v>
       </c>
       <c r="M14">
-        <v>0.6893723910531655</v>
+        <v>0.6893723910531652</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -834,31 +834,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.7426672542992162</v>
+        <v>0.7426672542992137</v>
       </c>
       <c r="D15">
-        <v>0.7743194070628392</v>
+        <v>0.7743194070628369</v>
       </c>
       <c r="E15">
-        <v>0.7840735220020327</v>
+        <v>0.7840735220020306</v>
       </c>
       <c r="F15">
-        <v>0.6731094261441886</v>
+        <v>0.6731094261441851</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.7884762746191326</v>
+        <v>0.7884762746191304</v>
       </c>
       <c r="K15">
-        <v>0.7951629655084453</v>
+        <v>0.7951629655084431</v>
       </c>
       <c r="L15">
-        <v>0.8045572797014446</v>
+        <v>0.8045572797014424</v>
       </c>
       <c r="M15">
-        <v>0.6986023356293952</v>
+        <v>0.6986023356293921</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -866,31 +866,31 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.775111344741927</v>
+        <v>0.7751113447419264</v>
       </c>
       <c r="D16">
-        <v>0.8028563290648263</v>
+        <v>0.802856329064826</v>
       </c>
       <c r="E16">
-        <v>0.8112659883132696</v>
+        <v>0.811265988313269</v>
       </c>
       <c r="F16">
-        <v>0.7167491730027398</v>
+        <v>0.7167491730027388</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.8162014748300824</v>
+        <v>0.816201474830082</v>
       </c>
       <c r="K16">
-        <v>0.8219577727514492</v>
+        <v>0.8219577727514489</v>
       </c>
       <c r="L16">
-        <v>0.8300982619984907</v>
+        <v>0.8300982619984902</v>
       </c>
       <c r="M16">
-        <v>0.739133059486596</v>
+        <v>0.7391330594865951</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -898,31 +898,31 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.7909615153938699</v>
+        <v>0.7909615153938723</v>
       </c>
       <c r="D17">
-        <v>0.8168553698746328</v>
+        <v>0.8168553698746354</v>
       </c>
       <c r="E17">
-        <v>0.8246280547900081</v>
+        <v>0.8246280547900102</v>
       </c>
       <c r="F17">
-        <v>0.7375100479996923</v>
+        <v>0.737510047999695</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.8297509684429833</v>
+        <v>0.8297509684429857</v>
       </c>
       <c r="K17">
-        <v>0.8350722199806468</v>
+        <v>0.8350722199806492</v>
       </c>
       <c r="L17">
-        <v>0.8426139704883411</v>
+        <v>0.8426139704883432</v>
       </c>
       <c r="M17">
-        <v>0.7584823773707353</v>
+        <v>0.7584823773707381</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -930,31 +930,31 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.7992599992362411</v>
+        <v>0.7992599992362419</v>
       </c>
       <c r="D18">
-        <v>0.8241987974049181</v>
+        <v>0.8241987974049193</v>
       </c>
       <c r="E18">
-        <v>0.8316425501434384</v>
+        <v>0.831642550143439</v>
       </c>
       <c r="F18">
-        <v>0.7482639736348924</v>
+        <v>0.7482639736348936</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.8368462705712041</v>
+        <v>0.8368462705712053</v>
       </c>
       <c r="K18">
-        <v>0.8419441267839971</v>
+        <v>0.8419441267839979</v>
       </c>
       <c r="L18">
-        <v>0.8491754908760077</v>
+        <v>0.8491754908760086</v>
       </c>
       <c r="M18">
-        <v>0.768518624428843</v>
+        <v>0.7685186244288444</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -962,31 +962,31 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8019613865936758</v>
+        <v>0.8019613865936802</v>
       </c>
       <c r="D19">
-        <v>0.8265913068870635</v>
+        <v>0.8265913068870678</v>
       </c>
       <c r="E19">
-        <v>0.8339286192967276</v>
+        <v>0.8339286192967316</v>
       </c>
       <c r="F19">
-        <v>0.7517492445716434</v>
+        <v>0.7517492445716482</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.8391561709557082</v>
+        <v>0.8391561709557122</v>
       </c>
       <c r="K19">
-        <v>0.8441819120390945</v>
+        <v>0.8441819120390984</v>
       </c>
       <c r="L19">
-        <v>0.8513126619288303</v>
+        <v>0.8513126619288341</v>
       </c>
       <c r="M19">
-        <v>0.7717730554888766</v>
+        <v>0.7717730554888813</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -994,31 +994,31 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.7893676199024975</v>
+        <v>0.789367619902499</v>
       </c>
       <c r="D20">
-        <v>0.8154460028771814</v>
+        <v>0.8154460028771827</v>
       </c>
       <c r="E20">
-        <v>0.8232822133720517</v>
+        <v>0.8232822133720532</v>
       </c>
       <c r="F20">
-        <v>0.7354359422575431</v>
+        <v>0.7354359422575448</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.8283882716591146</v>
+        <v>0.828388271659116</v>
       </c>
       <c r="K20">
-        <v>0.8337527628142225</v>
+        <v>0.8337527628142237</v>
       </c>
       <c r="L20">
-        <v>0.8413543630148475</v>
+        <v>0.8413543630148488</v>
       </c>
       <c r="M20">
-        <v>0.756547684759275</v>
+        <v>0.7565476847592769</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1026,31 +1026,31 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.7316970331468476</v>
+        <v>0.7316970331468495</v>
       </c>
       <c r="D21">
-        <v>0.7647082860970593</v>
+        <v>0.7647082860970608</v>
       </c>
       <c r="E21">
-        <v>0.7749311754757309</v>
+        <v>0.7749311754757325</v>
       </c>
       <c r="F21">
-        <v>0.6579044733225302</v>
+        <v>0.657904473322533</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.7791026902539303</v>
+        <v>0.7791026902539319</v>
       </c>
       <c r="K21">
-        <v>0.7861183529325088</v>
+        <v>0.7861183529325104</v>
       </c>
       <c r="L21">
-        <v>0.7959467587578939</v>
+        <v>0.7959467587578956</v>
       </c>
       <c r="M21">
-        <v>0.6845374038852892</v>
+        <v>0.6845374038852917</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1058,31 +1058,31 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.7316970331468476</v>
+        <v>0.7316970331468495</v>
       </c>
       <c r="D22">
-        <v>0.7647082860970593</v>
+        <v>0.7647082860970608</v>
       </c>
       <c r="E22">
-        <v>0.7749311754757309</v>
+        <v>0.7749311754757325</v>
       </c>
       <c r="F22">
-        <v>0.6579044733225302</v>
+        <v>0.657904473322533</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.7791026902539303</v>
+        <v>0.7791026902539319</v>
       </c>
       <c r="K22">
-        <v>0.7861183529325088</v>
+        <v>0.7861183529325104</v>
       </c>
       <c r="L22">
-        <v>0.7959467587578939</v>
+        <v>0.7959467587578956</v>
       </c>
       <c r="M22">
-        <v>0.6845374038852892</v>
+        <v>0.6845374038852917</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1090,16 +1090,16 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.6516409969617141</v>
+        <v>0.6516409969617138</v>
       </c>
       <c r="D23">
         <v>0.69513482568797</v>
       </c>
       <c r="E23">
-        <v>0.7090958984488731</v>
+        <v>0.7090958984488736</v>
       </c>
       <c r="F23">
-        <v>0.5325347683890126</v>
+        <v>0.5325347683890129</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1111,10 +1111,10 @@
         <v>0.7201769881628705</v>
       </c>
       <c r="L23">
-        <v>0.7334203728018645</v>
+        <v>0.7334203728018647</v>
       </c>
       <c r="M23">
-        <v>0.5704620775751333</v>
+        <v>0.5704620775751337</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1122,31 +1122,31 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.6075418155492738</v>
+        <v>0.6075418155492743</v>
       </c>
       <c r="D24">
-        <v>0.6555331648404309</v>
+        <v>0.6555331648404313</v>
       </c>
       <c r="E24">
-        <v>0.6726102585290866</v>
+        <v>0.6726102585290871</v>
       </c>
       <c r="F24">
-        <v>0.3683801614318562</v>
+        <v>0.3683801614318547</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.6674305919631413</v>
+        <v>0.6674305919631416</v>
       </c>
       <c r="K24">
-        <v>0.6804348004000763</v>
+        <v>0.6804348004000765</v>
       </c>
       <c r="L24">
-        <v>0.6965854665483376</v>
+        <v>0.696585466548338</v>
       </c>
       <c r="M24">
-        <v>0.4336263757709837</v>
+        <v>0.4336263757709827</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1154,31 +1154,31 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.6334185576948164</v>
+        <v>0.6334185576948153</v>
       </c>
       <c r="D25">
-        <v>0.6753270956786039</v>
+        <v>0.6753270956786031</v>
       </c>
       <c r="E25">
-        <v>0.6922392756327082</v>
+        <v>0.6922392756327074</v>
       </c>
       <c r="F25">
-        <v>0.2832633648930238</v>
+        <v>0.2832633648930245</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.6824425949092748</v>
+        <v>0.6824425949092738</v>
       </c>
       <c r="K25">
-        <v>0.6965230044355125</v>
+        <v>0.6965230044355117</v>
       </c>
       <c r="L25">
-        <v>0.7127008723141188</v>
+        <v>0.7127008723141178</v>
       </c>
       <c r="M25">
-        <v>0.3759904797742653</v>
+        <v>0.3759904797742655</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_46/res_bus/vm_pu.xlsx
@@ -418,31 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.8742391974303368</v>
+        <v>0.8744418496558234</v>
       </c>
       <c r="D2">
-        <v>0.8909296627374128</v>
+        <v>0.8911181328293599</v>
       </c>
       <c r="E2">
-        <v>0.8955149502566192</v>
+        <v>0.8956941024532341</v>
       </c>
       <c r="F2">
-        <v>0.8428994064649535</v>
+        <v>0.8431183529371007</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9009638237733471</v>
+        <v>0.9011576426181094</v>
       </c>
       <c r="K2">
-        <v>0.9041512626792657</v>
+        <v>0.9043362019240221</v>
       </c>
       <c r="L2">
-        <v>0.9086511980535052</v>
+        <v>0.9088270385715361</v>
       </c>
       <c r="M2">
-        <v>0.8570891992744334</v>
+        <v>0.8573033998751953</v>
+      </c>
+      <c r="N2">
+        <v>0.930964818391858</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -450,31 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8938196856036337</v>
+        <v>0.8939847438400822</v>
       </c>
       <c r="D3">
-        <v>0.9084503524155869</v>
+        <v>0.9086043646388737</v>
       </c>
       <c r="E3">
-        <v>0.9123148469391047</v>
+        <v>0.912461219647331</v>
       </c>
       <c r="F3">
-        <v>0.8670993200020914</v>
+        <v>0.8672754487080248</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9176924975779841</v>
+        <v>0.9178514175926858</v>
       </c>
       <c r="K3">
-        <v>0.9204061280076959</v>
+        <v>0.9205576272430466</v>
       </c>
       <c r="L3">
-        <v>0.9242078954786489</v>
+        <v>0.9243519057224675</v>
       </c>
       <c r="M3">
-        <v>0.8797718925649748</v>
+        <v>0.8799447793211224</v>
+      </c>
+      <c r="N3">
+        <v>0.9429766525280474</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -482,31 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9054034021768784</v>
+        <v>0.9055483010687011</v>
       </c>
       <c r="D4">
-        <v>0.9188299973231543</v>
+        <v>0.9189654370667577</v>
       </c>
       <c r="E4">
-        <v>0.9222715241019638</v>
+        <v>0.9224002285701977</v>
       </c>
       <c r="F4">
-        <v>0.8813520859902644</v>
+        <v>0.8815056850432221</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9275809473001079</v>
+        <v>0.9277209784852032</v>
       </c>
       <c r="K4">
-        <v>0.9300179789148368</v>
+        <v>0.9301513968642138</v>
       </c>
       <c r="L4">
-        <v>0.9334083658688659</v>
+        <v>0.9335351672415644</v>
       </c>
       <c r="M4">
-        <v>0.8931302572184966</v>
+        <v>0.8932813055922991</v>
+      </c>
+      <c r="N4">
+        <v>0.9500751367294537</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -514,31 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9100561058359633</v>
+        <v>0.9101932797851319</v>
       </c>
       <c r="D5">
-        <v>0.9230018210384605</v>
+        <v>0.9231301261111459</v>
       </c>
       <c r="E5">
-        <v>0.9262740675470684</v>
+        <v>0.9263959851291456</v>
       </c>
       <c r="F5">
-        <v>0.8870655959302192</v>
+        <v>0.8872106410161011</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9315505443491719</v>
+        <v>0.9316833028217156</v>
       </c>
       <c r="K5">
-        <v>0.9338771766574812</v>
+        <v>0.9340036369694881</v>
       </c>
       <c r="L5">
-        <v>0.9371025771092286</v>
+        <v>0.9372227573886875</v>
       </c>
       <c r="M5">
-        <v>0.8984845437861347</v>
+        <v>0.8986272814534654</v>
+      </c>
+      <c r="N5">
+        <v>0.9529237017677098</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -546,31 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9108256038783606</v>
+        <v>0.9109615193581977</v>
       </c>
       <c r="D6">
-        <v>0.9236919315993409</v>
+        <v>0.9238190734291397</v>
       </c>
       <c r="E6">
-        <v>0.9269362118480872</v>
+        <v>0.9270570229267303</v>
       </c>
       <c r="F6">
-        <v>0.888009970045844</v>
+        <v>0.8881536257453702</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.932206930478361</v>
+        <v>0.9323385022848604</v>
       </c>
       <c r="K6">
-        <v>0.9345153407859822</v>
+        <v>0.9346406660820624</v>
       </c>
       <c r="L6">
-        <v>0.9377134656039762</v>
+        <v>0.9378325658264777</v>
       </c>
       <c r="M6">
-        <v>0.8993694910435133</v>
+        <v>0.8995108778129948</v>
+      </c>
+      <c r="N6">
+        <v>0.9533946459619634</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -578,31 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9054663773650893</v>
+        <v>0.9056111703430403</v>
       </c>
       <c r="D7">
-        <v>0.9188864535716706</v>
+        <v>0.9190217955611595</v>
       </c>
       <c r="E7">
-        <v>0.9223256869276445</v>
+        <v>0.9224542984046026</v>
       </c>
       <c r="F7">
-        <v>0.8814294598649799</v>
+        <v>0.8815829413416372</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.9276346855377736</v>
+        <v>0.9277746171416763</v>
       </c>
       <c r="K7">
-        <v>0.9300702202966104</v>
+        <v>0.9302035429623324</v>
       </c>
       <c r="L7">
-        <v>0.9334583733046249</v>
+        <v>0.9335850839987825</v>
       </c>
       <c r="M7">
-        <v>0.893202769665708</v>
+        <v>0.8933537038797993</v>
+      </c>
+      <c r="N7">
+        <v>0.9501137038708393</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -610,31 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.8811119010483252</v>
+        <v>0.8813007984110259</v>
       </c>
       <c r="D8">
-        <v>0.8970756545084794</v>
+        <v>0.8972515434570861</v>
       </c>
       <c r="E8">
-        <v>0.9014070236597412</v>
+        <v>0.9015742080424725</v>
       </c>
       <c r="F8">
-        <v>0.851410658904305</v>
+        <v>0.8516138177496186</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.9068371687482089</v>
+        <v>0.9070182656713225</v>
       </c>
       <c r="K8">
-        <v>0.9098573455579482</v>
+        <v>0.9100300903864023</v>
       </c>
       <c r="L8">
-        <v>0.9141117517516941</v>
+        <v>0.9142759846994619</v>
       </c>
       <c r="M8">
-        <v>0.8650666369016354</v>
+        <v>0.8652656321940522</v>
+      </c>
+      <c r="N8">
+        <v>0.9351820525314526</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -642,31 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.8267543075990782</v>
+        <v>0.8270752544150467</v>
       </c>
       <c r="D9">
-        <v>0.8485934001133956</v>
+        <v>0.8488889458568077</v>
       </c>
       <c r="E9">
-        <v>0.8549672749130753</v>
+        <v>0.8552482208118035</v>
       </c>
       <c r="F9">
-        <v>0.7834264480656296</v>
+        <v>0.7837868344939745</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.860359122951764</v>
+        <v>0.8606605067427463</v>
       </c>
       <c r="K9">
-        <v>0.8647357609800222</v>
+        <v>0.8650239230304957</v>
       </c>
       <c r="L9">
-        <v>0.8709519188951541</v>
+        <v>0.871225985773579</v>
       </c>
       <c r="M9">
-        <v>0.8013855336064712</v>
+        <v>0.801734723689843</v>
+      </c>
+      <c r="N9">
+        <v>0.9018479439967709</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -674,31 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.7731584404170223</v>
+        <v>0.77370967910071</v>
       </c>
       <c r="D10">
-        <v>0.8011340342607158</v>
+        <v>0.8016339743580579</v>
       </c>
       <c r="E10">
-        <v>0.8096230143108365</v>
+        <v>0.8100978767504252</v>
       </c>
       <c r="F10">
-        <v>0.7141690045007245</v>
+        <v>0.7148302974143603</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.8145322807595902</v>
+        <v>0.815037146621683</v>
       </c>
       <c r="K10">
-        <v>0.8203429927734663</v>
+        <v>0.8208265642107316</v>
       </c>
       <c r="L10">
-        <v>0.8285578277440325</v>
+        <v>0.8290175896725466</v>
       </c>
       <c r="M10">
-        <v>0.7367309922460556</v>
+        <v>0.737362350546648</v>
+      </c>
+      <c r="N10">
+        <v>0.8691932232952128</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -706,31 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.7368881236539417</v>
+        <v>0.7377670191151239</v>
       </c>
       <c r="D11">
-        <v>0.7692537919435264</v>
+        <v>0.7700402828392893</v>
       </c>
       <c r="E11">
-        <v>0.7792538796548208</v>
+        <v>0.7799999895721852</v>
       </c>
       <c r="F11">
-        <v>0.6651329404898005</v>
+        <v>0.6662628400590247</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.7835383300766607</v>
+        <v>0.7843273554212183</v>
       </c>
       <c r="K11">
-        <v>0.7903973068580238</v>
+        <v>0.7911535819767046</v>
       </c>
       <c r="L11">
-        <v>0.8000195887485525</v>
+        <v>0.8007380561728284</v>
       </c>
       <c r="M11">
-        <v>0.6912197001974418</v>
+        <v>0.6922836894215992</v>
+      </c>
+      <c r="N11">
+        <v>0.8473708289965677</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -738,31 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7165317641374618</v>
+        <v>0.7177965585750828</v>
       </c>
       <c r="D12">
-        <v>0.751454614333424</v>
+        <v>0.7525764523053122</v>
       </c>
       <c r="E12">
-        <v>0.7623391852050485</v>
+        <v>0.7634023121701683</v>
       </c>
       <c r="F12">
-        <v>0.6363935498498018</v>
+        <v>0.6381093505915311</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.7661418939277991</v>
+        <v>0.7672633430599152</v>
       </c>
       <c r="K12">
-        <v>0.7736267596413462</v>
+        <v>0.774701778690953</v>
       </c>
       <c r="L12">
-        <v>0.7840653079058718</v>
+        <v>0.785085835883186</v>
       </c>
       <c r="M12">
-        <v>0.6647016285150273</v>
+        <v>0.6663015444199692</v>
+      </c>
+      <c r="N12">
+        <v>0.8353212606228216</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -770,31 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7215910353267252</v>
+        <v>0.7227328073234159</v>
       </c>
       <c r="D13">
-        <v>0.7558719074494554</v>
+        <v>0.7568869578882235</v>
       </c>
       <c r="E13">
-        <v>0.7665338733544306</v>
+        <v>0.7674960785914348</v>
       </c>
       <c r="F13">
-        <v>0.6436402835612591</v>
+        <v>0.6451666153386045</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.7704663493696449</v>
+        <v>0.7714819299868091</v>
       </c>
       <c r="K13">
-        <v>0.7777926803743708</v>
+        <v>0.7787662118358547</v>
       </c>
       <c r="L13">
-        <v>0.7880262918050452</v>
+        <v>0.788950667007649</v>
       </c>
       <c r="M13">
-        <v>0.6713752065021997</v>
+        <v>0.6728021802776223</v>
+      </c>
+      <c r="N13">
+        <v>0.8382943402170799</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -802,31 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7354491799134768</v>
+        <v>0.7363478412046001</v>
       </c>
       <c r="D14">
-        <v>0.7679933564083851</v>
+        <v>0.7687970586359641</v>
       </c>
       <c r="E14">
-        <v>0.7780550242714455</v>
+        <v>0.7788174126186294</v>
       </c>
       <c r="F14">
-        <v>0.6631354896821972</v>
+        <v>0.6642947001588375</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.7823088138899887</v>
+        <v>0.7831148989274889</v>
       </c>
       <c r="K14">
-        <v>0.7892110357689253</v>
+        <v>0.789983674735802</v>
       </c>
       <c r="L14">
-        <v>0.7988903230728088</v>
+        <v>0.7996243040141299</v>
       </c>
       <c r="M14">
-        <v>0.6893723910531652</v>
+        <v>0.6904632867253808</v>
+      </c>
+      <c r="N14">
+        <v>0.846512677307104</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -834,31 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.7426672542992137</v>
+        <v>0.7434741352141495</v>
       </c>
       <c r="D15">
-        <v>0.7743194070628369</v>
+        <v>0.7750431395449604</v>
       </c>
       <c r="E15">
-        <v>0.7840735220020306</v>
+        <v>0.7847602648821919</v>
       </c>
       <c r="F15">
-        <v>0.6731094261441851</v>
+        <v>0.6741333750624581</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.7884762746191304</v>
+        <v>0.7892030925923029</v>
       </c>
       <c r="K15">
-        <v>0.7951629655084431</v>
+        <v>0.7958595635301179</v>
       </c>
       <c r="L15">
-        <v>0.8045572797014424</v>
+        <v>0.8052191631725271</v>
       </c>
       <c r="M15">
-        <v>0.6986023356293921</v>
+        <v>0.6995689469790424</v>
+      </c>
+      <c r="N15">
+        <v>0.8508246279436984</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -866,319 +908,349 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.7751113447419264</v>
+        <v>0.775650768118381</v>
       </c>
       <c r="D16">
-        <v>0.802856329064826</v>
+        <v>0.8033458686037741</v>
       </c>
       <c r="E16">
-        <v>0.811265988313269</v>
+        <v>0.811730994549931</v>
       </c>
       <c r="F16">
-        <v>0.7167491730027388</v>
+        <v>0.7173943352633867</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.816201474830082</v>
+        <v>0.8166960143979355</v>
       </c>
       <c r="K16">
-        <v>0.8219577727514489</v>
+        <v>0.8224314291283314</v>
       </c>
       <c r="L16">
-        <v>0.8300982619984902</v>
+        <v>0.8305486096321515</v>
       </c>
       <c r="M16">
-        <v>0.7391330594865951</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.7397494101946791</v>
+      </c>
+      <c r="N16">
+        <v>0.8703762482240605</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.7909615153938723</v>
+        <v>0.7914173727256656</v>
       </c>
       <c r="D17">
-        <v>0.8168553698746354</v>
+        <v>0.8172711291422182</v>
       </c>
       <c r="E17">
-        <v>0.8246280547900102</v>
+        <v>0.8250231110241777</v>
       </c>
       <c r="F17">
-        <v>0.737510047999695</v>
+        <v>0.7380430953201301</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.8297509684429857</v>
+        <v>0.830172193889174</v>
       </c>
       <c r="K17">
-        <v>0.8350722199806492</v>
+        <v>0.8354754735575159</v>
       </c>
       <c r="L17">
-        <v>0.8426139704883432</v>
+        <v>0.8429974486226763</v>
       </c>
       <c r="M17">
-        <v>0.7584823773707381</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.7589941006886828</v>
+      </c>
+      <c r="N17">
+        <v>0.8800004053891658</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.7992599992362419</v>
+        <v>0.7996791372803681</v>
       </c>
       <c r="D18">
-        <v>0.8241987974049193</v>
+        <v>0.8245819927080756</v>
       </c>
       <c r="E18">
-        <v>0.831642550143439</v>
+        <v>0.8320067136896633</v>
       </c>
       <c r="F18">
-        <v>0.7482639736348936</v>
+        <v>0.7487489392723978</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.8368462705712053</v>
+        <v>0.8372350924650436</v>
       </c>
       <c r="K18">
-        <v>0.8419441267839979</v>
+        <v>0.8423162602847382</v>
       </c>
       <c r="L18">
-        <v>0.8491754908760086</v>
+        <v>0.8495293971502398</v>
       </c>
       <c r="M18">
-        <v>0.7685186244288444</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.7689852807119232</v>
+      </c>
+      <c r="N18">
+        <v>0.8850533030013917</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8019613865936802</v>
+        <v>0.8023694082672322</v>
       </c>
       <c r="D19">
-        <v>0.8265913068870678</v>
+        <v>0.8269646233300915</v>
       </c>
       <c r="E19">
-        <v>0.8339286192967316</v>
+        <v>0.8342834084532064</v>
       </c>
       <c r="F19">
-        <v>0.7517492445716482</v>
+        <v>0.7522198072230566</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.8391561709557122</v>
+        <v>0.8395351554560617</v>
       </c>
       <c r="K19">
-        <v>0.8441819120390984</v>
+        <v>0.8445445976447771</v>
       </c>
       <c r="L19">
-        <v>0.8513126619288341</v>
+        <v>0.8516575885735127</v>
       </c>
       <c r="M19">
-        <v>0.7717730554888813</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.7722261853878624</v>
+      </c>
+      <c r="N19">
+        <v>0.8866999920533339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.789367619902499</v>
+        <v>0.7898310191561242</v>
       </c>
       <c r="D20">
-        <v>0.8154460028771827</v>
+        <v>0.8158684386014929</v>
       </c>
       <c r="E20">
-        <v>0.8232822133720532</v>
+        <v>0.8236836018729851</v>
       </c>
       <c r="F20">
-        <v>0.7354359422575448</v>
+        <v>0.7359789585518443</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.828388271659116</v>
+        <v>0.8288161366771162</v>
       </c>
       <c r="K20">
-        <v>0.8337527628142237</v>
+        <v>0.8341623928030878</v>
       </c>
       <c r="L20">
-        <v>0.8413543630148488</v>
+        <v>0.8417438992625637</v>
       </c>
       <c r="M20">
-        <v>0.7565476847592769</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.7570687360127797</v>
+      </c>
+      <c r="N20">
+        <v>0.8790309249124306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.7316970331468495</v>
+        <v>0.7326512871575233</v>
       </c>
       <c r="D21">
-        <v>0.7647082860970608</v>
+        <v>0.7655603691294584</v>
       </c>
       <c r="E21">
-        <v>0.7749311754757325</v>
+        <v>0.7757393165100686</v>
       </c>
       <c r="F21">
-        <v>0.657904473322533</v>
+        <v>0.6591466072677264</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.7791026902539319</v>
+        <v>0.7799567296868362</v>
       </c>
       <c r="K21">
-        <v>0.7861183529325104</v>
+        <v>0.7869369861120949</v>
       </c>
       <c r="L21">
-        <v>0.7959467587578956</v>
+        <v>0.7967243394209574</v>
       </c>
       <c r="M21">
-        <v>0.6845374038852917</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.6857043523869738</v>
+      </c>
+      <c r="N21">
+        <v>0.8442787580957877</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.7316970331468495</v>
+        <v>0.7326512871575233</v>
       </c>
       <c r="D22">
-        <v>0.7647082860970608</v>
+        <v>0.7655603691294584</v>
       </c>
       <c r="E22">
-        <v>0.7749311754757325</v>
+        <v>0.7757393165100686</v>
       </c>
       <c r="F22">
-        <v>0.657904473322533</v>
+        <v>0.6591466072677264</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.7791026902539319</v>
+        <v>0.7799567296868362</v>
       </c>
       <c r="K22">
-        <v>0.7861183529325104</v>
+        <v>0.7869369861120949</v>
       </c>
       <c r="L22">
-        <v>0.7959467587578956</v>
+        <v>0.7967243394209574</v>
       </c>
       <c r="M22">
-        <v>0.6845374038852917</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.6857043523869738</v>
+      </c>
+      <c r="N22">
+        <v>0.8442787580957877</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.6516409969617138</v>
+        <v>0.7326512871575233</v>
       </c>
       <c r="D23">
-        <v>0.69513482568797</v>
+        <v>0.7655603691294584</v>
       </c>
       <c r="E23">
-        <v>0.7090958984488736</v>
+        <v>0.7757393165100686</v>
       </c>
       <c r="F23">
-        <v>0.5325347683890129</v>
+        <v>0.6591466072677264</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.7103940419424984</v>
+        <v>0.7799567296868362</v>
       </c>
       <c r="K23">
-        <v>0.7201769881628705</v>
+        <v>0.7869369861120949</v>
       </c>
       <c r="L23">
-        <v>0.7334203728018647</v>
+        <v>0.7967243394209574</v>
       </c>
       <c r="M23">
-        <v>0.5704620775751337</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.6857043523869738</v>
+      </c>
+      <c r="N23">
+        <v>0.8442787580957877</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.6075418155492743</v>
+        <v>0.7326512871575233</v>
       </c>
       <c r="D24">
-        <v>0.6555331648404313</v>
+        <v>0.7655603691294584</v>
       </c>
       <c r="E24">
-        <v>0.6726102585290871</v>
+        <v>0.7757393165100686</v>
       </c>
       <c r="F24">
-        <v>0.3683801614318547</v>
+        <v>0.6591466072677264</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.6674305919631416</v>
+        <v>0.7799567296868362</v>
       </c>
       <c r="K24">
-        <v>0.6804348004000765</v>
+        <v>0.7869369861120949</v>
       </c>
       <c r="L24">
-        <v>0.696585466548338</v>
+        <v>0.7967243394209574</v>
       </c>
       <c r="M24">
-        <v>0.4336263757709827</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.6857043523869738</v>
+      </c>
+      <c r="N24">
+        <v>0.8442787580957877</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.6334185576948153</v>
+        <v>0.7326512871575233</v>
       </c>
       <c r="D25">
-        <v>0.6753270956786031</v>
+        <v>0.7655603691294584</v>
       </c>
       <c r="E25">
-        <v>0.6922392756327074</v>
+        <v>0.7757393165100686</v>
       </c>
       <c r="F25">
-        <v>0.2832633648930245</v>
+        <v>0.6591466072677264</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.6824425949092738</v>
+        <v>0.7799567296868362</v>
       </c>
       <c r="K25">
-        <v>0.6965230044355117</v>
+        <v>0.7869369861120949</v>
       </c>
       <c r="L25">
-        <v>0.7127008723141178</v>
+        <v>0.7967243394209574</v>
       </c>
       <c r="M25">
-        <v>0.3759904797742655</v>
+        <v>0.6857043523869738</v>
+      </c>
+      <c r="N25">
+        <v>0.8442787580957877</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_46/res_bus/vm_pu.xlsx
@@ -417,840 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
       <c r="C2">
-        <v>0.8744418496558234</v>
+        <v>0.8601064986153035</v>
       </c>
       <c r="D2">
-        <v>0.8911181328293599</v>
+        <v>0.8703873486020812</v>
       </c>
       <c r="E2">
-        <v>0.8956941024532341</v>
+        <v>0.8863656011684495</v>
       </c>
       <c r="F2">
-        <v>0.8431183529371007</v>
+        <v>0.8828613089187327</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="I2">
+        <v>1.022619443890402</v>
+      </c>
       <c r="J2">
-        <v>0.9011576426181094</v>
+        <v>0.8874619138278991</v>
       </c>
       <c r="K2">
-        <v>0.9043362019240221</v>
+        <v>0.8840058472826834</v>
       </c>
       <c r="L2">
-        <v>0.9088270385715361</v>
+        <v>0.8996733049262035</v>
       </c>
       <c r="M2">
-        <v>0.8573033998751953</v>
+        <v>0.8962359143045351</v>
       </c>
       <c r="N2">
-        <v>0.930964818391858</v>
+        <v>0.8887222115388388</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
       <c r="C3">
-        <v>0.8939847438400822</v>
+        <v>0.9043597922125221</v>
       </c>
       <c r="D3">
-        <v>0.9086043646388737</v>
+        <v>0.9131815320630896</v>
       </c>
       <c r="E3">
-        <v>0.912461219647331</v>
+        <v>0.9257483838058417</v>
       </c>
       <c r="F3">
-        <v>0.8672754487080248</v>
+        <v>0.9247739301049777</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.030232244222152</v>
+      </c>
       <c r="J3">
-        <v>0.9178514175926858</v>
+        <v>0.9278469358845428</v>
       </c>
       <c r="K3">
-        <v>0.9205576272430466</v>
+        <v>0.9250606064098972</v>
       </c>
       <c r="L3">
-        <v>0.9243519057224675</v>
+        <v>0.9374285917527801</v>
       </c>
       <c r="M3">
-        <v>0.8799447793211224</v>
+        <v>0.9364693113484799</v>
       </c>
       <c r="N3">
-        <v>0.9429766525280474</v>
+        <v>0.92916458495903</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.049999999999999</v>
+      </c>
       <c r="C4">
-        <v>0.9055483010687011</v>
+        <v>0.927670545555099</v>
       </c>
       <c r="D4">
-        <v>0.9189654370667577</v>
+        <v>0.9357567321574485</v>
       </c>
       <c r="E4">
-        <v>0.9224002285701977</v>
+        <v>0.9465401265711164</v>
       </c>
       <c r="F4">
-        <v>0.8815056850432221</v>
+        <v>0.9469068044850337</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.034248216391393</v>
+      </c>
       <c r="J4">
-        <v>0.9277209784852032</v>
+        <v>0.9491246779370832</v>
       </c>
       <c r="K4">
-        <v>0.9301513968642138</v>
+        <v>0.94669777608136</v>
       </c>
       <c r="L4">
-        <v>0.9335351672415644</v>
+        <v>0.9573296654886025</v>
       </c>
       <c r="M4">
-        <v>0.8932813055922991</v>
+        <v>0.9576912681362386</v>
       </c>
       <c r="N4">
-        <v>0.9500751367294537</v>
+        <v>0.9504725438458759</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
       <c r="C5">
-        <v>0.9101932797851319</v>
+        <v>0.9366178638973437</v>
       </c>
       <c r="D5">
-        <v>0.9231301261111459</v>
+        <v>0.9444269491728167</v>
       </c>
       <c r="E5">
-        <v>0.9263959851291456</v>
+        <v>0.9545281410409948</v>
       </c>
       <c r="F5">
-        <v>0.8872106410161011</v>
+        <v>0.9554117763193521</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1.035786069290848</v>
+      </c>
       <c r="J5">
-        <v>0.9316833028217156</v>
+        <v>0.9572904120834086</v>
       </c>
       <c r="K5">
-        <v>0.9340036369694881</v>
+        <v>0.955002999400406</v>
       </c>
       <c r="L5">
-        <v>0.9372227573886875</v>
+        <v>0.9649689279316549</v>
       </c>
       <c r="M5">
-        <v>0.8986272814534654</v>
+        <v>0.965840901224187</v>
       </c>
       <c r="N5">
-        <v>0.9529237017677098</v>
+        <v>0.9586498742713119</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
       <c r="C6">
-        <v>0.9109615193581977</v>
+        <v>0.9380778023959498</v>
       </c>
       <c r="D6">
-        <v>0.9238190734291397</v>
+        <v>0.9458419297344391</v>
       </c>
       <c r="E6">
-        <v>0.9270570229267303</v>
+        <v>0.9558319269912344</v>
       </c>
       <c r="F6">
-        <v>0.8881536257453702</v>
+        <v>0.9568000461095918</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>1.036036689971127</v>
+      </c>
       <c r="J6">
-        <v>0.9323385022848604</v>
+        <v>0.9586227014585772</v>
       </c>
       <c r="K6">
-        <v>0.9346406660820624</v>
+        <v>0.956358138068143</v>
       </c>
       <c r="L6">
-        <v>0.9378325658264777</v>
+        <v>0.9662154241082137</v>
       </c>
       <c r="M6">
-        <v>0.8995108778129948</v>
+        <v>0.9671708668990905</v>
       </c>
       <c r="N6">
-        <v>0.9533946459619634</v>
+        <v>0.9599840556502091</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
       <c r="C7">
-        <v>0.9056111703430403</v>
+        <v>0.9277930834512221</v>
       </c>
       <c r="D7">
-        <v>0.9190217955611595</v>
+        <v>0.9358754563469773</v>
       </c>
       <c r="E7">
-        <v>0.9224542984046026</v>
+        <v>0.9466494990260619</v>
       </c>
       <c r="F7">
-        <v>0.8815829413416372</v>
+        <v>0.9470232479172026</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.034269297441102</v>
+      </c>
       <c r="J7">
-        <v>0.9277746171416763</v>
+        <v>0.9492365188886286</v>
       </c>
       <c r="K7">
-        <v>0.9302035429623324</v>
+        <v>0.9468115212718707</v>
       </c>
       <c r="L7">
-        <v>0.9335850839987825</v>
+        <v>0.957434288442326</v>
       </c>
       <c r="M7">
-        <v>0.8933537038797993</v>
+        <v>0.9578028675177791</v>
       </c>
       <c r="N7">
-        <v>0.9501137038708393</v>
+        <v>0.9505845436244008</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
       <c r="C8">
-        <v>0.8813007984110259</v>
+        <v>0.8765377191457875</v>
       </c>
       <c r="D8">
-        <v>0.8972515434570861</v>
+        <v>0.8862662864654319</v>
       </c>
       <c r="E8">
-        <v>0.9015742080424725</v>
+        <v>0.9009737843076716</v>
       </c>
       <c r="F8">
-        <v>0.8516138177496186</v>
+        <v>0.8984069715332021</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>1.025439864826635</v>
+      </c>
       <c r="J8">
-        <v>0.9070182656713225</v>
+        <v>0.9024533376481358</v>
       </c>
       <c r="K8">
-        <v>0.9100300903864023</v>
+        <v>0.8992443229924096</v>
       </c>
       <c r="L8">
-        <v>0.9142759846994619</v>
+        <v>0.913686167318819</v>
       </c>
       <c r="M8">
-        <v>0.8652656321940522</v>
+        <v>0.9111649042231715</v>
       </c>
       <c r="N8">
-        <v>0.9351820525314526</v>
+        <v>0.9037349249004412</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
       <c r="C9">
-        <v>0.8270752544150467</v>
+        <v>0.8765377191457875</v>
       </c>
       <c r="D9">
-        <v>0.8488889458568077</v>
+        <v>0.8862662864654319</v>
       </c>
       <c r="E9">
-        <v>0.8552482208118035</v>
+        <v>0.9009737843076716</v>
       </c>
       <c r="F9">
-        <v>0.7837868344939745</v>
+        <v>0.8984069715332021</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.025439864826635</v>
+      </c>
       <c r="J9">
-        <v>0.8606605067427463</v>
+        <v>0.9024533376481358</v>
       </c>
       <c r="K9">
-        <v>0.8650239230304957</v>
+        <v>0.8992443229924096</v>
       </c>
       <c r="L9">
-        <v>0.871225985773579</v>
+        <v>0.913686167318819</v>
       </c>
       <c r="M9">
-        <v>0.801734723689843</v>
+        <v>0.9111649042231715</v>
       </c>
       <c r="N9">
-        <v>0.9018479439967709</v>
+        <v>0.9037349249004412</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
       <c r="C10">
-        <v>0.77370967910071</v>
+        <v>0.8765377191457875</v>
       </c>
       <c r="D10">
-        <v>0.8016339743580579</v>
+        <v>0.8862662864654319</v>
       </c>
       <c r="E10">
-        <v>0.8100978767504252</v>
+        <v>0.9009737843076716</v>
       </c>
       <c r="F10">
-        <v>0.7148302974143603</v>
+        <v>0.8984069715332021</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.025439864826635</v>
+      </c>
       <c r="J10">
-        <v>0.815037146621683</v>
+        <v>0.9024533376481358</v>
       </c>
       <c r="K10">
-        <v>0.8208265642107316</v>
+        <v>0.8992443229924096</v>
       </c>
       <c r="L10">
-        <v>0.8290175896725466</v>
+        <v>0.913686167318819</v>
       </c>
       <c r="M10">
-        <v>0.737362350546648</v>
+        <v>0.9111649042231715</v>
       </c>
       <c r="N10">
-        <v>0.8691932232952128</v>
+        <v>0.9037349249004412</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
       <c r="C11">
-        <v>0.7377670191151239</v>
+        <v>0.8765377191457875</v>
       </c>
       <c r="D11">
-        <v>0.7700402828392893</v>
+        <v>0.8862662864654319</v>
       </c>
       <c r="E11">
-        <v>0.7799999895721852</v>
+        <v>0.9009737843076716</v>
       </c>
       <c r="F11">
-        <v>0.6662628400590247</v>
+        <v>0.8984069715332021</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1.025439864826635</v>
+      </c>
       <c r="J11">
-        <v>0.7843273554212183</v>
+        <v>0.9024533376481358</v>
       </c>
       <c r="K11">
-        <v>0.7911535819767046</v>
+        <v>0.8992443229924096</v>
       </c>
       <c r="L11">
-        <v>0.8007380561728284</v>
+        <v>0.913686167318819</v>
       </c>
       <c r="M11">
-        <v>0.6922836894215992</v>
+        <v>0.9111649042231715</v>
       </c>
       <c r="N11">
-        <v>0.8473708289965677</v>
+        <v>0.9037349249004412</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
       <c r="C12">
-        <v>0.7177965585750828</v>
+        <v>0.8765377191457875</v>
       </c>
       <c r="D12">
-        <v>0.7525764523053122</v>
+        <v>0.8862662864654319</v>
       </c>
       <c r="E12">
-        <v>0.7634023121701683</v>
+        <v>0.9009737843076716</v>
       </c>
       <c r="F12">
-        <v>0.6381093505915311</v>
+        <v>0.8984069715332021</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.025439864826635</v>
+      </c>
       <c r="J12">
-        <v>0.7672633430599152</v>
+        <v>0.9024533376481358</v>
       </c>
       <c r="K12">
-        <v>0.774701778690953</v>
+        <v>0.8992443229924096</v>
       </c>
       <c r="L12">
-        <v>0.785085835883186</v>
+        <v>0.913686167318819</v>
       </c>
       <c r="M12">
-        <v>0.6663015444199692</v>
+        <v>0.9111649042231715</v>
       </c>
       <c r="N12">
-        <v>0.8353212606228216</v>
+        <v>0.9037349249004412</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
       <c r="C13">
-        <v>0.7227328073234159</v>
+        <v>0.8765377191457875</v>
       </c>
       <c r="D13">
-        <v>0.7568869578882235</v>
+        <v>0.8862662864654319</v>
       </c>
       <c r="E13">
-        <v>0.7674960785914348</v>
+        <v>0.9009737843076716</v>
       </c>
       <c r="F13">
-        <v>0.6451666153386045</v>
+        <v>0.8984069715332021</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1.025439864826635</v>
+      </c>
       <c r="J13">
-        <v>0.7714819299868091</v>
+        <v>0.9024533376481358</v>
       </c>
       <c r="K13">
-        <v>0.7787662118358547</v>
+        <v>0.8992443229924096</v>
       </c>
       <c r="L13">
-        <v>0.788950667007649</v>
+        <v>0.913686167318819</v>
       </c>
       <c r="M13">
-        <v>0.6728021802776223</v>
+        <v>0.9111649042231715</v>
       </c>
       <c r="N13">
-        <v>0.8382943402170799</v>
+        <v>0.9037349249004412</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
       <c r="C14">
-        <v>0.7363478412046001</v>
+        <v>0.8765377191457875</v>
       </c>
       <c r="D14">
-        <v>0.7687970586359641</v>
+        <v>0.8862662864654319</v>
       </c>
       <c r="E14">
-        <v>0.7788174126186294</v>
+        <v>0.9009737843076716</v>
       </c>
       <c r="F14">
-        <v>0.6642947001588375</v>
+        <v>0.8984069715332021</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>1.025439864826635</v>
+      </c>
       <c r="J14">
-        <v>0.7831148989274889</v>
+        <v>0.9024533376481358</v>
       </c>
       <c r="K14">
-        <v>0.789983674735802</v>
+        <v>0.8992443229924096</v>
       </c>
       <c r="L14">
-        <v>0.7996243040141299</v>
+        <v>0.913686167318819</v>
       </c>
       <c r="M14">
-        <v>0.6904632867253808</v>
+        <v>0.9111649042231715</v>
       </c>
       <c r="N14">
-        <v>0.846512677307104</v>
+        <v>0.9037349249004412</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
       <c r="C15">
-        <v>0.7434741352141495</v>
+        <v>0.8765377191457875</v>
       </c>
       <c r="D15">
-        <v>0.7750431395449604</v>
+        <v>0.8862662864654319</v>
       </c>
       <c r="E15">
-        <v>0.7847602648821919</v>
+        <v>0.9009737843076716</v>
       </c>
       <c r="F15">
-        <v>0.6741333750624581</v>
+        <v>0.8984069715332021</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1.025439864826635</v>
+      </c>
       <c r="J15">
-        <v>0.7892030925923029</v>
+        <v>0.9024533376481358</v>
       </c>
       <c r="K15">
-        <v>0.7958595635301179</v>
+        <v>0.8992443229924096</v>
       </c>
       <c r="L15">
-        <v>0.8052191631725271</v>
+        <v>0.913686167318819</v>
       </c>
       <c r="M15">
-        <v>0.6995689469790424</v>
+        <v>0.9111649042231715</v>
       </c>
       <c r="N15">
-        <v>0.8508246279436984</v>
+        <v>0.9037349249004412</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
       <c r="C16">
-        <v>0.775650768118381</v>
+        <v>0.8765377191457875</v>
       </c>
       <c r="D16">
-        <v>0.8033458686037741</v>
+        <v>0.8862662864654319</v>
       </c>
       <c r="E16">
-        <v>0.811730994549931</v>
+        <v>0.9009737843076716</v>
       </c>
       <c r="F16">
-        <v>0.7173943352633867</v>
+        <v>0.8984069715332021</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>1.025439864826635</v>
+      </c>
       <c r="J16">
-        <v>0.8166960143979355</v>
+        <v>0.9024533376481358</v>
       </c>
       <c r="K16">
-        <v>0.8224314291283314</v>
+        <v>0.8992443229924096</v>
       </c>
       <c r="L16">
-        <v>0.8305486096321515</v>
+        <v>0.913686167318819</v>
       </c>
       <c r="M16">
-        <v>0.7397494101946791</v>
+        <v>0.9111649042231715</v>
       </c>
       <c r="N16">
-        <v>0.8703762482240605</v>
+        <v>0.9037349249004412</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
       <c r="C17">
-        <v>0.7914173727256656</v>
+        <v>0.8765377191457875</v>
       </c>
       <c r="D17">
-        <v>0.8172711291422182</v>
+        <v>0.8862662864654319</v>
       </c>
       <c r="E17">
-        <v>0.8250231110241777</v>
+        <v>0.9009737843076716</v>
       </c>
       <c r="F17">
-        <v>0.7380430953201301</v>
+        <v>0.8984069715332021</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1.025439864826635</v>
+      </c>
       <c r="J17">
-        <v>0.830172193889174</v>
+        <v>0.9024533376481358</v>
       </c>
       <c r="K17">
-        <v>0.8354754735575159</v>
+        <v>0.8992443229924096</v>
       </c>
       <c r="L17">
-        <v>0.8429974486226763</v>
+        <v>0.913686167318819</v>
       </c>
       <c r="M17">
-        <v>0.7589941006886828</v>
+        <v>0.9111649042231715</v>
       </c>
       <c r="N17">
-        <v>0.8800004053891658</v>
+        <v>0.9037349249004412</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
       <c r="C18">
-        <v>0.7996791372803681</v>
+        <v>0.8765377191457875</v>
       </c>
       <c r="D18">
-        <v>0.8245819927080756</v>
+        <v>0.8862662864654319</v>
       </c>
       <c r="E18">
-        <v>0.8320067136896633</v>
+        <v>0.9009737843076716</v>
       </c>
       <c r="F18">
-        <v>0.7487489392723978</v>
+        <v>0.8984069715332021</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1.025439864826635</v>
+      </c>
       <c r="J18">
-        <v>0.8372350924650436</v>
+        <v>0.9024533376481358</v>
       </c>
       <c r="K18">
-        <v>0.8423162602847382</v>
+        <v>0.8992443229924096</v>
       </c>
       <c r="L18">
-        <v>0.8495293971502398</v>
+        <v>0.913686167318819</v>
       </c>
       <c r="M18">
-        <v>0.7689852807119232</v>
+        <v>0.9111649042231715</v>
       </c>
       <c r="N18">
-        <v>0.8850533030013917</v>
+        <v>0.9037349249004412</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
       <c r="C19">
-        <v>0.8023694082672322</v>
+        <v>0.8765377191457875</v>
       </c>
       <c r="D19">
-        <v>0.8269646233300915</v>
+        <v>0.8862662864654319</v>
       </c>
       <c r="E19">
-        <v>0.8342834084532064</v>
+        <v>0.9009737843076716</v>
       </c>
       <c r="F19">
-        <v>0.7522198072230566</v>
+        <v>0.8984069715332021</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.025439864826635</v>
+      </c>
       <c r="J19">
-        <v>0.8395351554560617</v>
+        <v>0.9024533376481358</v>
       </c>
       <c r="K19">
-        <v>0.8445445976447771</v>
+        <v>0.8992443229924096</v>
       </c>
       <c r="L19">
-        <v>0.8516575885735127</v>
+        <v>0.913686167318819</v>
       </c>
       <c r="M19">
-        <v>0.7722261853878624</v>
+        <v>0.9111649042231715</v>
       </c>
       <c r="N19">
-        <v>0.8866999920533339</v>
+        <v>0.9037349249004412</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
       <c r="C20">
-        <v>0.7898310191561242</v>
+        <v>0.8765377191457875</v>
       </c>
       <c r="D20">
-        <v>0.8158684386014929</v>
+        <v>0.8862662864654319</v>
       </c>
       <c r="E20">
-        <v>0.8236836018729851</v>
+        <v>0.9009737843076716</v>
       </c>
       <c r="F20">
-        <v>0.7359789585518443</v>
+        <v>0.8984069715332021</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>1.025439864826635</v>
+      </c>
       <c r="J20">
-        <v>0.8288161366771162</v>
+        <v>0.9024533376481358</v>
       </c>
       <c r="K20">
-        <v>0.8341623928030878</v>
+        <v>0.8992443229924096</v>
       </c>
       <c r="L20">
-        <v>0.8417438992625637</v>
+        <v>0.913686167318819</v>
       </c>
       <c r="M20">
-        <v>0.7570687360127797</v>
+        <v>0.9111649042231715</v>
       </c>
       <c r="N20">
-        <v>0.8790309249124306</v>
+        <v>0.9037349249004412</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
       <c r="C21">
-        <v>0.7326512871575233</v>
+        <v>0.8765377191457875</v>
       </c>
       <c r="D21">
-        <v>0.7655603691294584</v>
+        <v>0.8862662864654319</v>
       </c>
       <c r="E21">
-        <v>0.7757393165100686</v>
+        <v>0.9009737843076716</v>
       </c>
       <c r="F21">
-        <v>0.6591466072677264</v>
+        <v>0.8984069715332021</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="I21">
+        <v>1.025439864826635</v>
+      </c>
       <c r="J21">
-        <v>0.7799567296868362</v>
+        <v>0.9024533376481358</v>
       </c>
       <c r="K21">
-        <v>0.7869369861120949</v>
+        <v>0.8992443229924096</v>
       </c>
       <c r="L21">
-        <v>0.7967243394209574</v>
+        <v>0.913686167318819</v>
       </c>
       <c r="M21">
-        <v>0.6857043523869738</v>
+        <v>0.9111649042231715</v>
       </c>
       <c r="N21">
-        <v>0.8442787580957877</v>
+        <v>0.9037349249004412</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
       <c r="C22">
-        <v>0.7326512871575233</v>
+        <v>0.8765377191457875</v>
       </c>
       <c r="D22">
-        <v>0.7655603691294584</v>
+        <v>0.8862662864654319</v>
       </c>
       <c r="E22">
-        <v>0.7757393165100686</v>
+        <v>0.9009737843076716</v>
       </c>
       <c r="F22">
-        <v>0.6591466072677264</v>
+        <v>0.8984069715332021</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.025439864826635</v>
+      </c>
       <c r="J22">
-        <v>0.7799567296868362</v>
+        <v>0.9024533376481358</v>
       </c>
       <c r="K22">
-        <v>0.7869369861120949</v>
+        <v>0.8992443229924096</v>
       </c>
       <c r="L22">
-        <v>0.7967243394209574</v>
+        <v>0.913686167318819</v>
       </c>
       <c r="M22">
-        <v>0.6857043523869738</v>
+        <v>0.9111649042231715</v>
       </c>
       <c r="N22">
-        <v>0.8442787580957877</v>
+        <v>0.9037349249004412</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
       <c r="C23">
-        <v>0.7326512871575233</v>
+        <v>0.8765377191457875</v>
       </c>
       <c r="D23">
-        <v>0.7655603691294584</v>
+        <v>0.8862662864654319</v>
       </c>
       <c r="E23">
-        <v>0.7757393165100686</v>
+        <v>0.9009737843076716</v>
       </c>
       <c r="F23">
-        <v>0.6591466072677264</v>
+        <v>0.8984069715332021</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.025439864826635</v>
+      </c>
       <c r="J23">
-        <v>0.7799567296868362</v>
+        <v>0.9024533376481358</v>
       </c>
       <c r="K23">
-        <v>0.7869369861120949</v>
+        <v>0.8992443229924096</v>
       </c>
       <c r="L23">
-        <v>0.7967243394209574</v>
+        <v>0.913686167318819</v>
       </c>
       <c r="M23">
-        <v>0.6857043523869738</v>
+        <v>0.9111649042231715</v>
       </c>
       <c r="N23">
-        <v>0.8442787580957877</v>
+        <v>0.9037349249004412</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
       <c r="C24">
-        <v>0.7326512871575233</v>
+        <v>0.8765377191457875</v>
       </c>
       <c r="D24">
-        <v>0.7655603691294584</v>
+        <v>0.8862662864654319</v>
       </c>
       <c r="E24">
-        <v>0.7757393165100686</v>
+        <v>0.9009737843076716</v>
       </c>
       <c r="F24">
-        <v>0.6591466072677264</v>
+        <v>0.8984069715332021</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.025439864826635</v>
+      </c>
       <c r="J24">
-        <v>0.7799567296868362</v>
+        <v>0.9024533376481358</v>
       </c>
       <c r="K24">
-        <v>0.7869369861120949</v>
+        <v>0.8992443229924096</v>
       </c>
       <c r="L24">
-        <v>0.7967243394209574</v>
+        <v>0.913686167318819</v>
       </c>
       <c r="M24">
-        <v>0.6857043523869738</v>
+        <v>0.9111649042231715</v>
       </c>
       <c r="N24">
-        <v>0.8442787580957877</v>
+        <v>0.9037349249004412</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
       <c r="C25">
-        <v>0.7326512871575233</v>
+        <v>0.8765377191457875</v>
       </c>
       <c r="D25">
-        <v>0.7655603691294584</v>
+        <v>0.8862662864654319</v>
       </c>
       <c r="E25">
-        <v>0.7757393165100686</v>
+        <v>0.9009737843076716</v>
       </c>
       <c r="F25">
-        <v>0.6591466072677264</v>
+        <v>0.8984069715332021</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.025439864826635</v>
+      </c>
       <c r="J25">
-        <v>0.7799567296868362</v>
+        <v>0.9024533376481358</v>
       </c>
       <c r="K25">
-        <v>0.7869369861120949</v>
+        <v>0.8992443229924096</v>
       </c>
       <c r="L25">
-        <v>0.7967243394209574</v>
+        <v>0.913686167318819</v>
       </c>
       <c r="M25">
-        <v>0.6857043523869738</v>
+        <v>0.9111649042231715</v>
       </c>
       <c r="N25">
-        <v>0.8442787580957877</v>
+        <v>0.9037349249004412</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_46/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8601064986153035</v>
+        <v>1.01911124084303</v>
       </c>
       <c r="D2">
-        <v>0.8703873486020812</v>
+        <v>1.025190479063075</v>
       </c>
       <c r="E2">
-        <v>0.8863656011684495</v>
+        <v>1.030830276873164</v>
       </c>
       <c r="F2">
-        <v>0.8828613089187327</v>
+        <v>1.038219339778023</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.022619443890402</v>
+        <v>1.056810950715528</v>
       </c>
       <c r="J2">
-        <v>0.8874619138278991</v>
+        <v>1.040734985797156</v>
       </c>
       <c r="K2">
-        <v>0.8840058472826834</v>
+        <v>1.036309680489859</v>
       </c>
       <c r="L2">
-        <v>0.8996733049262035</v>
+        <v>1.041876177469372</v>
       </c>
       <c r="M2">
-        <v>0.8962359143045351</v>
+        <v>1.049170709196001</v>
       </c>
       <c r="N2">
-        <v>0.8887222115388388</v>
+        <v>1.042212948850959</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9043597922125221</v>
+        <v>1.026705233892384</v>
       </c>
       <c r="D3">
-        <v>0.9131815320630896</v>
+        <v>1.031765722211501</v>
       </c>
       <c r="E3">
-        <v>0.9257483838058417</v>
+        <v>1.037387722346073</v>
       </c>
       <c r="F3">
-        <v>0.9247739301049777</v>
+        <v>1.045188049979455</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030232244222152</v>
+        <v>1.05938459068066</v>
       </c>
       <c r="J3">
-        <v>0.9278469358845428</v>
+        <v>1.046493446061441</v>
       </c>
       <c r="K3">
-        <v>0.9250606064098972</v>
+        <v>1.042007668698719</v>
       </c>
       <c r="L3">
-        <v>0.9374285917527801</v>
+        <v>1.047563566072319</v>
       </c>
       <c r="M3">
-        <v>0.9364693113484799</v>
+        <v>1.055273632676686</v>
       </c>
       <c r="N3">
-        <v>0.92916458495903</v>
+        <v>1.047979586789324</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.927670545555099</v>
+        <v>1.031470723878158</v>
       </c>
       <c r="D4">
-        <v>0.9357567321574485</v>
+        <v>1.035896652185766</v>
       </c>
       <c r="E4">
-        <v>0.9465401265711164</v>
+        <v>1.04150841626444</v>
       </c>
       <c r="F4">
-        <v>0.9469068044850337</v>
+        <v>1.049567953065479</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034248216391393</v>
+        <v>1.060983167207453</v>
       </c>
       <c r="J4">
-        <v>0.9491246779370832</v>
+        <v>1.050102282226906</v>
       </c>
       <c r="K4">
-        <v>0.94669777608136</v>
+        <v>1.045580311733243</v>
       </c>
       <c r="L4">
-        <v>0.9573296654886025</v>
+        <v>1.051130409495538</v>
       </c>
       <c r="M4">
-        <v>0.9576912681362386</v>
+        <v>1.059102795617113</v>
       </c>
       <c r="N4">
-        <v>0.9504725438458759</v>
+        <v>1.051593547916083</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9366178638973437</v>
+        <v>1.033440619203755</v>
       </c>
       <c r="D5">
-        <v>0.9444269491728167</v>
+        <v>1.037605298369068</v>
       </c>
       <c r="E5">
-        <v>0.9545281410409948</v>
+        <v>1.043213048559155</v>
       </c>
       <c r="F5">
-        <v>0.9554117763193521</v>
+        <v>1.051380003663074</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035786069290848</v>
+        <v>1.061639948489741</v>
       </c>
       <c r="J5">
-        <v>0.9572904120834086</v>
+        <v>1.051592840696268</v>
       </c>
       <c r="K5">
-        <v>0.955002999400406</v>
+        <v>1.047056326783636</v>
       </c>
       <c r="L5">
-        <v>0.9649689279316549</v>
+        <v>1.052604226989291</v>
       </c>
       <c r="M5">
-        <v>0.965840901224187</v>
+        <v>1.060685413261894</v>
       </c>
       <c r="N5">
-        <v>0.9586498742713119</v>
+        <v>1.053086223149442</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9380778023959498</v>
+        <v>1.033769462719819</v>
       </c>
       <c r="D6">
-        <v>0.9458419297344391</v>
+        <v>1.037890590317406</v>
       </c>
       <c r="E6">
-        <v>0.9558319269912344</v>
+        <v>1.043497683059224</v>
       </c>
       <c r="F6">
-        <v>0.9568000461095918</v>
+        <v>1.051682585845206</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036036689971127</v>
+        <v>1.061749349834026</v>
       </c>
       <c r="J6">
-        <v>0.9586227014585772</v>
+        <v>1.051841593118638</v>
       </c>
       <c r="K6">
-        <v>0.956358138068143</v>
+        <v>1.047302675876114</v>
       </c>
       <c r="L6">
-        <v>0.9662154241082137</v>
+        <v>1.052850220859485</v>
       </c>
       <c r="M6">
-        <v>0.9671708668990905</v>
+        <v>1.060949590945693</v>
       </c>
       <c r="N6">
-        <v>0.9599840556502091</v>
+        <v>1.053335328828783</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9277930834512221</v>
+        <v>1.031497174901756</v>
       </c>
       <c r="D7">
-        <v>0.9358754563469773</v>
+        <v>1.035919591171222</v>
       </c>
       <c r="E7">
-        <v>0.9466494990260619</v>
+        <v>1.041531300500544</v>
       </c>
       <c r="F7">
-        <v>0.9470232479172026</v>
+        <v>1.049592278607057</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034269297441102</v>
+        <v>1.060992002208879</v>
       </c>
       <c r="J7">
-        <v>0.9492365188886286</v>
+        <v>1.05012230178283</v>
       </c>
       <c r="K7">
-        <v>0.9468115212718707</v>
+        <v>1.045600134356724</v>
       </c>
       <c r="L7">
-        <v>0.957434288442326</v>
+        <v>1.05115020182589</v>
       </c>
       <c r="M7">
-        <v>0.9578028675177791</v>
+        <v>1.059124047436522</v>
       </c>
       <c r="N7">
-        <v>0.9505845436244008</v>
+        <v>1.051613595902074</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8765377191457875</v>
+        <v>1.021709635239667</v>
       </c>
       <c r="D8">
-        <v>0.8862662864654319</v>
+        <v>1.027439241048781</v>
       </c>
       <c r="E8">
-        <v>0.9009737843076716</v>
+        <v>1.033072748082577</v>
       </c>
       <c r="F8">
-        <v>0.8984069715332021</v>
+        <v>1.040602292982154</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.025439864826635</v>
+        <v>1.057694995205182</v>
       </c>
       <c r="J8">
-        <v>0.9024533376481358</v>
+        <v>1.042706297499832</v>
       </c>
       <c r="K8">
-        <v>0.8992443229924096</v>
+        <v>1.038259927918969</v>
       </c>
       <c r="L8">
-        <v>0.913686167318819</v>
+        <v>1.043822615208948</v>
       </c>
       <c r="M8">
-        <v>0.9111649042231715</v>
+        <v>1.051258994492935</v>
       </c>
       <c r="N8">
-        <v>0.9037349249004412</v>
+        <v>1.044187060042365</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8765377191457875</v>
+        <v>1.00322710716542</v>
       </c>
       <c r="D9">
-        <v>0.8862662864654319</v>
+        <v>1.01146794029237</v>
       </c>
       <c r="E9">
-        <v>0.9009737843076716</v>
+        <v>1.017150537544039</v>
       </c>
       <c r="F9">
-        <v>0.8984069715332021</v>
+        <v>1.023685732997788</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025439864826635</v>
+        <v>1.051338303922823</v>
       </c>
       <c r="J9">
-        <v>0.9024533376481358</v>
+        <v>1.028666420374618</v>
       </c>
       <c r="K9">
-        <v>0.8992443229924096</v>
+        <v>1.024377658412524</v>
       </c>
       <c r="L9">
-        <v>0.913686167318819</v>
+        <v>1.02997135529829</v>
       </c>
       <c r="M9">
-        <v>0.9111649042231715</v>
+        <v>1.036405868500413</v>
       </c>
       <c r="N9">
-        <v>0.9037349249004412</v>
+        <v>1.030127244681237</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8765377191457875</v>
+        <v>0.989917125213388</v>
       </c>
       <c r="D10">
-        <v>0.8862662864654319</v>
+        <v>1.000002322610322</v>
       </c>
       <c r="E10">
-        <v>0.9009737843076716</v>
+        <v>1.00572624561624</v>
       </c>
       <c r="F10">
-        <v>0.8984069715332021</v>
+        <v>1.011551717886601</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025439864826635</v>
+        <v>1.046676281432456</v>
       </c>
       <c r="J10">
-        <v>0.9024533376481358</v>
+        <v>1.018536577487575</v>
       </c>
       <c r="K10">
-        <v>0.8992443229924096</v>
+        <v>1.01437153512181</v>
       </c>
       <c r="L10">
-        <v>0.913686167318819</v>
+        <v>1.019992874930249</v>
       </c>
       <c r="M10">
-        <v>0.9111649042231715</v>
+        <v>1.025715488488714</v>
       </c>
       <c r="N10">
-        <v>0.9037349249004412</v>
+        <v>1.019983016255385</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8765377191457875</v>
+        <v>0.9838777372098269</v>
       </c>
       <c r="D11">
-        <v>0.8862662864654319</v>
+        <v>0.9948101083882168</v>
       </c>
       <c r="E11">
-        <v>0.9009737843076716</v>
+        <v>1.000554352151688</v>
       </c>
       <c r="F11">
-        <v>0.8984069715332021</v>
+        <v>1.006059318588809</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025439864826635</v>
+        <v>1.044542080504419</v>
       </c>
       <c r="J11">
-        <v>0.9024533376481358</v>
+        <v>1.013936949654746</v>
       </c>
       <c r="K11">
-        <v>0.8992443229924096</v>
+        <v>1.0098305666637</v>
       </c>
       <c r="L11">
-        <v>0.913686167318819</v>
+        <v>1.015465821769755</v>
       </c>
       <c r="M11">
-        <v>0.9111649042231715</v>
+        <v>1.020867862612977</v>
       </c>
       <c r="N11">
-        <v>0.9037349249004412</v>
+        <v>1.015376856423449</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8765377191457875</v>
+        <v>0.9815888268897014</v>
       </c>
       <c r="D12">
-        <v>0.8862662864654319</v>
+        <v>0.9928439921294878</v>
       </c>
       <c r="E12">
-        <v>0.9009737843076716</v>
+        <v>0.9985961878846462</v>
       </c>
       <c r="F12">
-        <v>0.8984069715332021</v>
+        <v>1.003979915837972</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025439864826635</v>
+        <v>1.043730515032223</v>
       </c>
       <c r="J12">
-        <v>0.9024533376481358</v>
+        <v>1.01219334942479</v>
       </c>
       <c r="K12">
-        <v>0.8992443229924096</v>
+        <v>1.008109586223671</v>
       </c>
       <c r="L12">
-        <v>0.913686167318819</v>
+        <v>1.013750332228567</v>
       </c>
       <c r="M12">
-        <v>0.9111649042231715</v>
+        <v>1.019031262103582</v>
       </c>
       <c r="N12">
-        <v>0.9037349249004412</v>
+        <v>1.013630780081173</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8765377191457875</v>
+        <v>0.9820819426902635</v>
       </c>
       <c r="D13">
-        <v>0.8862662864654319</v>
+        <v>0.9932674857060542</v>
       </c>
       <c r="E13">
-        <v>0.9009737843076716</v>
+        <v>0.9990179567499569</v>
       </c>
       <c r="F13">
-        <v>0.8984069715332021</v>
+        <v>1.004427793424551</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025439864826635</v>
+        <v>1.043905476451599</v>
       </c>
       <c r="J13">
-        <v>0.9024533376481358</v>
+        <v>1.012568999061305</v>
       </c>
       <c r="K13">
-        <v>0.8992443229924096</v>
+        <v>1.008480345052285</v>
       </c>
       <c r="L13">
-        <v>0.913686167318819</v>
+        <v>1.014119898132223</v>
       </c>
       <c r="M13">
-        <v>0.9111649042231715</v>
+        <v>1.019426902109491</v>
       </c>
       <c r="N13">
-        <v>0.9037349249004412</v>
+        <v>1.014006963183259</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8765377191457875</v>
+        <v>0.983689491615038</v>
       </c>
       <c r="D14">
-        <v>0.8862662864654319</v>
+        <v>0.9946483742987776</v>
       </c>
       <c r="E14">
-        <v>0.9009737843076716</v>
+        <v>1.000393266885266</v>
       </c>
       <c r="F14">
-        <v>0.8984069715332021</v>
+        <v>1.005888257648697</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025439864826635</v>
+        <v>1.044475389573547</v>
       </c>
       <c r="J14">
-        <v>0.9024533376481358</v>
+        <v>1.013793558089992</v>
       </c>
       <c r="K14">
-        <v>0.8992443229924096</v>
+        <v>1.00968902748348</v>
       </c>
       <c r="L14">
-        <v>0.913686167318819</v>
+        <v>1.015324729707959</v>
       </c>
       <c r="M14">
-        <v>0.9111649042231715</v>
+        <v>1.020716802177233</v>
       </c>
       <c r="N14">
-        <v>0.9037349249004412</v>
+        <v>1.015233261226227</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8765377191457875</v>
+        <v>0.9846737780040413</v>
       </c>
       <c r="D15">
-        <v>0.8862662864654319</v>
+        <v>0.9954941098802254</v>
       </c>
       <c r="E15">
-        <v>0.9009737843076716</v>
+        <v>1.001235620209442</v>
       </c>
       <c r="F15">
-        <v>0.8984069715332021</v>
+        <v>1.006782780580748</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025439864826635</v>
+        <v>1.044823989466543</v>
       </c>
       <c r="J15">
-        <v>0.9024533376481358</v>
+        <v>1.014543301026363</v>
       </c>
       <c r="K15">
-        <v>0.8992443229924096</v>
+        <v>1.010429100611397</v>
       </c>
       <c r="L15">
-        <v>0.913686167318819</v>
+        <v>1.016062473856008</v>
       </c>
       <c r="M15">
-        <v>0.9111649042231715</v>
+        <v>1.021506684064166</v>
       </c>
       <c r="N15">
-        <v>0.9037349249004412</v>
+        <v>1.015984068883563</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8765377191457875</v>
+        <v>0.9903117826335994</v>
       </c>
       <c r="D16">
-        <v>0.8862662864654319</v>
+        <v>1.000341846247633</v>
       </c>
       <c r="E16">
-        <v>0.9009737843076716</v>
+        <v>1.006064474978384</v>
       </c>
       <c r="F16">
-        <v>0.8984069715332021</v>
+        <v>1.011910923245025</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025439864826635</v>
+        <v>1.046815366230087</v>
       </c>
       <c r="J16">
-        <v>0.9024533376481358</v>
+        <v>1.018837094414665</v>
       </c>
       <c r="K16">
-        <v>0.8992443229924096</v>
+        <v>1.014668271691768</v>
       </c>
       <c r="L16">
-        <v>0.913686167318819</v>
+        <v>1.020288731421096</v>
       </c>
       <c r="M16">
-        <v>0.9111649042231715</v>
+        <v>1.026032345562204</v>
       </c>
       <c r="N16">
-        <v>0.9037349249004412</v>
+        <v>1.020283959950983</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8765377191457875</v>
+        <v>0.9937716931948906</v>
       </c>
       <c r="D17">
-        <v>0.8862662864654319</v>
+        <v>1.003319584475945</v>
       </c>
       <c r="E17">
-        <v>0.9009737843076716</v>
+        <v>1.009031044839463</v>
       </c>
       <c r="F17">
-        <v>0.8984069715332021</v>
+        <v>1.015061559592542</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025439864826635</v>
+        <v>1.048032597652532</v>
       </c>
       <c r="J17">
-        <v>0.9024533376481358</v>
+        <v>1.02147133814795</v>
       </c>
       <c r="K17">
-        <v>0.8992443229924096</v>
+        <v>1.0172696586292</v>
       </c>
       <c r="L17">
-        <v>0.913686167318819</v>
+        <v>1.022882558597124</v>
       </c>
       <c r="M17">
-        <v>0.9111649042231715</v>
+        <v>1.028810560089197</v>
       </c>
       <c r="N17">
-        <v>0.9037349249004412</v>
+        <v>1.022921944612521</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8765377191457875</v>
+        <v>0.9957634703955669</v>
       </c>
       <c r="D18">
-        <v>0.8862662864654319</v>
+        <v>1.005034741796165</v>
       </c>
       <c r="E18">
-        <v>0.9009737843076716</v>
+        <v>1.010739918986319</v>
       </c>
       <c r="F18">
-        <v>0.8984069715332021</v>
+        <v>1.01687653920752</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025439864826635</v>
+        <v>1.048731552029435</v>
       </c>
       <c r="J18">
-        <v>0.9024533376481358</v>
+        <v>1.022987489692405</v>
       </c>
       <c r="K18">
-        <v>0.8992443229924096</v>
+        <v>1.018767131294203</v>
       </c>
       <c r="L18">
-        <v>0.913686167318819</v>
+        <v>1.024375807269657</v>
       </c>
       <c r="M18">
-        <v>0.9111649042231715</v>
+        <v>1.030410184288549</v>
       </c>
       <c r="N18">
-        <v>0.9037349249004412</v>
+        <v>1.024440249266074</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8765377191457875</v>
+        <v>0.9964382654710007</v>
       </c>
       <c r="D19">
-        <v>0.8862662864654319</v>
+        <v>1.005615977762755</v>
       </c>
       <c r="E19">
-        <v>0.9009737843076716</v>
+        <v>1.01131905066141</v>
       </c>
       <c r="F19">
-        <v>0.8984069715332021</v>
+        <v>1.017491642655473</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025439864826635</v>
+        <v>1.048968047095834</v>
       </c>
       <c r="J19">
-        <v>0.9024533376481358</v>
+        <v>1.023501090916866</v>
       </c>
       <c r="K19">
-        <v>0.8992443229924096</v>
+        <v>1.019274444054668</v>
       </c>
       <c r="L19">
-        <v>0.913686167318819</v>
+        <v>1.024881710389217</v>
       </c>
       <c r="M19">
-        <v>0.9111649042231715</v>
+        <v>1.030952164747373</v>
       </c>
       <c r="N19">
-        <v>0.9037349249004412</v>
+        <v>1.024954579863184</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8765377191457875</v>
+        <v>0.9934032290690109</v>
       </c>
       <c r="D20">
-        <v>0.8862662864654319</v>
+        <v>1.003002369135843</v>
       </c>
       <c r="E20">
-        <v>0.9009737843076716</v>
+        <v>1.008715003585805</v>
       </c>
       <c r="F20">
-        <v>0.8984069715332021</v>
+        <v>1.014725901209514</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025439864826635</v>
+        <v>1.047903151781057</v>
       </c>
       <c r="J20">
-        <v>0.9024533376481358</v>
+        <v>1.021190835157563</v>
       </c>
       <c r="K20">
-        <v>0.8992443229924096</v>
+        <v>1.016992630148337</v>
       </c>
       <c r="L20">
-        <v>0.913686167318819</v>
+        <v>1.022606321820625</v>
       </c>
       <c r="M20">
-        <v>0.9111649042231715</v>
+        <v>1.028514663042746</v>
       </c>
       <c r="N20">
-        <v>0.9037349249004412</v>
+        <v>1.022641043275712</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8765377191457875</v>
+        <v>0.9832174037522682</v>
       </c>
       <c r="D21">
-        <v>0.8862662864654319</v>
+        <v>0.9942428009992816</v>
       </c>
       <c r="E21">
-        <v>0.9009737843076716</v>
+        <v>0.9999893248029728</v>
       </c>
       <c r="F21">
-        <v>0.8984069715332021</v>
+        <v>1.005459302020039</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025439864826635</v>
+        <v>1.044308096953667</v>
       </c>
       <c r="J21">
-        <v>0.9024533376481358</v>
+        <v>1.013433951253736</v>
       </c>
       <c r="K21">
-        <v>0.8992443229924096</v>
+        <v>1.009334072382851</v>
       </c>
       <c r="L21">
-        <v>0.913686167318819</v>
+        <v>1.014970899432266</v>
       </c>
       <c r="M21">
-        <v>0.9111649042231715</v>
+        <v>1.020337979171015</v>
       </c>
       <c r="N21">
-        <v>0.9037349249004412</v>
+        <v>1.014873143707016</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8765377191457875</v>
+        <v>0.9765467795645019</v>
       </c>
       <c r="D22">
-        <v>0.8862662864654319</v>
+        <v>0.9885163795546713</v>
       </c>
       <c r="E22">
-        <v>0.9009737843076716</v>
+        <v>0.9942865725267247</v>
       </c>
       <c r="F22">
-        <v>0.8984069715332021</v>
+        <v>0.9994036663766682</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025439864826635</v>
+        <v>1.041937925299826</v>
       </c>
       <c r="J22">
-        <v>0.9024533376481358</v>
+        <v>1.008352022538632</v>
       </c>
       <c r="K22">
-        <v>0.8992443229924096</v>
+        <v>1.004318814184708</v>
       </c>
       <c r="L22">
-        <v>0.913686167318819</v>
+        <v>1.009972069619726</v>
       </c>
       <c r="M22">
-        <v>0.9111649042231715</v>
+        <v>1.014986946016194</v>
       </c>
       <c r="N22">
-        <v>0.9037349249004412</v>
+        <v>1.00978399807023</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8765377191457875</v>
+        <v>0.9801097918708979</v>
       </c>
       <c r="D23">
-        <v>0.8862662864654319</v>
+        <v>0.9915740458034752</v>
       </c>
       <c r="E23">
-        <v>0.9009737843076716</v>
+        <v>0.9973314525607568</v>
       </c>
       <c r="F23">
-        <v>0.8984069715332021</v>
+        <v>1.002636905154351</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025439864826635</v>
+        <v>1.043205354137731</v>
       </c>
       <c r="J23">
-        <v>0.9024533376481358</v>
+        <v>1.011066597340188</v>
       </c>
       <c r="K23">
-        <v>0.8992443229924096</v>
+        <v>1.006997561125867</v>
       </c>
       <c r="L23">
-        <v>0.913686167318819</v>
+        <v>1.012641917883759</v>
       </c>
       <c r="M23">
-        <v>0.9111649042231715</v>
+        <v>1.017844699851605</v>
       </c>
       <c r="N23">
-        <v>0.9037349249004412</v>
+        <v>1.012502427879371</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8765377191457875</v>
+        <v>0.9935698032088984</v>
       </c>
       <c r="D24">
-        <v>0.8862662864654319</v>
+        <v>1.00314577192963</v>
       </c>
       <c r="E24">
-        <v>0.9009737843076716</v>
+        <v>1.008857875149084</v>
       </c>
       <c r="F24">
-        <v>0.8984069715332021</v>
+        <v>1.014877640779607</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025439864826635</v>
+        <v>1.047961676794112</v>
       </c>
       <c r="J24">
-        <v>0.9024533376481358</v>
+        <v>1.021317645072706</v>
       </c>
       <c r="K24">
-        <v>0.8992443229924096</v>
+        <v>1.017117868585463</v>
       </c>
       <c r="L24">
-        <v>0.913686167318819</v>
+        <v>1.02273120194963</v>
       </c>
       <c r="M24">
-        <v>0.9111649042231715</v>
+        <v>1.028648430417293</v>
       </c>
       <c r="N24">
-        <v>0.9037349249004412</v>
+        <v>1.022768033275481</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8765377191457875</v>
+        <v>1.008166794684155</v>
       </c>
       <c r="D25">
-        <v>0.8862662864654319</v>
+        <v>1.015730886827464</v>
       </c>
       <c r="E25">
-        <v>0.9009737843076716</v>
+        <v>1.021399393429371</v>
       </c>
       <c r="F25">
-        <v>0.8984069715332021</v>
+        <v>1.028199269735372</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025439864826635</v>
+        <v>1.053051892375515</v>
       </c>
       <c r="J25">
-        <v>0.9024533376481358</v>
+        <v>1.032422405137074</v>
       </c>
       <c r="K25">
-        <v>0.8992443229924096</v>
+        <v>1.028089812245022</v>
       </c>
       <c r="L25">
-        <v>0.913686167318819</v>
+        <v>1.033674351610242</v>
       </c>
       <c r="M25">
-        <v>0.9111649042231715</v>
+        <v>1.040375050013936</v>
       </c>
       <c r="N25">
-        <v>0.9037349249004412</v>
+        <v>1.033888563372874</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_46/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.01911124084303</v>
+        <v>1.061121362606882</v>
       </c>
       <c r="D2">
-        <v>1.025190479063075</v>
+        <v>1.060064216073359</v>
       </c>
       <c r="E2">
-        <v>1.030830276873164</v>
+        <v>1.066089893537598</v>
       </c>
       <c r="F2">
-        <v>1.038219339778023</v>
+        <v>1.075132539211116</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056810950715528</v>
+        <v>1.047037053148322</v>
       </c>
       <c r="J2">
-        <v>1.040734985797156</v>
+        <v>1.066098679675674</v>
       </c>
       <c r="K2">
-        <v>1.036309680489859</v>
+        <v>1.062792013712198</v>
       </c>
       <c r="L2">
-        <v>1.041876177469372</v>
+        <v>1.068801378960385</v>
       </c>
       <c r="M2">
-        <v>1.049170709196001</v>
+        <v>1.077819915998275</v>
       </c>
       <c r="N2">
-        <v>1.042212948850959</v>
+        <v>1.067612662084041</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.026705233892384</v>
+        <v>1.062622173286897</v>
       </c>
       <c r="D3">
-        <v>1.031765722211501</v>
+        <v>1.061402461530859</v>
       </c>
       <c r="E3">
-        <v>1.037387722346073</v>
+        <v>1.067429868840806</v>
       </c>
       <c r="F3">
-        <v>1.045188049979455</v>
+        <v>1.076564025129314</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05938459068066</v>
+        <v>1.047423348009112</v>
       </c>
       <c r="J3">
-        <v>1.046493446061441</v>
+        <v>1.06725077828038</v>
       </c>
       <c r="K3">
-        <v>1.042007668698719</v>
+        <v>1.063943287993346</v>
       </c>
       <c r="L3">
-        <v>1.047563566072319</v>
+        <v>1.069955570550123</v>
       </c>
       <c r="M3">
-        <v>1.055273632676686</v>
+        <v>1.079067153536791</v>
       </c>
       <c r="N3">
-        <v>1.047979586789324</v>
+        <v>1.068766396800914</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.031470723878158</v>
+        <v>1.063591789410865</v>
       </c>
       <c r="D4">
-        <v>1.035896652185766</v>
+        <v>1.062267181350943</v>
       </c>
       <c r="E4">
-        <v>1.04150841626444</v>
+        <v>1.068295775496896</v>
       </c>
       <c r="F4">
-        <v>1.049567953065479</v>
+        <v>1.077489203470759</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060983167207453</v>
+        <v>1.047670885645462</v>
       </c>
       <c r="J4">
-        <v>1.050102282226906</v>
+        <v>1.067994331806291</v>
       </c>
       <c r="K4">
-        <v>1.045580311733243</v>
+        <v>1.06468648491095</v>
       </c>
       <c r="L4">
-        <v>1.051130409495538</v>
+        <v>1.070700720504051</v>
       </c>
       <c r="M4">
-        <v>1.059102795617113</v>
+        <v>1.079872583911924</v>
       </c>
       <c r="N4">
-        <v>1.051593547916083</v>
+        <v>1.069511006258118</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.033440619203755</v>
+        <v>1.063999062165444</v>
       </c>
       <c r="D5">
-        <v>1.037605298369068</v>
+        <v>1.06263042462949</v>
       </c>
       <c r="E5">
-        <v>1.043213048559155</v>
+        <v>1.068659533821859</v>
       </c>
       <c r="F5">
-        <v>1.051380003663074</v>
+        <v>1.077877893899544</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061639948489741</v>
+        <v>1.047774373034264</v>
       </c>
       <c r="J5">
-        <v>1.051592840696268</v>
+        <v>1.068306464781961</v>
       </c>
       <c r="K5">
-        <v>1.047056326783636</v>
+        <v>1.064998510204386</v>
       </c>
       <c r="L5">
-        <v>1.052604226989291</v>
+        <v>1.071013582456499</v>
       </c>
       <c r="M5">
-        <v>1.060685413261894</v>
+        <v>1.080210805619908</v>
       </c>
       <c r="N5">
-        <v>1.053086223149442</v>
+        <v>1.069823582498415</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.033769462719819</v>
+        <v>1.064067424514541</v>
       </c>
       <c r="D6">
-        <v>1.037890590317406</v>
+        <v>1.062691398233939</v>
       </c>
       <c r="E6">
-        <v>1.043497683059224</v>
+        <v>1.068720594847244</v>
       </c>
       <c r="F6">
-        <v>1.051682585845206</v>
+        <v>1.077943141982932</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061749349834026</v>
+        <v>1.047791715223369</v>
       </c>
       <c r="J6">
-        <v>1.051841593118638</v>
+        <v>1.068358846644831</v>
       </c>
       <c r="K6">
-        <v>1.047302675876114</v>
+        <v>1.065050876461188</v>
       </c>
       <c r="L6">
-        <v>1.052850220859485</v>
+        <v>1.071066090105807</v>
       </c>
       <c r="M6">
-        <v>1.060949590945693</v>
+        <v>1.080267572339468</v>
       </c>
       <c r="N6">
-        <v>1.053335328828783</v>
+        <v>1.069876038749539</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.031497174901756</v>
+        <v>1.063597232790727</v>
       </c>
       <c r="D7">
-        <v>1.035919591171222</v>
+        <v>1.062272036137823</v>
       </c>
       <c r="E7">
-        <v>1.041531300500544</v>
+        <v>1.068300637102661</v>
       </c>
       <c r="F7">
-        <v>1.049592278607057</v>
+        <v>1.077494398163938</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060992002208879</v>
+        <v>1.0476722707153</v>
       </c>
       <c r="J7">
-        <v>1.05012230178283</v>
+        <v>1.067998504331102</v>
       </c>
       <c r="K7">
-        <v>1.045600134356724</v>
+        <v>1.06469065583105</v>
       </c>
       <c r="L7">
-        <v>1.05115020182589</v>
+        <v>1.07070490254237</v>
       </c>
       <c r="M7">
-        <v>1.059124047436522</v>
+        <v>1.079877104737993</v>
       </c>
       <c r="N7">
-        <v>1.051613595902074</v>
+        <v>1.069515184708393</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.021709635239667</v>
+        <v>1.061628885423549</v>
       </c>
       <c r="D8">
-        <v>1.027439241048781</v>
+        <v>1.060516737367059</v>
       </c>
       <c r="E8">
-        <v>1.033072748082577</v>
+        <v>1.066542985425058</v>
       </c>
       <c r="F8">
-        <v>1.040602292982154</v>
+        <v>1.075616545703192</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057694995205182</v>
+        <v>1.047168105883795</v>
       </c>
       <c r="J8">
-        <v>1.042706297499832</v>
+        <v>1.066488439964282</v>
       </c>
       <c r="K8">
-        <v>1.038259927918969</v>
+        <v>1.063181458759817</v>
       </c>
       <c r="L8">
-        <v>1.043822615208948</v>
+        <v>1.069191796371811</v>
       </c>
       <c r="M8">
-        <v>1.051258994492935</v>
+        <v>1.078241763679013</v>
       </c>
       <c r="N8">
-        <v>1.044187060042365</v>
+        <v>1.068002975876966</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.00322710716542</v>
+        <v>1.058148521043509</v>
       </c>
       <c r="D9">
-        <v>1.01146794029237</v>
+        <v>1.05741411358117</v>
       </c>
       <c r="E9">
-        <v>1.017150537544039</v>
+        <v>1.063436735351581</v>
       </c>
       <c r="F9">
-        <v>1.023685732997788</v>
+        <v>1.072298916246727</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051338303922823</v>
+        <v>1.046261064035934</v>
       </c>
       <c r="J9">
-        <v>1.028666420374618</v>
+        <v>1.063812477495669</v>
       </c>
       <c r="K9">
-        <v>1.024377658412524</v>
+        <v>1.060508382497235</v>
       </c>
       <c r="L9">
-        <v>1.02997135529829</v>
+        <v>1.06651233407578</v>
       </c>
       <c r="M9">
-        <v>1.036405868500413</v>
+        <v>1.075347458038679</v>
       </c>
       <c r="N9">
-        <v>1.030127244681237</v>
+        <v>1.06532321323471</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.989917125213388</v>
+        <v>1.055819824135505</v>
       </c>
       <c r="D10">
-        <v>1.000002322610322</v>
+        <v>1.055338899685063</v>
       </c>
       <c r="E10">
-        <v>1.00572624561624</v>
+        <v>1.06135945736986</v>
       </c>
       <c r="F10">
-        <v>1.011551717886601</v>
+        <v>1.070080985109392</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046676281432456</v>
+        <v>1.045643699757524</v>
       </c>
       <c r="J10">
-        <v>1.018536577487575</v>
+        <v>1.062018048560072</v>
       </c>
       <c r="K10">
-        <v>1.01437153512181</v>
+        <v>1.058716796369404</v>
       </c>
       <c r="L10">
-        <v>1.019992874930249</v>
+        <v>1.064716830942759</v>
       </c>
       <c r="M10">
-        <v>1.025715488488714</v>
+        <v>1.073409078103526</v>
       </c>
       <c r="N10">
-        <v>1.019983016255385</v>
+        <v>1.0635262360042</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9838777372098269</v>
+        <v>1.054809363712354</v>
       </c>
       <c r="D11">
-        <v>0.9948101083882168</v>
+        <v>1.054438614037961</v>
       </c>
       <c r="E11">
-        <v>1.000554352151688</v>
+        <v>1.060458362666399</v>
       </c>
       <c r="F11">
-        <v>1.006059318588809</v>
+        <v>1.06911904417341</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044542080504419</v>
+        <v>1.045373337852236</v>
       </c>
       <c r="J11">
-        <v>1.013936949654746</v>
+        <v>1.061238484066917</v>
       </c>
       <c r="K11">
-        <v>1.0098305666637</v>
+        <v>1.057938682044711</v>
       </c>
       <c r="L11">
-        <v>1.015465821769755</v>
+        <v>1.063937101836163</v>
       </c>
       <c r="M11">
-        <v>1.020867862612977</v>
+        <v>1.072567561245846</v>
       </c>
       <c r="N11">
-        <v>1.015376856423449</v>
+        <v>1.062745564440048</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9815888268897014</v>
+        <v>1.054433706291053</v>
       </c>
       <c r="D12">
-        <v>0.9928439921294878</v>
+        <v>1.054103944589057</v>
       </c>
       <c r="E12">
-        <v>0.9985961878846462</v>
+        <v>1.060123405501494</v>
       </c>
       <c r="F12">
-        <v>1.003979915837972</v>
+        <v>1.068761494209459</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043730515032223</v>
+        <v>1.045272454036014</v>
       </c>
       <c r="J12">
-        <v>1.01219334942479</v>
+        <v>1.060948526986603</v>
       </c>
       <c r="K12">
-        <v>1.008109586223671</v>
+        <v>1.057649296673395</v>
       </c>
       <c r="L12">
-        <v>1.013750332228567</v>
+        <v>1.063647128931388</v>
       </c>
       <c r="M12">
-        <v>1.019031262103582</v>
+        <v>1.072254649112118</v>
       </c>
       <c r="N12">
-        <v>1.013630780081173</v>
+        <v>1.062455195587421</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9820819426902635</v>
+        <v>1.054514301045718</v>
       </c>
       <c r="D13">
-        <v>0.9932674857060542</v>
+        <v>1.054175744352134</v>
       </c>
       <c r="E13">
-        <v>0.9990179567499569</v>
+        <v>1.060195266399988</v>
       </c>
       <c r="F13">
-        <v>1.004427793424551</v>
+        <v>1.068838200976038</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043905476451599</v>
+        <v>1.045294114789238</v>
       </c>
       <c r="J13">
-        <v>1.012568999061305</v>
+        <v>1.061010741618001</v>
       </c>
       <c r="K13">
-        <v>1.008480345052285</v>
+        <v>1.057711387173698</v>
       </c>
       <c r="L13">
-        <v>1.014119898132223</v>
+        <v>1.063709344903581</v>
       </c>
       <c r="M13">
-        <v>1.019426902109491</v>
+        <v>1.072321785112423</v>
       </c>
       <c r="N13">
-        <v>1.014006963183259</v>
+        <v>1.062517498570732</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.983689491615038</v>
+        <v>1.054778318484667</v>
       </c>
       <c r="D14">
-        <v>0.9946483742987776</v>
+        <v>1.05441095556959</v>
       </c>
       <c r="E14">
-        <v>1.000393266885266</v>
+        <v>1.060430680153693</v>
       </c>
       <c r="F14">
-        <v>1.005888257648697</v>
+        <v>1.06908949396815</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044475389573547</v>
+        <v>1.04536500815162</v>
       </c>
       <c r="J14">
-        <v>1.013793558089992</v>
+        <v>1.06121452416263</v>
       </c>
       <c r="K14">
-        <v>1.00968902748348</v>
+        <v>1.057914768723133</v>
       </c>
       <c r="L14">
-        <v>1.015324729707959</v>
+        <v>1.063913139698303</v>
       </c>
       <c r="M14">
-        <v>1.020716802177233</v>
+        <v>1.07254170271177</v>
       </c>
       <c r="N14">
-        <v>1.015233261226227</v>
+        <v>1.062721570509948</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9846737780040413</v>
+        <v>1.054940944683583</v>
       </c>
       <c r="D15">
-        <v>0.9954941098802254</v>
+        <v>1.054555841860299</v>
       </c>
       <c r="E15">
-        <v>1.001235620209442</v>
+        <v>1.060575692932598</v>
       </c>
       <c r="F15">
-        <v>1.006782780580748</v>
+        <v>1.069244291543392</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044823989466543</v>
+        <v>1.045408626937869</v>
       </c>
       <c r="J15">
-        <v>1.014543301026363</v>
+        <v>1.061340029151282</v>
       </c>
       <c r="K15">
-        <v>1.010429100611397</v>
+        <v>1.058040031028653</v>
       </c>
       <c r="L15">
-        <v>1.016062473856008</v>
+        <v>1.064038658245173</v>
       </c>
       <c r="M15">
-        <v>1.021506684064166</v>
+        <v>1.072677156562978</v>
       </c>
       <c r="N15">
-        <v>1.015984068883563</v>
+        <v>1.062847253730079</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9903117826335994</v>
+        <v>1.055886839645724</v>
       </c>
       <c r="D16">
-        <v>1.000341846247633</v>
+        <v>1.055398612155364</v>
       </c>
       <c r="E16">
-        <v>1.006064474978384</v>
+        <v>1.061419225325812</v>
       </c>
       <c r="F16">
-        <v>1.011910923245025</v>
+        <v>1.070144792403688</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046815366230087</v>
+        <v>1.045661578520093</v>
       </c>
       <c r="J16">
-        <v>1.018837094414665</v>
+        <v>1.062069731071781</v>
       </c>
       <c r="K16">
-        <v>1.014668271691768</v>
+        <v>1.058768387266771</v>
       </c>
       <c r="L16">
-        <v>1.020288731421096</v>
+        <v>1.064768530725431</v>
       </c>
       <c r="M16">
-        <v>1.026032345562204</v>
+        <v>1.073464880166926</v>
       </c>
       <c r="N16">
-        <v>1.020283959950983</v>
+        <v>1.063577991911004</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9937716931948906</v>
+        <v>1.056479600817102</v>
       </c>
       <c r="D17">
-        <v>1.003319584475945</v>
+        <v>1.055926798319537</v>
       </c>
       <c r="E17">
-        <v>1.009031044839463</v>
+        <v>1.061947912266601</v>
       </c>
       <c r="F17">
-        <v>1.015061559592542</v>
+        <v>1.070709229247322</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048032597652532</v>
+        <v>1.045819432760139</v>
       </c>
       <c r="J17">
-        <v>1.02147133814795</v>
+        <v>1.062526762345547</v>
       </c>
       <c r="K17">
-        <v>1.0172696586292</v>
+        <v>1.059224633201579</v>
       </c>
       <c r="L17">
-        <v>1.022882558597124</v>
+        <v>1.065225749564203</v>
       </c>
       <c r="M17">
-        <v>1.028810560089197</v>
+        <v>1.073958408348848</v>
       </c>
       <c r="N17">
-        <v>1.022921944612521</v>
+        <v>1.0640356722216</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9957634703955669</v>
+        <v>1.056825144512546</v>
       </c>
       <c r="D18">
-        <v>1.005034741796165</v>
+        <v>1.056234716420431</v>
       </c>
       <c r="E18">
-        <v>1.010739918986319</v>
+        <v>1.062256130629674</v>
       </c>
       <c r="F18">
-        <v>1.01687653920752</v>
+        <v>1.071038305502918</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048731552029435</v>
+        <v>1.045911213428143</v>
       </c>
       <c r="J18">
-        <v>1.022987489692405</v>
+        <v>1.062793093937972</v>
       </c>
       <c r="K18">
-        <v>1.018767131294203</v>
+        <v>1.059490527861984</v>
       </c>
       <c r="L18">
-        <v>1.024375807269657</v>
+        <v>1.06549221954437</v>
       </c>
       <c r="M18">
-        <v>1.030410184288549</v>
+        <v>1.074246064586287</v>
       </c>
       <c r="N18">
-        <v>1.024440249266074</v>
+        <v>1.064302382035435</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9964382654710007</v>
+        <v>1.056942931675463</v>
       </c>
       <c r="D19">
-        <v>1.005615977762755</v>
+        <v>1.056339680943486</v>
       </c>
       <c r="E19">
-        <v>1.01131905066141</v>
+        <v>1.062361198917423</v>
       </c>
       <c r="F19">
-        <v>1.017491642655473</v>
+        <v>1.071150486752521</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048968047095834</v>
+        <v>1.045942458642919</v>
       </c>
       <c r="J19">
-        <v>1.023501090916866</v>
+        <v>1.062883864433542</v>
       </c>
       <c r="K19">
-        <v>1.019274444054668</v>
+        <v>1.059581152957715</v>
       </c>
       <c r="L19">
-        <v>1.024881710389217</v>
+        <v>1.065583042137712</v>
       </c>
       <c r="M19">
-        <v>1.030952164747373</v>
+        <v>1.074344112450922</v>
       </c>
       <c r="N19">
-        <v>1.024954579863184</v>
+        <v>1.064393281435521</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9934032290690109</v>
+        <v>1.056416024305614</v>
       </c>
       <c r="D20">
-        <v>1.003002369135843</v>
+        <v>1.05587014595353</v>
       </c>
       <c r="E20">
-        <v>1.008715003585805</v>
+        <v>1.061891205326626</v>
       </c>
       <c r="F20">
-        <v>1.014725901209514</v>
+        <v>1.070648686107225</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047903151781057</v>
+        <v>1.045802526824685</v>
       </c>
       <c r="J20">
-        <v>1.021190835157563</v>
+        <v>1.062477752814376</v>
       </c>
       <c r="K20">
-        <v>1.016992630148337</v>
+        <v>1.05917570574209</v>
       </c>
       <c r="L20">
-        <v>1.022606321820625</v>
+        <v>1.065176716909879</v>
       </c>
       <c r="M20">
-        <v>1.028514663042746</v>
+        <v>1.073905479258807</v>
       </c>
       <c r="N20">
-        <v>1.022641043275712</v>
+        <v>1.063986593091274</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9832174037522682</v>
+        <v>1.054700581040878</v>
       </c>
       <c r="D21">
-        <v>0.9942428009992816</v>
+        <v>1.054341699054449</v>
       </c>
       <c r="E21">
-        <v>0.9999893248029728</v>
+        <v>1.060361363642607</v>
       </c>
       <c r="F21">
-        <v>1.005459302020039</v>
+        <v>1.0690155011943</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044308096953667</v>
+        <v>1.045344144526576</v>
       </c>
       <c r="J21">
-        <v>1.013433951253736</v>
+        <v>1.061154526161369</v>
       </c>
       <c r="K21">
-        <v>1.009334072382851</v>
+        <v>1.057854887891615</v>
       </c>
       <c r="L21">
-        <v>1.014970899432266</v>
+        <v>1.063853136837249</v>
       </c>
       <c r="M21">
-        <v>1.020337979171015</v>
+        <v>1.072476951772199</v>
       </c>
       <c r="N21">
-        <v>1.014873143707016</v>
+        <v>1.062661487304643</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9765467795645019</v>
+        <v>1.053620114845466</v>
       </c>
       <c r="D22">
-        <v>0.9885163795546713</v>
+        <v>1.053379176983442</v>
       </c>
       <c r="E22">
-        <v>0.9942865725267247</v>
+        <v>1.059398038731478</v>
       </c>
       <c r="F22">
-        <v>0.9994036663766682</v>
+        <v>1.067987247520459</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041937925299826</v>
+        <v>1.045053282232815</v>
       </c>
       <c r="J22">
-        <v>1.008352022538632</v>
+        <v>1.060320288982568</v>
       </c>
       <c r="K22">
-        <v>1.004318814184708</v>
+        <v>1.057022356510156</v>
       </c>
       <c r="L22">
-        <v>1.009972069619726</v>
+        <v>1.063018939745399</v>
       </c>
       <c r="M22">
-        <v>1.014986946016194</v>
+        <v>1.071576836392377</v>
       </c>
       <c r="N22">
-        <v>1.00978399807023</v>
+        <v>1.06182606541336</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9801097918708979</v>
+        <v>1.054193073447408</v>
       </c>
       <c r="D23">
-        <v>0.9915740458034752</v>
+        <v>1.05388957529584</v>
       </c>
       <c r="E23">
-        <v>0.9973314525607568</v>
+        <v>1.059908855593108</v>
       </c>
       <c r="F23">
-        <v>1.002636905154351</v>
+        <v>1.068532480018964</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043205354137731</v>
+        <v>1.04520772682861</v>
       </c>
       <c r="J23">
-        <v>1.011066597340188</v>
+        <v>1.060762751533884</v>
       </c>
       <c r="K23">
-        <v>1.006997561125867</v>
+        <v>1.057463896614422</v>
       </c>
       <c r="L23">
-        <v>1.012641917883759</v>
+        <v>1.063461356125571</v>
       </c>
       <c r="M23">
-        <v>1.017844699851605</v>
+        <v>1.072054191137048</v>
       </c>
       <c r="N23">
-        <v>1.012502427879371</v>
+        <v>1.06226915631225</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9935698032088984</v>
+        <v>1.056444752424712</v>
       </c>
       <c r="D24">
-        <v>1.00314577192963</v>
+        <v>1.05589574522603</v>
       </c>
       <c r="E24">
-        <v>1.008857875149084</v>
+        <v>1.06191682923352</v>
       </c>
       <c r="F24">
-        <v>1.014877640779607</v>
+        <v>1.070676043410605</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047961676794112</v>
+        <v>1.045810166794799</v>
       </c>
       <c r="J24">
-        <v>1.021317645072706</v>
+        <v>1.062499898875419</v>
       </c>
       <c r="K24">
-        <v>1.017117868585463</v>
+        <v>1.059197814653143</v>
       </c>
       <c r="L24">
-        <v>1.02273120194963</v>
+        <v>1.065198873329725</v>
       </c>
       <c r="M24">
-        <v>1.028648430417293</v>
+        <v>1.073929396286675</v>
       </c>
       <c r="N24">
-        <v>1.022768033275481</v>
+        <v>1.064008770602264</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.008166794684155</v>
+        <v>1.0590497345611</v>
       </c>
       <c r="D25">
-        <v>1.015730886827464</v>
+        <v>1.058217387221055</v>
       </c>
       <c r="E25">
-        <v>1.021399393429371</v>
+        <v>1.064240884469442</v>
       </c>
       <c r="F25">
-        <v>1.028199269735372</v>
+        <v>1.07315766337813</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053051892375515</v>
+        <v>1.046497779019559</v>
       </c>
       <c r="J25">
-        <v>1.032422405137074</v>
+        <v>1.064506095090791</v>
       </c>
       <c r="K25">
-        <v>1.028089812245022</v>
+        <v>1.061201092440877</v>
       </c>
       <c r="L25">
-        <v>1.033674351610242</v>
+        <v>1.067206635169303</v>
       </c>
       <c r="M25">
-        <v>1.040375050013936</v>
+        <v>1.076097237910096</v>
       </c>
       <c r="N25">
-        <v>1.033888563372874</v>
+        <v>1.066017815846376</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_46/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.061121362606882</v>
+        <v>1.019111240843029</v>
       </c>
       <c r="D2">
-        <v>1.060064216073359</v>
+        <v>1.025190479063074</v>
       </c>
       <c r="E2">
-        <v>1.066089893537598</v>
+        <v>1.030830276873163</v>
       </c>
       <c r="F2">
-        <v>1.075132539211116</v>
+        <v>1.038219339778021</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047037053148322</v>
+        <v>1.056810950715527</v>
       </c>
       <c r="J2">
-        <v>1.066098679675674</v>
+        <v>1.040734985797155</v>
       </c>
       <c r="K2">
-        <v>1.062792013712198</v>
+        <v>1.036309680489857</v>
       </c>
       <c r="L2">
-        <v>1.068801378960385</v>
+        <v>1.041876177469371</v>
       </c>
       <c r="M2">
-        <v>1.077819915998275</v>
+        <v>1.049170709195999</v>
       </c>
       <c r="N2">
-        <v>1.067612662084041</v>
+        <v>1.042212948850958</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.062622173286897</v>
+        <v>1.026705233892385</v>
       </c>
       <c r="D3">
-        <v>1.061402461530859</v>
+        <v>1.031765722211502</v>
       </c>
       <c r="E3">
-        <v>1.067429868840806</v>
+        <v>1.037387722346074</v>
       </c>
       <c r="F3">
-        <v>1.076564025129314</v>
+        <v>1.045188049979456</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047423348009112</v>
+        <v>1.05938459068066</v>
       </c>
       <c r="J3">
-        <v>1.06725077828038</v>
+        <v>1.046493446061442</v>
       </c>
       <c r="K3">
-        <v>1.063943287993346</v>
+        <v>1.04200766869872</v>
       </c>
       <c r="L3">
-        <v>1.069955570550123</v>
+        <v>1.047563566072321</v>
       </c>
       <c r="M3">
-        <v>1.079067153536791</v>
+        <v>1.055273632676687</v>
       </c>
       <c r="N3">
-        <v>1.068766396800914</v>
+        <v>1.047979586789326</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.063591789410865</v>
+        <v>1.03147072387816</v>
       </c>
       <c r="D4">
-        <v>1.062267181350943</v>
+        <v>1.035896652185767</v>
       </c>
       <c r="E4">
-        <v>1.068295775496896</v>
+        <v>1.041508416264441</v>
       </c>
       <c r="F4">
-        <v>1.077489203470759</v>
+        <v>1.049567953065481</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047670885645462</v>
+        <v>1.060983167207454</v>
       </c>
       <c r="J4">
-        <v>1.067994331806291</v>
+        <v>1.050102282226907</v>
       </c>
       <c r="K4">
-        <v>1.06468648491095</v>
+        <v>1.045580311733245</v>
       </c>
       <c r="L4">
-        <v>1.070700720504051</v>
+        <v>1.051130409495539</v>
       </c>
       <c r="M4">
-        <v>1.079872583911924</v>
+        <v>1.059102795617114</v>
       </c>
       <c r="N4">
-        <v>1.069511006258118</v>
+        <v>1.051593547916085</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.063999062165444</v>
+        <v>1.033440619203756</v>
       </c>
       <c r="D5">
-        <v>1.06263042462949</v>
+        <v>1.037605298369069</v>
       </c>
       <c r="E5">
-        <v>1.068659533821859</v>
+        <v>1.043213048559156</v>
       </c>
       <c r="F5">
-        <v>1.077877893899544</v>
+        <v>1.051380003663074</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047774373034264</v>
+        <v>1.061639948489742</v>
       </c>
       <c r="J5">
-        <v>1.068306464781961</v>
+        <v>1.05159284069627</v>
       </c>
       <c r="K5">
-        <v>1.064998510204386</v>
+        <v>1.047056326783637</v>
       </c>
       <c r="L5">
-        <v>1.071013582456499</v>
+        <v>1.052604226989291</v>
       </c>
       <c r="M5">
-        <v>1.080210805619908</v>
+        <v>1.060685413261895</v>
       </c>
       <c r="N5">
-        <v>1.069823582498415</v>
+        <v>1.053086223149443</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.064067424514541</v>
+        <v>1.033769462719819</v>
       </c>
       <c r="D6">
-        <v>1.062691398233939</v>
+        <v>1.037890590317407</v>
       </c>
       <c r="E6">
-        <v>1.068720594847244</v>
+        <v>1.043497683059224</v>
       </c>
       <c r="F6">
-        <v>1.077943141982932</v>
+        <v>1.051682585845206</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047791715223369</v>
+        <v>1.061749349834026</v>
       </c>
       <c r="J6">
-        <v>1.068358846644831</v>
+        <v>1.051841593118638</v>
       </c>
       <c r="K6">
-        <v>1.065050876461188</v>
+        <v>1.047302675876114</v>
       </c>
       <c r="L6">
-        <v>1.071066090105807</v>
+        <v>1.052850220859485</v>
       </c>
       <c r="M6">
-        <v>1.080267572339468</v>
+        <v>1.060949590945693</v>
       </c>
       <c r="N6">
-        <v>1.069876038749539</v>
+        <v>1.053335328828783</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.063597232790727</v>
+        <v>1.031497174901756</v>
       </c>
       <c r="D7">
-        <v>1.062272036137823</v>
+        <v>1.035919591171222</v>
       </c>
       <c r="E7">
-        <v>1.068300637102661</v>
+        <v>1.041531300500545</v>
       </c>
       <c r="F7">
-        <v>1.077494398163938</v>
+        <v>1.049592278607058</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.0476722707153</v>
+        <v>1.060992002208879</v>
       </c>
       <c r="J7">
-        <v>1.067998504331102</v>
+        <v>1.050122301782831</v>
       </c>
       <c r="K7">
-        <v>1.06469065583105</v>
+        <v>1.045600134356724</v>
       </c>
       <c r="L7">
-        <v>1.07070490254237</v>
+        <v>1.051150201825891</v>
       </c>
       <c r="M7">
-        <v>1.079877104737993</v>
+        <v>1.059124047436522</v>
       </c>
       <c r="N7">
-        <v>1.069515184708393</v>
+        <v>1.051613595902074</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.061628885423549</v>
+        <v>1.021709635239668</v>
       </c>
       <c r="D8">
-        <v>1.060516737367059</v>
+        <v>1.027439241048782</v>
       </c>
       <c r="E8">
-        <v>1.066542985425058</v>
+        <v>1.033072748082577</v>
       </c>
       <c r="F8">
-        <v>1.075616545703192</v>
+        <v>1.040602292982155</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047168105883795</v>
+        <v>1.057694995205182</v>
       </c>
       <c r="J8">
-        <v>1.066488439964282</v>
+        <v>1.042706297499833</v>
       </c>
       <c r="K8">
-        <v>1.063181458759817</v>
+        <v>1.03825992791897</v>
       </c>
       <c r="L8">
-        <v>1.069191796371811</v>
+        <v>1.043822615208948</v>
       </c>
       <c r="M8">
-        <v>1.078241763679013</v>
+        <v>1.051258994492936</v>
       </c>
       <c r="N8">
-        <v>1.068002975876966</v>
+        <v>1.044187060042366</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.058148521043509</v>
+        <v>1.003227107165419</v>
       </c>
       <c r="D9">
-        <v>1.05741411358117</v>
+        <v>1.011467940292369</v>
       </c>
       <c r="E9">
-        <v>1.063436735351581</v>
+        <v>1.017150537544038</v>
       </c>
       <c r="F9">
-        <v>1.072298916246727</v>
+        <v>1.023685732997787</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046261064035934</v>
+        <v>1.051338303922823</v>
       </c>
       <c r="J9">
-        <v>1.063812477495669</v>
+        <v>1.028666420374617</v>
       </c>
       <c r="K9">
-        <v>1.060508382497235</v>
+        <v>1.024377658412523</v>
       </c>
       <c r="L9">
-        <v>1.06651233407578</v>
+        <v>1.029971355298289</v>
       </c>
       <c r="M9">
-        <v>1.075347458038679</v>
+        <v>1.036405868500412</v>
       </c>
       <c r="N9">
-        <v>1.06532321323471</v>
+        <v>1.030127244681236</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.055819824135505</v>
+        <v>0.9899171252133874</v>
       </c>
       <c r="D10">
-        <v>1.055338899685063</v>
+        <v>1.000002322610321</v>
       </c>
       <c r="E10">
-        <v>1.06135945736986</v>
+        <v>1.00572624561624</v>
       </c>
       <c r="F10">
-        <v>1.070080985109392</v>
+        <v>1.0115517178866</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045643699757524</v>
+        <v>1.046676281432455</v>
       </c>
       <c r="J10">
-        <v>1.062018048560072</v>
+        <v>1.018536577487574</v>
       </c>
       <c r="K10">
-        <v>1.058716796369404</v>
+        <v>1.014371535121809</v>
       </c>
       <c r="L10">
-        <v>1.064716830942759</v>
+        <v>1.019992874930248</v>
       </c>
       <c r="M10">
-        <v>1.073409078103526</v>
+        <v>1.025715488488713</v>
       </c>
       <c r="N10">
-        <v>1.0635262360042</v>
+        <v>1.019983016255385</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.054809363712354</v>
+        <v>0.9838777372098249</v>
       </c>
       <c r="D11">
-        <v>1.054438614037961</v>
+        <v>0.9948101083882148</v>
       </c>
       <c r="E11">
-        <v>1.060458362666399</v>
+        <v>1.000554352151686</v>
       </c>
       <c r="F11">
-        <v>1.06911904417341</v>
+        <v>1.006059318588807</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045373337852236</v>
+        <v>1.044542080504418</v>
       </c>
       <c r="J11">
-        <v>1.061238484066917</v>
+        <v>1.013936949654744</v>
       </c>
       <c r="K11">
-        <v>1.057938682044711</v>
+        <v>1.009830566663698</v>
       </c>
       <c r="L11">
-        <v>1.063937101836163</v>
+        <v>1.015465821769753</v>
       </c>
       <c r="M11">
-        <v>1.072567561245846</v>
+        <v>1.020867862612975</v>
       </c>
       <c r="N11">
-        <v>1.062745564440048</v>
+        <v>1.015376856423448</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.054433706291053</v>
+        <v>0.9815888268897006</v>
       </c>
       <c r="D12">
-        <v>1.054103944589057</v>
+        <v>0.9928439921294872</v>
       </c>
       <c r="E12">
-        <v>1.060123405501494</v>
+        <v>0.9985961878846455</v>
       </c>
       <c r="F12">
-        <v>1.068761494209459</v>
+        <v>1.003979915837972</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045272454036014</v>
+        <v>1.043730515032223</v>
       </c>
       <c r="J12">
-        <v>1.060948526986603</v>
+        <v>1.012193349424789</v>
       </c>
       <c r="K12">
-        <v>1.057649296673395</v>
+        <v>1.00810958622367</v>
       </c>
       <c r="L12">
-        <v>1.063647128931388</v>
+        <v>1.013750332228567</v>
       </c>
       <c r="M12">
-        <v>1.072254649112118</v>
+        <v>1.019031262103582</v>
       </c>
       <c r="N12">
-        <v>1.062455195587421</v>
+        <v>1.013630780081173</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.054514301045718</v>
+        <v>0.9820819426902583</v>
       </c>
       <c r="D13">
-        <v>1.054175744352134</v>
+        <v>0.9932674857060491</v>
       </c>
       <c r="E13">
-        <v>1.060195266399988</v>
+        <v>0.999017956749952</v>
       </c>
       <c r="F13">
-        <v>1.068838200976038</v>
+        <v>1.004427793424546</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045294114789238</v>
+        <v>1.043905476451597</v>
       </c>
       <c r="J13">
-        <v>1.061010741618001</v>
+        <v>1.0125689990613</v>
       </c>
       <c r="K13">
-        <v>1.057711387173698</v>
+        <v>1.008480345052279</v>
       </c>
       <c r="L13">
-        <v>1.063709344903581</v>
+        <v>1.014119898132218</v>
       </c>
       <c r="M13">
-        <v>1.072321785112423</v>
+        <v>1.019426902109486</v>
       </c>
       <c r="N13">
-        <v>1.062517498570732</v>
+        <v>1.014006963183255</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.054778318484667</v>
+        <v>0.9836894916150389</v>
       </c>
       <c r="D14">
-        <v>1.05441095556959</v>
+        <v>0.9946483742987784</v>
       </c>
       <c r="E14">
-        <v>1.060430680153693</v>
+        <v>1.000393266885268</v>
       </c>
       <c r="F14">
-        <v>1.06908949396815</v>
+        <v>1.005888257648698</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04536500815162</v>
+        <v>1.044475389573548</v>
       </c>
       <c r="J14">
-        <v>1.06121452416263</v>
+        <v>1.013793558089993</v>
       </c>
       <c r="K14">
-        <v>1.057914768723133</v>
+        <v>1.009689027483481</v>
       </c>
       <c r="L14">
-        <v>1.063913139698303</v>
+        <v>1.01532472970796</v>
       </c>
       <c r="M14">
-        <v>1.07254170271177</v>
+        <v>1.020716802177234</v>
       </c>
       <c r="N14">
-        <v>1.062721570509948</v>
+        <v>1.015233261226228</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.054940944683583</v>
+        <v>0.9846737780040412</v>
       </c>
       <c r="D15">
-        <v>1.054555841860299</v>
+        <v>0.9954941098802254</v>
       </c>
       <c r="E15">
-        <v>1.060575692932598</v>
+        <v>1.001235620209441</v>
       </c>
       <c r="F15">
-        <v>1.069244291543392</v>
+        <v>1.006782780580747</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045408626937869</v>
+        <v>1.044823989466543</v>
       </c>
       <c r="J15">
-        <v>1.061340029151282</v>
+        <v>1.014543301026362</v>
       </c>
       <c r="K15">
-        <v>1.058040031028653</v>
+        <v>1.010429100611397</v>
       </c>
       <c r="L15">
-        <v>1.064038658245173</v>
+        <v>1.016062473856007</v>
       </c>
       <c r="M15">
-        <v>1.072677156562978</v>
+        <v>1.021506684064166</v>
       </c>
       <c r="N15">
-        <v>1.062847253730079</v>
+        <v>1.015984068883563</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.055886839645724</v>
+        <v>0.9903117826336006</v>
       </c>
       <c r="D16">
-        <v>1.055398612155364</v>
+        <v>1.000341846247634</v>
       </c>
       <c r="E16">
-        <v>1.061419225325812</v>
+        <v>1.006064474978385</v>
       </c>
       <c r="F16">
-        <v>1.070144792403688</v>
+        <v>1.011910923245026</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045661578520093</v>
+        <v>1.046815366230087</v>
       </c>
       <c r="J16">
-        <v>1.062069731071781</v>
+        <v>1.018837094414667</v>
       </c>
       <c r="K16">
-        <v>1.058768387266771</v>
+        <v>1.014668271691769</v>
       </c>
       <c r="L16">
-        <v>1.064768530725431</v>
+        <v>1.020288731421097</v>
       </c>
       <c r="M16">
-        <v>1.073464880166926</v>
+        <v>1.026032345562205</v>
       </c>
       <c r="N16">
-        <v>1.063577991911004</v>
+        <v>1.020283959950983</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.056479600817102</v>
+        <v>0.9937716931948906</v>
       </c>
       <c r="D17">
-        <v>1.055926798319537</v>
+        <v>1.003319584475945</v>
       </c>
       <c r="E17">
-        <v>1.061947912266601</v>
+        <v>1.009031044839463</v>
       </c>
       <c r="F17">
-        <v>1.070709229247322</v>
+        <v>1.015061559592542</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045819432760139</v>
+        <v>1.048032597652533</v>
       </c>
       <c r="J17">
-        <v>1.062526762345547</v>
+        <v>1.021471338147951</v>
       </c>
       <c r="K17">
-        <v>1.059224633201579</v>
+        <v>1.0172696586292</v>
       </c>
       <c r="L17">
-        <v>1.065225749564203</v>
+        <v>1.022882558597124</v>
       </c>
       <c r="M17">
-        <v>1.073958408348848</v>
+        <v>1.028810560089197</v>
       </c>
       <c r="N17">
-        <v>1.0640356722216</v>
+        <v>1.022921944612521</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.056825144512546</v>
+        <v>0.995763470395565</v>
       </c>
       <c r="D18">
-        <v>1.056234716420431</v>
+        <v>1.005034741796164</v>
       </c>
       <c r="E18">
-        <v>1.062256130629674</v>
+        <v>1.010739918986317</v>
       </c>
       <c r="F18">
-        <v>1.071038305502918</v>
+        <v>1.016876539207518</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045911213428143</v>
+        <v>1.048731552029435</v>
       </c>
       <c r="J18">
-        <v>1.062793093937972</v>
+        <v>1.022987489692404</v>
       </c>
       <c r="K18">
-        <v>1.059490527861984</v>
+        <v>1.018767131294201</v>
       </c>
       <c r="L18">
-        <v>1.06549221954437</v>
+        <v>1.024375807269655</v>
       </c>
       <c r="M18">
-        <v>1.074246064586287</v>
+        <v>1.030410184288548</v>
       </c>
       <c r="N18">
-        <v>1.064302382035435</v>
+        <v>1.024440249266072</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.056942931675463</v>
+        <v>0.9964382654710008</v>
       </c>
       <c r="D19">
-        <v>1.056339680943486</v>
+        <v>1.005615977762756</v>
       </c>
       <c r="E19">
-        <v>1.062361198917423</v>
+        <v>1.01131905066141</v>
       </c>
       <c r="F19">
-        <v>1.071150486752521</v>
+        <v>1.017491642655473</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045942458642919</v>
+        <v>1.048968047095834</v>
       </c>
       <c r="J19">
-        <v>1.062883864433542</v>
+        <v>1.023501090916866</v>
       </c>
       <c r="K19">
-        <v>1.059581152957715</v>
+        <v>1.019274444054668</v>
       </c>
       <c r="L19">
-        <v>1.065583042137712</v>
+        <v>1.024881710389216</v>
       </c>
       <c r="M19">
-        <v>1.074344112450922</v>
+        <v>1.030952164747373</v>
       </c>
       <c r="N19">
-        <v>1.064393281435521</v>
+        <v>1.024954579863184</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.056416024305614</v>
+        <v>0.993403229069013</v>
       </c>
       <c r="D20">
-        <v>1.05587014595353</v>
+        <v>1.003002369135845</v>
       </c>
       <c r="E20">
-        <v>1.061891205326626</v>
+        <v>1.008715003585806</v>
       </c>
       <c r="F20">
-        <v>1.070648686107225</v>
+        <v>1.014725901209516</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045802526824685</v>
+        <v>1.047903151781057</v>
       </c>
       <c r="J20">
-        <v>1.062477752814376</v>
+        <v>1.021190835157565</v>
       </c>
       <c r="K20">
-        <v>1.05917570574209</v>
+        <v>1.016992630148338</v>
       </c>
       <c r="L20">
-        <v>1.065176716909879</v>
+        <v>1.022606321820626</v>
       </c>
       <c r="M20">
-        <v>1.073905479258807</v>
+        <v>1.028514663042747</v>
       </c>
       <c r="N20">
-        <v>1.063986593091274</v>
+        <v>1.022641043275714</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.054700581040878</v>
+        <v>0.9832174037522701</v>
       </c>
       <c r="D21">
-        <v>1.054341699054449</v>
+        <v>0.9942428009992833</v>
       </c>
       <c r="E21">
-        <v>1.060361363642607</v>
+        <v>0.9999893248029744</v>
       </c>
       <c r="F21">
-        <v>1.0690155011943</v>
+        <v>1.005459302020041</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045344144526576</v>
+        <v>1.044308096953667</v>
       </c>
       <c r="J21">
-        <v>1.061154526161369</v>
+        <v>1.013433951253738</v>
       </c>
       <c r="K21">
-        <v>1.057854887891615</v>
+        <v>1.009334072382853</v>
       </c>
       <c r="L21">
-        <v>1.063853136837249</v>
+        <v>1.014970899432268</v>
       </c>
       <c r="M21">
-        <v>1.072476951772199</v>
+        <v>1.020337979171017</v>
       </c>
       <c r="N21">
-        <v>1.062661487304643</v>
+        <v>1.014873143707017</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.053620114845466</v>
+        <v>0.9765467795645006</v>
       </c>
       <c r="D22">
-        <v>1.053379176983442</v>
+        <v>0.9885163795546702</v>
       </c>
       <c r="E22">
-        <v>1.059398038731478</v>
+        <v>0.9942865725267236</v>
       </c>
       <c r="F22">
-        <v>1.067987247520459</v>
+        <v>0.9994036663766671</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045053282232815</v>
+        <v>1.041937925299825</v>
       </c>
       <c r="J22">
-        <v>1.060320288982568</v>
+        <v>1.00835202253863</v>
       </c>
       <c r="K22">
-        <v>1.057022356510156</v>
+        <v>1.004318814184707</v>
       </c>
       <c r="L22">
-        <v>1.063018939745399</v>
+        <v>1.009972069619725</v>
       </c>
       <c r="M22">
-        <v>1.071576836392377</v>
+        <v>1.014986946016194</v>
       </c>
       <c r="N22">
-        <v>1.06182606541336</v>
+        <v>1.009783998070229</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.054193073447408</v>
+        <v>0.9801097918708964</v>
       </c>
       <c r="D23">
-        <v>1.05388957529584</v>
+        <v>0.9915740458034734</v>
       </c>
       <c r="E23">
-        <v>1.059908855593108</v>
+        <v>0.9973314525607555</v>
       </c>
       <c r="F23">
-        <v>1.068532480018964</v>
+        <v>1.00263690515435</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04520772682861</v>
+        <v>1.04320535413773</v>
       </c>
       <c r="J23">
-        <v>1.060762751533884</v>
+        <v>1.011066597340187</v>
       </c>
       <c r="K23">
-        <v>1.057463896614422</v>
+        <v>1.006997561125865</v>
       </c>
       <c r="L23">
-        <v>1.063461356125571</v>
+        <v>1.012641917883757</v>
       </c>
       <c r="M23">
-        <v>1.072054191137048</v>
+        <v>1.017844699851604</v>
       </c>
       <c r="N23">
-        <v>1.06226915631225</v>
+        <v>1.01250242787937</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.056444752424712</v>
+        <v>0.993569803208899</v>
       </c>
       <c r="D24">
-        <v>1.05589574522603</v>
+        <v>1.00314577192963</v>
       </c>
       <c r="E24">
-        <v>1.06191682923352</v>
+        <v>1.008857875149084</v>
       </c>
       <c r="F24">
-        <v>1.070676043410605</v>
+        <v>1.014877640779608</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045810166794799</v>
+        <v>1.047961676794113</v>
       </c>
       <c r="J24">
-        <v>1.062499898875419</v>
+        <v>1.021317645072707</v>
       </c>
       <c r="K24">
-        <v>1.059197814653143</v>
+        <v>1.017117868585463</v>
       </c>
       <c r="L24">
-        <v>1.065198873329725</v>
+        <v>1.02273120194963</v>
       </c>
       <c r="M24">
-        <v>1.073929396286675</v>
+        <v>1.028648430417294</v>
       </c>
       <c r="N24">
-        <v>1.064008770602264</v>
+        <v>1.022768033275482</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.0590497345611</v>
+        <v>1.008166794684155</v>
       </c>
       <c r="D25">
-        <v>1.058217387221055</v>
+        <v>1.015730886827464</v>
       </c>
       <c r="E25">
-        <v>1.064240884469442</v>
+        <v>1.021399393429371</v>
       </c>
       <c r="F25">
-        <v>1.07315766337813</v>
+        <v>1.028199269735371</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046497779019559</v>
+        <v>1.053051892375515</v>
       </c>
       <c r="J25">
-        <v>1.064506095090791</v>
+        <v>1.032422405137073</v>
       </c>
       <c r="K25">
-        <v>1.061201092440877</v>
+        <v>1.028089812245022</v>
       </c>
       <c r="L25">
-        <v>1.067206635169303</v>
+        <v>1.033674351610242</v>
       </c>
       <c r="M25">
-        <v>1.076097237910096</v>
+        <v>1.040375050013936</v>
       </c>
       <c r="N25">
-        <v>1.066017815846376</v>
+        <v>1.033888563372873</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_46/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019111240843029</v>
+        <v>1.012201570798419</v>
       </c>
       <c r="D2">
-        <v>1.025190479063074</v>
+        <v>1.022737546307714</v>
       </c>
       <c r="E2">
-        <v>1.030830276873163</v>
+        <v>1.025053214186964</v>
       </c>
       <c r="F2">
-        <v>1.038219339778021</v>
+        <v>1.031900373403975</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056810950715527</v>
+        <v>1.05230061133961</v>
       </c>
       <c r="J2">
-        <v>1.040734985797155</v>
+        <v>1.034023360492442</v>
       </c>
       <c r="K2">
-        <v>1.036309680489857</v>
+        <v>1.03388894492929</v>
       </c>
       <c r="L2">
-        <v>1.041876177469371</v>
+        <v>1.036174212252258</v>
       </c>
       <c r="M2">
-        <v>1.049170709195999</v>
+        <v>1.042932478996955</v>
       </c>
       <c r="N2">
-        <v>1.042212948850958</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.014933807471033</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.042550564999517</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.035032651964733</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026705233892385</v>
+        <v>1.016679408325898</v>
       </c>
       <c r="D3">
-        <v>1.031765722211502</v>
+        <v>1.026081529699302</v>
       </c>
       <c r="E3">
-        <v>1.037387722346074</v>
+        <v>1.028609720935686</v>
       </c>
       <c r="F3">
-        <v>1.045188049979456</v>
+        <v>1.035301256098259</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05938459068066</v>
+        <v>1.053398584545218</v>
       </c>
       <c r="J3">
-        <v>1.046493446061442</v>
+        <v>1.036725477396593</v>
       </c>
       <c r="K3">
-        <v>1.04200766869872</v>
+        <v>1.036391223686448</v>
       </c>
       <c r="L3">
-        <v>1.047563566072321</v>
+        <v>1.038889167848154</v>
       </c>
       <c r="M3">
-        <v>1.055273632676687</v>
+        <v>1.045501528543229</v>
       </c>
       <c r="N3">
-        <v>1.047979586789326</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.01586154202106</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.044583786863598</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.03679932395168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03147072387816</v>
+        <v>1.019515873426231</v>
       </c>
       <c r="D4">
-        <v>1.035896652185767</v>
+        <v>1.02820624877868</v>
       </c>
       <c r="E4">
-        <v>1.041508416264441</v>
+        <v>1.030868943663657</v>
       </c>
       <c r="F4">
-        <v>1.049567953065481</v>
+        <v>1.037464984079622</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060983167207454</v>
+        <v>1.054076682993593</v>
       </c>
       <c r="J4">
-        <v>1.050102282226907</v>
+        <v>1.038433201170953</v>
       </c>
       <c r="K4">
-        <v>1.045580311733245</v>
+        <v>1.037975762759143</v>
       </c>
       <c r="L4">
-        <v>1.051130409495539</v>
+        <v>1.040608553276527</v>
       </c>
       <c r="M4">
-        <v>1.059102795617114</v>
+        <v>1.047131327068822</v>
       </c>
       <c r="N4">
-        <v>1.051593547916085</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.016447850638584</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.045873654732548</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.037920638174756</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033440619203756</v>
+        <v>1.02069944149423</v>
       </c>
       <c r="D5">
-        <v>1.037605298369069</v>
+        <v>1.029097391017607</v>
       </c>
       <c r="E5">
-        <v>1.043213048559156</v>
+        <v>1.03181352250106</v>
       </c>
       <c r="F5">
-        <v>1.051380003663074</v>
+        <v>1.038369663032672</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061639948489742</v>
+        <v>1.054356259301322</v>
       </c>
       <c r="J5">
-        <v>1.05159284069627</v>
+        <v>1.039146759160558</v>
       </c>
       <c r="K5">
-        <v>1.047056326783637</v>
+        <v>1.038640751146172</v>
       </c>
       <c r="L5">
-        <v>1.052604226989291</v>
+        <v>1.041327202871297</v>
       </c>
       <c r="M5">
-        <v>1.060685413261895</v>
+        <v>1.047812486976181</v>
       </c>
       <c r="N5">
-        <v>1.053086223149443</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.016693671158285</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.046412742951242</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.038398030856273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033769462719819</v>
+        <v>1.020903722402613</v>
       </c>
       <c r="D6">
-        <v>1.037890590317407</v>
+        <v>1.029254973574046</v>
       </c>
       <c r="E6">
-        <v>1.043497683059224</v>
+        <v>1.031977108364901</v>
       </c>
       <c r="F6">
-        <v>1.051682585845206</v>
+        <v>1.038525440727832</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061749349834026</v>
+        <v>1.054405337158267</v>
       </c>
       <c r="J6">
-        <v>1.051841593118638</v>
+        <v>1.039272240631852</v>
       </c>
       <c r="K6">
-        <v>1.047302675876114</v>
+        <v>1.038760327334749</v>
       </c>
       <c r="L6">
-        <v>1.052850220859485</v>
+        <v>1.041452855312609</v>
       </c>
       <c r="M6">
-        <v>1.060949590945693</v>
+        <v>1.047930744601275</v>
       </c>
       <c r="N6">
-        <v>1.053335328828783</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.016737923140646</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.046506335167066</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.038491344254371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031497174901756</v>
+        <v>1.019548952806138</v>
       </c>
       <c r="D7">
-        <v>1.035919591171222</v>
+        <v>1.028241031158725</v>
       </c>
       <c r="E7">
-        <v>1.041531300500545</v>
+        <v>1.030896615112648</v>
       </c>
       <c r="F7">
-        <v>1.049592278607058</v>
+        <v>1.037488926005076</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060992002208879</v>
+        <v>1.054087410033044</v>
       </c>
       <c r="J7">
-        <v>1.050122301782831</v>
+        <v>1.038459564576776</v>
       </c>
       <c r="K7">
-        <v>1.045600134356724</v>
+        <v>1.038007262088945</v>
       </c>
       <c r="L7">
-        <v>1.051150201825891</v>
+        <v>1.04063303371038</v>
       </c>
       <c r="M7">
-        <v>1.059124047436522</v>
+        <v>1.047152148288518</v>
       </c>
       <c r="N7">
-        <v>1.051613595902074</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.016459726349384</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.045890133210074</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.037963071890942</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021709635239668</v>
+        <v>1.013749675180495</v>
       </c>
       <c r="D8">
-        <v>1.027439241048782</v>
+        <v>1.023904636781858</v>
       </c>
       <c r="E8">
-        <v>1.033072748082577</v>
+        <v>1.026283187916825</v>
       </c>
       <c r="F8">
-        <v>1.040602292982155</v>
+        <v>1.033072580176825</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057694995205182</v>
+        <v>1.052687276145217</v>
       </c>
       <c r="J8">
-        <v>1.042706297499833</v>
+        <v>1.034966410162631</v>
       </c>
       <c r="K8">
-        <v>1.03825992791897</v>
+        <v>1.034770254779624</v>
       </c>
       <c r="L8">
-        <v>1.043822615208948</v>
+        <v>1.037118527758364</v>
       </c>
       <c r="M8">
-        <v>1.051258994492936</v>
+        <v>1.043822449399623</v>
       </c>
       <c r="N8">
-        <v>1.044187060042366</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.015261278425507</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.043254914564826</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.035678822080806</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.003227107165419</v>
+        <v>1.00301187782939</v>
       </c>
       <c r="D9">
-        <v>1.011467940292369</v>
+        <v>1.015913110358875</v>
       </c>
       <c r="E9">
-        <v>1.017150537544038</v>
+        <v>1.017791743512929</v>
       </c>
       <c r="F9">
-        <v>1.023685732997787</v>
+        <v>1.024975074363103</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051338303922823</v>
+        <v>1.04995440388172</v>
       </c>
       <c r="J9">
-        <v>1.028666420374617</v>
+        <v>1.028458725400601</v>
       </c>
       <c r="K9">
-        <v>1.024377658412523</v>
+        <v>1.028753178543419</v>
       </c>
       <c r="L9">
-        <v>1.029971355298289</v>
+        <v>1.030602609664911</v>
       </c>
       <c r="M9">
-        <v>1.036405868500412</v>
+        <v>1.037675539406243</v>
       </c>
       <c r="N9">
-        <v>1.030127244681236</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013023828161102</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.038390049594456</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.031421094699068</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9899171252133874</v>
+        <v>0.9955872092005654</v>
       </c>
       <c r="D10">
-        <v>1.000002322610321</v>
+        <v>1.01044021270917</v>
       </c>
       <c r="E10">
-        <v>1.00572624561624</v>
+        <v>1.012004196871184</v>
       </c>
       <c r="F10">
-        <v>1.0115517178866</v>
+        <v>1.019524471014893</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046676281432455</v>
+        <v>1.047991164807635</v>
       </c>
       <c r="J10">
-        <v>1.018536577487574</v>
+        <v>1.023977007470528</v>
       </c>
       <c r="K10">
-        <v>1.014371535121809</v>
+        <v>1.024623490177972</v>
       </c>
       <c r="L10">
-        <v>1.019992874930248</v>
+        <v>1.026160042385465</v>
       </c>
       <c r="M10">
-        <v>1.025715488488713</v>
+        <v>1.033549931739726</v>
       </c>
       <c r="N10">
-        <v>1.019983016255385</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.011497168230647</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.035176535958845</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.028518039516799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9838777372098249</v>
+        <v>0.9930498061875448</v>
       </c>
       <c r="D11">
-        <v>0.9948101083882148</v>
+        <v>1.008678093249605</v>
       </c>
       <c r="E11">
-        <v>1.000554352151686</v>
+        <v>1.010398739381978</v>
       </c>
       <c r="F11">
-        <v>1.006059318588807</v>
+        <v>1.018422220586531</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044542080504418</v>
+        <v>1.047403308057888</v>
       </c>
       <c r="J11">
-        <v>1.013936949654744</v>
+        <v>1.022714607246744</v>
       </c>
       <c r="K11">
-        <v>1.009830566663698</v>
+        <v>1.023438188302618</v>
       </c>
       <c r="L11">
-        <v>1.015465821769753</v>
+        <v>1.0251271794798</v>
       </c>
       <c r="M11">
-        <v>1.020867862612975</v>
+        <v>1.033004886858828</v>
       </c>
       <c r="N11">
-        <v>1.015376856423448</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.011178563687711</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.035183066537694</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.027713121994303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9815888268897006</v>
+        <v>0.9923645053077479</v>
       </c>
       <c r="D12">
-        <v>0.9928439921294872</v>
+        <v>1.008240888518952</v>
       </c>
       <c r="E12">
-        <v>0.9985961878846455</v>
+        <v>1.010135919070242</v>
       </c>
       <c r="F12">
-        <v>1.003979915837972</v>
+        <v>1.018474588779875</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043730515032223</v>
+        <v>1.047285942224716</v>
       </c>
       <c r="J12">
-        <v>1.012193349424789</v>
+        <v>1.022495565607231</v>
       </c>
       <c r="K12">
-        <v>1.00810958622367</v>
+        <v>1.023211891022076</v>
       </c>
       <c r="L12">
-        <v>1.013750332228567</v>
+        <v>1.025071473553925</v>
       </c>
       <c r="M12">
-        <v>1.019031262103582</v>
+        <v>1.033256202221209</v>
       </c>
       <c r="N12">
-        <v>1.013630780081173</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.011188603376487</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.035709286010817</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.027553119521779</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9820819426902583</v>
+        <v>0.9930862788340616</v>
       </c>
       <c r="D13">
-        <v>0.9932674857060491</v>
+        <v>1.008824347029748</v>
       </c>
       <c r="E13">
-        <v>0.999017956749952</v>
+        <v>1.010912763901151</v>
       </c>
       <c r="F13">
-        <v>1.004427793424546</v>
+        <v>1.019449205291727</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043905476451597</v>
+        <v>1.047539924030098</v>
       </c>
       <c r="J13">
-        <v>1.0125689990613</v>
+        <v>1.023092446498998</v>
       </c>
       <c r="K13">
-        <v>1.008480345052279</v>
+        <v>1.023740944077342</v>
       </c>
       <c r="L13">
-        <v>1.014119898132218</v>
+        <v>1.0257904948143</v>
       </c>
       <c r="M13">
-        <v>1.019426902109486</v>
+        <v>1.034170224101981</v>
       </c>
       <c r="N13">
-        <v>1.014006963183255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.011465322265496</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.036709338814306</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.027924667365549</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9836894916150389</v>
+        <v>0.9942267048756721</v>
       </c>
       <c r="D14">
-        <v>0.9946483742987784</v>
+        <v>1.009695122605464</v>
       </c>
       <c r="E14">
-        <v>1.000393266885268</v>
+        <v>1.011923408199661</v>
       </c>
       <c r="F14">
-        <v>1.005888257648698</v>
+        <v>1.020544841198586</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044475389573548</v>
+        <v>1.047884785174912</v>
       </c>
       <c r="J14">
-        <v>1.013793558089993</v>
+        <v>1.023877648171015</v>
       </c>
       <c r="K14">
-        <v>1.009689027483481</v>
+        <v>1.02445322242397</v>
       </c>
       <c r="L14">
-        <v>1.01532472970796</v>
+        <v>1.026640594589445</v>
       </c>
       <c r="M14">
-        <v>1.020716802177234</v>
+        <v>1.035105915769595</v>
       </c>
       <c r="N14">
-        <v>1.015233261226228</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.011778822031099</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.037622618889751</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.02842971881966</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9846737780040412</v>
+        <v>0.9948206355952834</v>
       </c>
       <c r="D15">
-        <v>0.9954941098802254</v>
+        <v>1.010141126168111</v>
       </c>
       <c r="E15">
-        <v>1.001235620209441</v>
+        <v>1.012409988853197</v>
       </c>
       <c r="F15">
-        <v>1.006782780580747</v>
+        <v>1.021033497420958</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044823989466543</v>
+        <v>1.048053879664912</v>
       </c>
       <c r="J15">
-        <v>1.014543301026362</v>
+        <v>1.024258077184744</v>
       </c>
       <c r="K15">
-        <v>1.010429100611397</v>
+        <v>1.024803417182734</v>
       </c>
       <c r="L15">
-        <v>1.016062473856007</v>
+        <v>1.02703095611975</v>
       </c>
       <c r="M15">
-        <v>1.021506684064166</v>
+        <v>1.035499575382608</v>
       </c>
       <c r="N15">
-        <v>1.015984068883563</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.011918561559681</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.037971357844684</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.028683246423522</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9903117826336006</v>
+        <v>0.9978366169761388</v>
       </c>
       <c r="D16">
-        <v>1.000341846247634</v>
+        <v>1.01235272887834</v>
       </c>
       <c r="E16">
-        <v>1.006064474978385</v>
+        <v>1.014721683967676</v>
       </c>
       <c r="F16">
-        <v>1.011910923245026</v>
+        <v>1.023192149978811</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046815366230087</v>
+        <v>1.048860293172122</v>
       </c>
       <c r="J16">
-        <v>1.018837094414667</v>
+        <v>1.026059270922149</v>
       </c>
       <c r="K16">
-        <v>1.014668271691769</v>
+        <v>1.026466442709111</v>
       </c>
       <c r="L16">
-        <v>1.020288731421097</v>
+        <v>1.028794213163117</v>
       </c>
       <c r="M16">
-        <v>1.026032345562205</v>
+        <v>1.037119432629168</v>
       </c>
       <c r="N16">
-        <v>1.020283959950983</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012518162761165</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.039212925465199</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.029862270990291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9937716931948906</v>
+        <v>0.9995543436651364</v>
       </c>
       <c r="D17">
-        <v>1.003319584475945</v>
+        <v>1.013596431349121</v>
       </c>
       <c r="E17">
-        <v>1.009031044839463</v>
+        <v>1.015967672448931</v>
       </c>
       <c r="F17">
-        <v>1.015061559592542</v>
+        <v>1.024270381911783</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048032597652533</v>
+        <v>1.049294594623783</v>
       </c>
       <c r="J17">
-        <v>1.021471338147951</v>
+        <v>1.02702965856769</v>
       </c>
       <c r="K17">
-        <v>1.0172696586292</v>
+        <v>1.02737019292111</v>
       </c>
       <c r="L17">
-        <v>1.022882558597124</v>
+        <v>1.029701405479464</v>
       </c>
       <c r="M17">
-        <v>1.028810560089197</v>
+        <v>1.037865837395949</v>
       </c>
       <c r="N17">
-        <v>1.022921944612521</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012814178303442</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.03967373337298</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.030503868918756</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.995763470395565</v>
+        <v>1.000291756212605</v>
       </c>
       <c r="D18">
-        <v>1.005034741796164</v>
+        <v>1.01409207061636</v>
       </c>
       <c r="E18">
-        <v>1.010739918986317</v>
+        <v>1.016369846084692</v>
       </c>
       <c r="F18">
-        <v>1.016876539207518</v>
+        <v>1.024453412927192</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048731552029435</v>
+        <v>1.049441383274706</v>
       </c>
       <c r="J18">
-        <v>1.022987489692404</v>
+        <v>1.027343745878689</v>
       </c>
       <c r="K18">
-        <v>1.018767131294201</v>
+        <v>1.027671910646434</v>
       </c>
       <c r="L18">
-        <v>1.024375807269655</v>
+        <v>1.029911873067517</v>
       </c>
       <c r="M18">
-        <v>1.030410184288548</v>
+        <v>1.0378629887167</v>
       </c>
       <c r="N18">
-        <v>1.024440249266072</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.01286036724293</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.039433511907638</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.030705469770232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9964382654710008</v>
+        <v>1.000160192301544</v>
       </c>
       <c r="D19">
-        <v>1.005615977762756</v>
+        <v>1.013938491103652</v>
       </c>
       <c r="E19">
-        <v>1.01131905066141</v>
+        <v>1.016017970707636</v>
       </c>
       <c r="F19">
-        <v>1.017491642655473</v>
+        <v>1.023826477135846</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048968047095834</v>
+        <v>1.049338144149867</v>
       </c>
       <c r="J19">
-        <v>1.023501090916866</v>
+        <v>1.027082557278178</v>
       </c>
       <c r="K19">
-        <v>1.019274444054668</v>
+        <v>1.027457611528358</v>
       </c>
       <c r="L19">
-        <v>1.024881710389216</v>
+        <v>1.029502732502774</v>
       </c>
       <c r="M19">
-        <v>1.030952164747373</v>
+        <v>1.037183820790917</v>
       </c>
       <c r="N19">
-        <v>1.024954579863184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012693501336361</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.038570471206691</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.030560395682316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.993403229069013</v>
+        <v>0.9975655545434926</v>
       </c>
       <c r="D20">
-        <v>1.003002369135845</v>
+        <v>1.011921478976925</v>
       </c>
       <c r="E20">
-        <v>1.008715003585806</v>
+        <v>1.013550042036704</v>
       </c>
       <c r="F20">
-        <v>1.014725901209516</v>
+        <v>1.020975204052346</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047903151781057</v>
+        <v>1.048527380904402</v>
       </c>
       <c r="J20">
-        <v>1.021190835157565</v>
+        <v>1.02519064360782</v>
       </c>
       <c r="K20">
-        <v>1.016992630148338</v>
+        <v>1.025757893321505</v>
       </c>
       <c r="L20">
-        <v>1.022606321820626</v>
+        <v>1.027358742527182</v>
       </c>
       <c r="M20">
-        <v>1.028514663042747</v>
+        <v>1.034658991287259</v>
       </c>
       <c r="N20">
-        <v>1.022641043275714</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011919620216172</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.03604365226282</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.029362574105978</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9832174037522701</v>
+        <v>0.9918169271326833</v>
       </c>
       <c r="D21">
-        <v>0.9942428009992833</v>
+        <v>1.007675414536592</v>
       </c>
       <c r="E21">
-        <v>0.9999893248029744</v>
+        <v>1.009013002178299</v>
       </c>
       <c r="F21">
-        <v>1.005459302020041</v>
+        <v>1.016629850001621</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044308096953667</v>
+        <v>1.046957663496471</v>
       </c>
       <c r="J21">
-        <v>1.013433951253738</v>
+        <v>1.021660808667356</v>
       </c>
       <c r="K21">
-        <v>1.009334072382853</v>
+        <v>1.022512818412726</v>
       </c>
       <c r="L21">
-        <v>1.014970899432268</v>
+        <v>1.023825608970668</v>
       </c>
       <c r="M21">
-        <v>1.020337979171017</v>
+        <v>1.031302868502732</v>
       </c>
       <c r="N21">
-        <v>1.014873143707017</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.010695882059516</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.033346475137208</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.02707142284402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9765467795645006</v>
+        <v>0.9881409992830237</v>
       </c>
       <c r="D22">
-        <v>0.9885163795546702</v>
+        <v>1.004964884449297</v>
       </c>
       <c r="E22">
-        <v>0.9942865725267236</v>
+        <v>1.00614172049828</v>
       </c>
       <c r="F22">
-        <v>0.9994036663766671</v>
+        <v>1.013912455939442</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041937925299825</v>
+        <v>1.045940455373555</v>
       </c>
       <c r="J22">
-        <v>1.00835202253863</v>
+        <v>1.019410666789711</v>
       </c>
       <c r="K22">
-        <v>1.004318814184707</v>
+        <v>1.020438623494196</v>
       </c>
       <c r="L22">
-        <v>1.009972069619725</v>
+        <v>1.021592482724774</v>
       </c>
       <c r="M22">
-        <v>1.014986946016194</v>
+        <v>1.029213252379875</v>
       </c>
       <c r="N22">
-        <v>1.009783998070229</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.009918685892069</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.031692665499623</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.025591205988069</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9801097918708964</v>
+        <v>0.9900808605506053</v>
       </c>
       <c r="D23">
-        <v>0.9915740458034734</v>
+        <v>1.006385246994592</v>
       </c>
       <c r="E23">
-        <v>0.9973314525607555</v>
+        <v>1.007654319697686</v>
       </c>
       <c r="F23">
-        <v>1.00263690515435</v>
+        <v>1.015346064138376</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04320535413773</v>
+        <v>1.046476711693265</v>
       </c>
       <c r="J23">
-        <v>1.011066597340187</v>
+        <v>1.020592324925976</v>
       </c>
       <c r="K23">
-        <v>1.006997561125865</v>
+        <v>1.021521357617712</v>
       </c>
       <c r="L23">
-        <v>1.012641917883757</v>
+        <v>1.022766318307298</v>
       </c>
       <c r="M23">
-        <v>1.017844699851604</v>
+        <v>1.030313604215422</v>
       </c>
       <c r="N23">
-        <v>1.01250242787937</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.010323653550989</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.032563530472406</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.026347016328072</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.993569803208899</v>
+        <v>0.9975597487766825</v>
       </c>
       <c r="D24">
-        <v>1.00314577192963</v>
+        <v>1.011894233691293</v>
       </c>
       <c r="E24">
-        <v>1.008857875149084</v>
+        <v>1.013507819498307</v>
       </c>
       <c r="F24">
-        <v>1.014877640779608</v>
+        <v>1.020898377911265</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047961676794113</v>
+        <v>1.048512785994362</v>
       </c>
       <c r="J24">
-        <v>1.021317645072707</v>
+        <v>1.025152058844921</v>
       </c>
       <c r="K24">
-        <v>1.017117868585463</v>
+        <v>1.025715644017455</v>
       </c>
       <c r="L24">
-        <v>1.02273120194963</v>
+        <v>1.027301803690214</v>
       </c>
       <c r="M24">
-        <v>1.028648430417294</v>
+        <v>1.03456817177898</v>
       </c>
       <c r="N24">
-        <v>1.022768033275482</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.011891697864428</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.035930764993258</v>
+      </c>
+      <c r="Q24">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R24">
+        <v>1.029305054797686</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.008166794684155</v>
+        <v>1.005878083782915</v>
       </c>
       <c r="D25">
-        <v>1.015730886827464</v>
+        <v>1.018055381045489</v>
       </c>
       <c r="E25">
-        <v>1.021399393429371</v>
+        <v>1.020054319125517</v>
       </c>
       <c r="F25">
-        <v>1.028199269735371</v>
+        <v>1.027125305544921</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053051892375515</v>
+        <v>1.050703499737885</v>
       </c>
       <c r="J25">
-        <v>1.032422405137073</v>
+        <v>1.03020923345492</v>
       </c>
       <c r="K25">
-        <v>1.028089812245022</v>
+        <v>1.030379730120288</v>
       </c>
       <c r="L25">
-        <v>1.033674351610242</v>
+        <v>1.032349094530705</v>
       </c>
       <c r="M25">
-        <v>1.040375050013936</v>
+        <v>1.039316639153735</v>
       </c>
       <c r="N25">
-        <v>1.033888563372873</v>
+        <v>1.013630614032696</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.039688872651304</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.032599961052785</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_46/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012201570798419</v>
+        <v>1.012033896211981</v>
       </c>
       <c r="D2">
-        <v>1.022737546307714</v>
+        <v>1.022153601797737</v>
       </c>
       <c r="E2">
-        <v>1.025053214186964</v>
+        <v>1.02495748057634</v>
       </c>
       <c r="F2">
-        <v>1.031900373403975</v>
+        <v>1.03181339516991</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.05230061133961</v>
+        <v>1.052233073804541</v>
       </c>
       <c r="J2">
-        <v>1.034023360492442</v>
+        <v>1.033860537861429</v>
       </c>
       <c r="K2">
-        <v>1.03388894492929</v>
+        <v>1.033312693831323</v>
       </c>
       <c r="L2">
-        <v>1.036174212252258</v>
+        <v>1.036079732040861</v>
       </c>
       <c r="M2">
-        <v>1.042932478996955</v>
+        <v>1.042846620694751</v>
       </c>
       <c r="N2">
-        <v>1.014933807471033</v>
+        <v>1.016004047702007</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.042550564999517</v>
+        <v>1.042482614099372</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.035032651964733</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.034634004559465</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020812843843167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016679408325898</v>
+        <v>1.016202500649537</v>
       </c>
       <c r="D3">
-        <v>1.026081529699302</v>
+        <v>1.025094242843061</v>
       </c>
       <c r="E3">
-        <v>1.028609720935686</v>
+        <v>1.028258864891628</v>
       </c>
       <c r="F3">
-        <v>1.035301256098259</v>
+        <v>1.035010160362429</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.053398584545218</v>
+        <v>1.053205991739191</v>
       </c>
       <c r="J3">
-        <v>1.036725477396593</v>
+        <v>1.036261007273961</v>
       </c>
       <c r="K3">
-        <v>1.036391223686448</v>
+        <v>1.035415798918611</v>
       </c>
       <c r="L3">
-        <v>1.038889167848154</v>
+        <v>1.038542498395708</v>
       </c>
       <c r="M3">
-        <v>1.045501528543229</v>
+        <v>1.045213850697901</v>
       </c>
       <c r="N3">
-        <v>1.01586154202106</v>
+        <v>1.01665247035757</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.044583786863598</v>
+        <v>1.04435611038222</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.03679932395168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.036118139879878</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021284555661279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019515873426231</v>
+        <v>1.018845536893239</v>
       </c>
       <c r="D4">
-        <v>1.02820624877868</v>
+        <v>1.026965137066628</v>
       </c>
       <c r="E4">
-        <v>1.030868943663657</v>
+        <v>1.030358375680468</v>
       </c>
       <c r="F4">
-        <v>1.037464984079622</v>
+        <v>1.037046196474852</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.054076682993593</v>
+        <v>1.053805528976403</v>
       </c>
       <c r="J4">
-        <v>1.038433201170953</v>
+        <v>1.037779155460541</v>
       </c>
       <c r="K4">
-        <v>1.037975762759143</v>
+        <v>1.036748655096503</v>
       </c>
       <c r="L4">
-        <v>1.040608553276527</v>
+        <v>1.040103704667067</v>
       </c>
       <c r="M4">
-        <v>1.047131327068822</v>
+        <v>1.046717157160227</v>
       </c>
       <c r="N4">
-        <v>1.016447850638584</v>
+        <v>1.017062701373728</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.045873654732548</v>
+        <v>1.045545869366028</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.037920638174756</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.037061570272695</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021581076033183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02069944149423</v>
+        <v>1.019948601041491</v>
       </c>
       <c r="D5">
-        <v>1.029097391017607</v>
+        <v>1.027750473030547</v>
       </c>
       <c r="E5">
-        <v>1.03181352250106</v>
+        <v>1.031236406669178</v>
       </c>
       <c r="F5">
-        <v>1.038369663032672</v>
+        <v>1.037897699898933</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.054356259301322</v>
+        <v>1.054052331869494</v>
       </c>
       <c r="J5">
-        <v>1.039146759160558</v>
+        <v>1.038413617137583</v>
       </c>
       <c r="K5">
-        <v>1.038640751146172</v>
+        <v>1.037308622705308</v>
       </c>
       <c r="L5">
-        <v>1.041327202871297</v>
+        <v>1.040756377253083</v>
       </c>
       <c r="M5">
-        <v>1.047812486976181</v>
+        <v>1.04734558801061</v>
       </c>
       <c r="N5">
-        <v>1.016693671158285</v>
+        <v>1.017234742784189</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.046412742951242</v>
+        <v>1.046043226630726</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.038398030856273</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.037465416977472</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021705838189425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020903722402613</v>
+        <v>1.020138598433531</v>
       </c>
       <c r="D6">
-        <v>1.029254973574046</v>
+        <v>1.027889482227852</v>
       </c>
       <c r="E6">
-        <v>1.031977108364901</v>
+        <v>1.031388119984839</v>
       </c>
       <c r="F6">
-        <v>1.038525440727832</v>
+        <v>1.038044004858006</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.054405337158267</v>
+        <v>1.054095592178549</v>
       </c>
       <c r="J6">
-        <v>1.039272240631852</v>
+        <v>1.038525058315927</v>
       </c>
       <c r="K6">
-        <v>1.038760327334749</v>
+        <v>1.037409760029458</v>
       </c>
       <c r="L6">
-        <v>1.041452855312609</v>
+        <v>1.040870256704773</v>
       </c>
       <c r="M6">
-        <v>1.047930744601275</v>
+        <v>1.047454450660248</v>
       </c>
       <c r="N6">
-        <v>1.016737923140646</v>
+        <v>1.01726564889356</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.046506335167066</v>
+        <v>1.046129383457892</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.038491344254371</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.037546565359633</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021729278864314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019548952806138</v>
+        <v>1.018884091942588</v>
       </c>
       <c r="D7">
-        <v>1.028241031158725</v>
+        <v>1.027003325807646</v>
       </c>
       <c r="E7">
-        <v>1.030896615112648</v>
+        <v>1.030390769843675</v>
       </c>
       <c r="F7">
-        <v>1.037488926005076</v>
+        <v>1.037073862269569</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.054087410033044</v>
+        <v>1.053818468108451</v>
       </c>
       <c r="J7">
-        <v>1.038459564576776</v>
+        <v>1.037810854054243</v>
       </c>
       <c r="K7">
-        <v>1.038007262088945</v>
+        <v>1.036783516470636</v>
       </c>
       <c r="L7">
-        <v>1.04063303371038</v>
+        <v>1.040132852615878</v>
       </c>
       <c r="M7">
-        <v>1.047152148288518</v>
+        <v>1.046741659385737</v>
       </c>
       <c r="N7">
-        <v>1.016459726349384</v>
+        <v>1.017099663147208</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.045890133210074</v>
+        <v>1.045565261099924</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.037963071890942</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.037108388866579</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021592454472577</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013749675180495</v>
+        <v>1.013500235619686</v>
       </c>
       <c r="D8">
-        <v>1.023904636781858</v>
+        <v>1.02320205255545</v>
       </c>
       <c r="E8">
-        <v>1.026283187916825</v>
+        <v>1.02612107809024</v>
       </c>
       <c r="F8">
-        <v>1.033072580176825</v>
+        <v>1.032932216371707</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.052687276145217</v>
+        <v>1.05258671544238</v>
       </c>
       <c r="J8">
-        <v>1.034966410162631</v>
+        <v>1.034723943266056</v>
       </c>
       <c r="K8">
-        <v>1.034770254779624</v>
+        <v>1.03407664786883</v>
       </c>
       <c r="L8">
-        <v>1.037118527758364</v>
+        <v>1.036958475969389</v>
       </c>
       <c r="M8">
-        <v>1.043822449399623</v>
+        <v>1.043683838435626</v>
       </c>
       <c r="N8">
-        <v>1.015261278425507</v>
+        <v>1.01632044966428</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.043254914564826</v>
+        <v>1.043145213689337</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.035678822080806</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.035199462887045</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020991308765419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.00301187782939</v>
+        <v>1.003525166004196</v>
       </c>
       <c r="D9">
-        <v>1.015913110358875</v>
+        <v>1.016192853380104</v>
       </c>
       <c r="E9">
-        <v>1.017791743512929</v>
+        <v>1.018258352311901</v>
       </c>
       <c r="F9">
-        <v>1.024975074363103</v>
+        <v>1.025338231878924</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.04995440388172</v>
+        <v>1.050160055663762</v>
       </c>
       <c r="J9">
-        <v>1.028458725400601</v>
+        <v>1.028954052765801</v>
       </c>
       <c r="K9">
-        <v>1.028753178543419</v>
+        <v>1.029028564411102</v>
       </c>
       <c r="L9">
-        <v>1.030602609664911</v>
+        <v>1.031061986697307</v>
       </c>
       <c r="M9">
-        <v>1.037675539406243</v>
+        <v>1.038033167898727</v>
       </c>
       <c r="N9">
-        <v>1.013023828161102</v>
+        <v>1.014770729174601</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.038390049594456</v>
+        <v>1.038673089343699</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.031421094699068</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.031626631725306</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019843217844368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9955872092005654</v>
+        <v>0.99667694897498</v>
       </c>
       <c r="D10">
-        <v>1.01044021270917</v>
+        <v>1.011436145384681</v>
       </c>
       <c r="E10">
-        <v>1.012004196871184</v>
+        <v>1.012945259587828</v>
       </c>
       <c r="F10">
-        <v>1.019524471014893</v>
+        <v>1.020268002685222</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.047991164807635</v>
+        <v>1.048425884308942</v>
       </c>
       <c r="J10">
-        <v>1.023977007470528</v>
+        <v>1.025023033867736</v>
       </c>
       <c r="K10">
-        <v>1.024623490177972</v>
+        <v>1.025601941691385</v>
       </c>
       <c r="L10">
-        <v>1.026160042385465</v>
+        <v>1.02708465192553</v>
       </c>
       <c r="M10">
-        <v>1.033549931739726</v>
+        <v>1.034280707167877</v>
       </c>
       <c r="N10">
-        <v>1.011497168230647</v>
+        <v>1.013838752573714</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.035176535958845</v>
+        <v>1.035754863469855</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.028518039516799</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.029222391736457</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019065200105654</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9930498061875448</v>
+        <v>0.994343334359073</v>
       </c>
       <c r="D11">
-        <v>1.008678093249605</v>
+        <v>1.009916614444128</v>
       </c>
       <c r="E11">
-        <v>1.010398739381978</v>
+        <v>1.011497961148753</v>
       </c>
       <c r="F11">
-        <v>1.018422220586531</v>
+        <v>1.019293910747778</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.047403308057888</v>
+        <v>1.047918366791359</v>
       </c>
       <c r="J11">
-        <v>1.022714607246744</v>
+        <v>1.02395334546689</v>
       </c>
       <c r="K11">
-        <v>1.023438188302618</v>
+        <v>1.024653910088044</v>
       </c>
       <c r="L11">
-        <v>1.0251271794798</v>
+        <v>1.026206252126626</v>
       </c>
       <c r="M11">
-        <v>1.033004886858828</v>
+        <v>1.033860919354342</v>
       </c>
       <c r="N11">
-        <v>1.011178563687711</v>
+        <v>1.0138551910209</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.035183066537694</v>
+        <v>1.035860178121633</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.027713121994303</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.028588442487795</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.01892057676989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9923645053077479</v>
+        <v>0.9936957257666256</v>
       </c>
       <c r="D12">
-        <v>1.008240888518952</v>
+        <v>1.009526508384088</v>
       </c>
       <c r="E12">
-        <v>1.010135919070242</v>
+        <v>1.011257005648266</v>
       </c>
       <c r="F12">
-        <v>1.018474588779875</v>
+        <v>1.019365330675789</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.047285942224716</v>
+        <v>1.047815656234167</v>
       </c>
       <c r="J12">
-        <v>1.022495565607231</v>
+        <v>1.023769311174836</v>
       </c>
       <c r="K12">
-        <v>1.023211891022076</v>
+        <v>1.024473443420216</v>
       </c>
       <c r="L12">
-        <v>1.025071473553925</v>
+        <v>1.026171670930795</v>
       </c>
       <c r="M12">
-        <v>1.033256202221209</v>
+        <v>1.034130693804547</v>
       </c>
       <c r="N12">
-        <v>1.011188603376487</v>
+        <v>1.013960079946899</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.035709286010817</v>
+        <v>1.036400763013734</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.027553119521779</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.028460847351223</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018928946704139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9930862788340616</v>
+        <v>0.9943147090929302</v>
       </c>
       <c r="D13">
-        <v>1.008824347029748</v>
+        <v>1.009996867284477</v>
       </c>
       <c r="E13">
-        <v>1.010912763901151</v>
+        <v>1.011940149274976</v>
       </c>
       <c r="F13">
-        <v>1.019449205291727</v>
+        <v>1.020266712355946</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.047539924030098</v>
+        <v>1.048028837200783</v>
       </c>
       <c r="J13">
-        <v>1.023092446498998</v>
+        <v>1.024268135845282</v>
       </c>
       <c r="K13">
-        <v>1.023740944077342</v>
+        <v>1.024891617524855</v>
       </c>
       <c r="L13">
-        <v>1.0257904948143</v>
+        <v>1.026798836959073</v>
       </c>
       <c r="M13">
-        <v>1.034170224101981</v>
+        <v>1.03497290231468</v>
       </c>
       <c r="N13">
-        <v>1.011465322265496</v>
+        <v>1.014112589436224</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.036709338814306</v>
+        <v>1.037343871525775</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.027924667365549</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.028753750713881</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019063469443152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9942267048756721</v>
+        <v>0.9953211728603415</v>
       </c>
       <c r="D14">
-        <v>1.009695122605464</v>
+        <v>1.010717599710144</v>
       </c>
       <c r="E14">
-        <v>1.011923408199661</v>
+        <v>1.012834851166115</v>
       </c>
       <c r="F14">
-        <v>1.020544841198586</v>
+        <v>1.021270791911964</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.047884785174912</v>
+        <v>1.048320616438415</v>
       </c>
       <c r="J14">
-        <v>1.023877648171015</v>
+        <v>1.024925834567835</v>
       </c>
       <c r="K14">
-        <v>1.02445322242397</v>
+        <v>1.025456896707855</v>
       </c>
       <c r="L14">
-        <v>1.026640594589445</v>
+        <v>1.027535370135625</v>
       </c>
       <c r="M14">
-        <v>1.035105915769595</v>
+        <v>1.035818877632033</v>
       </c>
       <c r="N14">
-        <v>1.011778822031099</v>
+        <v>1.01424239674613</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.037622618889751</v>
+        <v>1.038186152924264</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.02842971881966</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.029154995626765</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.01921564237467</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9948206355952834</v>
+        <v>0.9958517344584056</v>
       </c>
       <c r="D15">
-        <v>1.010141126168111</v>
+        <v>1.011091743509575</v>
       </c>
       <c r="E15">
-        <v>1.012409988853197</v>
+        <v>1.01326809086426</v>
       </c>
       <c r="F15">
-        <v>1.021033497420958</v>
+        <v>1.021717053492248</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.048053879664912</v>
+        <v>1.048464607452914</v>
       </c>
       <c r="J15">
-        <v>1.024258077184744</v>
+        <v>1.025245969944065</v>
       </c>
       <c r="K15">
-        <v>1.024803417182734</v>
+        <v>1.025736691153221</v>
       </c>
       <c r="L15">
-        <v>1.02703095611975</v>
+        <v>1.027873491888808</v>
       </c>
       <c r="M15">
-        <v>1.035499575382608</v>
+        <v>1.036170999007225</v>
       </c>
       <c r="N15">
-        <v>1.011918561559681</v>
+        <v>1.014291474786696</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.037971357844684</v>
+        <v>1.038502045600224</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.028683246423522</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.029359311024864</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019284355220838</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9978366169761388</v>
+        <v>0.9985854113633744</v>
       </c>
       <c r="D16">
-        <v>1.01235272887834</v>
+        <v>1.012974854411523</v>
       </c>
       <c r="E16">
-        <v>1.014721683967676</v>
+        <v>1.015349202350449</v>
       </c>
       <c r="F16">
-        <v>1.023192149978811</v>
+        <v>1.023690999629371</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048860293172122</v>
+        <v>1.049159102707965</v>
       </c>
       <c r="J16">
-        <v>1.026059270922149</v>
+        <v>1.026778301088876</v>
       </c>
       <c r="K16">
-        <v>1.026466442709111</v>
+        <v>1.027077728350712</v>
       </c>
       <c r="L16">
-        <v>1.028794213163117</v>
+        <v>1.029410863699568</v>
       </c>
       <c r="M16">
-        <v>1.037119432629168</v>
+        <v>1.037609825031281</v>
       </c>
       <c r="N16">
-        <v>1.012518162761165</v>
+        <v>1.014483419442961</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.039212925465199</v>
+        <v>1.039600538873929</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.029862270990291</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.030310963709323</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019579263128153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9995543436651364</v>
+        <v>1.000165856197206</v>
       </c>
       <c r="D17">
-        <v>1.013596431349121</v>
+        <v>1.014052095919093</v>
       </c>
       <c r="E17">
-        <v>1.015967672448931</v>
+        <v>1.016485990950939</v>
       </c>
       <c r="F17">
-        <v>1.024270381911783</v>
+        <v>1.024681106866431</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.049294594623783</v>
+        <v>1.049538888130238</v>
       </c>
       <c r="J17">
-        <v>1.02702965856769</v>
+        <v>1.02761766228781</v>
       </c>
       <c r="K17">
-        <v>1.02737019292111</v>
+        <v>1.027818146741124</v>
       </c>
       <c r="L17">
-        <v>1.029701405479464</v>
+        <v>1.030211006401593</v>
       </c>
       <c r="M17">
-        <v>1.037865837395949</v>
+        <v>1.038269796755829</v>
       </c>
       <c r="N17">
-        <v>1.012814178303442</v>
+        <v>1.014591911062327</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.03967373337298</v>
+        <v>1.0399930607496</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.030503868918756</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.030837320509167</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019727630134027</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.000291756212605</v>
+        <v>1.000869101026464</v>
       </c>
       <c r="D18">
-        <v>1.01409207061636</v>
+        <v>1.014499327237886</v>
       </c>
       <c r="E18">
-        <v>1.016369846084692</v>
+        <v>1.016866060648683</v>
       </c>
       <c r="F18">
-        <v>1.024453412927192</v>
+        <v>1.024845172410618</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.049441383274706</v>
+        <v>1.049672167348017</v>
       </c>
       <c r="J18">
-        <v>1.027343745878689</v>
+        <v>1.027899314931775</v>
       </c>
       <c r="K18">
-        <v>1.027671910646434</v>
+        <v>1.028072390401119</v>
       </c>
       <c r="L18">
-        <v>1.029911873067517</v>
+        <v>1.030399878960979</v>
       </c>
       <c r="M18">
-        <v>1.0378629887167</v>
+        <v>1.03824839729032</v>
       </c>
       <c r="N18">
-        <v>1.01286036724293</v>
+        <v>1.014588682457803</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.039433511907638</v>
+        <v>1.03973823864233</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.030705469770232</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.031004220769224</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019750228570072</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.000160192301544</v>
+        <v>1.000785462473914</v>
       </c>
       <c r="D19">
-        <v>1.013938491103652</v>
+        <v>1.014394533004772</v>
       </c>
       <c r="E19">
-        <v>1.016017970707636</v>
+        <v>1.016561222126826</v>
       </c>
       <c r="F19">
-        <v>1.023826477135846</v>
+        <v>1.024254299468582</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.049338144149867</v>
+        <v>1.049588128113608</v>
       </c>
       <c r="J19">
-        <v>1.027082557278178</v>
+        <v>1.027684374881737</v>
       </c>
       <c r="K19">
-        <v>1.027457611528358</v>
+        <v>1.027906102861913</v>
       </c>
       <c r="L19">
-        <v>1.029502732502774</v>
+        <v>1.030037037727287</v>
       </c>
       <c r="M19">
-        <v>1.037183820790917</v>
+        <v>1.037604734028936</v>
       </c>
       <c r="N19">
-        <v>1.012693501336361</v>
+        <v>1.014471672719329</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.038570471206691</v>
+        <v>1.038903379070079</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.030560395682316</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.030893717081209</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019667807054357</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9975655545434926</v>
+        <v>0.9984716362660699</v>
       </c>
       <c r="D20">
-        <v>1.011921478976925</v>
+        <v>1.012701834213521</v>
       </c>
       <c r="E20">
-        <v>1.013550042036704</v>
+        <v>1.014337909541611</v>
       </c>
       <c r="F20">
-        <v>1.020975204052346</v>
+        <v>1.021596387360683</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.048527380904402</v>
+        <v>1.048889245015123</v>
       </c>
       <c r="J20">
-        <v>1.02519064360782</v>
+        <v>1.026061601168866</v>
       </c>
       <c r="K20">
-        <v>1.025757893321505</v>
+        <v>1.026524954604826</v>
       </c>
       <c r="L20">
-        <v>1.027358742527182</v>
+        <v>1.028133243826452</v>
       </c>
       <c r="M20">
-        <v>1.034658991287259</v>
+        <v>1.03526983045924</v>
       </c>
       <c r="N20">
-        <v>1.011919620216172</v>
+        <v>1.014020888595957</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.03604365226282</v>
+        <v>1.036527069253216</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.029362574105978</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.0299215367897</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019279640539635</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9918169271326833</v>
+        <v>0.9933057015491573</v>
       </c>
       <c r="D21">
-        <v>1.007675414536592</v>
+        <v>1.009124034704179</v>
       </c>
       <c r="E21">
-        <v>1.009013002178299</v>
+        <v>1.010289706075642</v>
       </c>
       <c r="F21">
-        <v>1.016629850001621</v>
+        <v>1.017640889237651</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046957663496471</v>
+        <v>1.047550284560304</v>
       </c>
       <c r="J21">
-        <v>1.021660808667356</v>
+        <v>1.023085999683385</v>
       </c>
       <c r="K21">
-        <v>1.022512818412726</v>
+        <v>1.023934586954502</v>
       </c>
       <c r="L21">
-        <v>1.023825608970668</v>
+        <v>1.025078724306528</v>
       </c>
       <c r="M21">
-        <v>1.031302868502732</v>
+        <v>1.032295583463771</v>
       </c>
       <c r="N21">
-        <v>1.010695882059516</v>
+        <v>1.013644051007607</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.033346475137208</v>
+        <v>1.034132149930309</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.02707142284402</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.028093639412069</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018691167249813</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9881409992830237</v>
+        <v>0.9900026060623371</v>
       </c>
       <c r="D22">
-        <v>1.004964884449297</v>
+        <v>1.006840514050743</v>
       </c>
       <c r="E22">
-        <v>1.00614172049828</v>
+        <v>1.007731209611286</v>
       </c>
       <c r="F22">
-        <v>1.013912455939442</v>
+        <v>1.015172980932732</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.045940455373555</v>
+        <v>1.046679908567901</v>
       </c>
       <c r="J22">
-        <v>1.019410666789711</v>
+        <v>1.021187953777662</v>
       </c>
       <c r="K22">
-        <v>1.020438623494196</v>
+        <v>1.022277666197635</v>
       </c>
       <c r="L22">
-        <v>1.021592482724774</v>
+        <v>1.023151049961134</v>
       </c>
       <c r="M22">
-        <v>1.029213252379875</v>
+        <v>1.030449733836905</v>
       </c>
       <c r="N22">
-        <v>1.009918685892069</v>
+        <v>1.013398505838363</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.031692665499623</v>
+        <v>1.032671269135941</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.025591205988069</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.026907181609824</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018314328931216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9900808605506053</v>
+        <v>0.9917326726375675</v>
       </c>
       <c r="D23">
-        <v>1.006385246994592</v>
+        <v>1.008024613645552</v>
       </c>
       <c r="E23">
-        <v>1.007654319697686</v>
+        <v>1.009067237208324</v>
       </c>
       <c r="F23">
-        <v>1.015346064138376</v>
+        <v>1.016465907450917</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.046476711693265</v>
+        <v>1.047133575799531</v>
       </c>
       <c r="J23">
-        <v>1.020592324925976</v>
+        <v>1.022171596601376</v>
       </c>
       <c r="K23">
-        <v>1.021521357617712</v>
+        <v>1.023129591735404</v>
       </c>
       <c r="L23">
-        <v>1.022766318307298</v>
+        <v>1.024152484042194</v>
       </c>
       <c r="M23">
-        <v>1.030313604215422</v>
+        <v>1.031412653518276</v>
       </c>
       <c r="N23">
-        <v>1.010323653550989</v>
+        <v>1.013479322699528</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.032563530472406</v>
+        <v>1.03343336348445</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.026347016328072</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.027498855170445</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018503502935076</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9975597487766825</v>
+        <v>0.9984728896643339</v>
       </c>
       <c r="D24">
-        <v>1.011894233691293</v>
+        <v>1.012681279932885</v>
       </c>
       <c r="E24">
-        <v>1.013507819498307</v>
+        <v>1.014302874958669</v>
       </c>
       <c r="F24">
-        <v>1.020898377911265</v>
+        <v>1.021525067768949</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.048512785994362</v>
+        <v>1.048877485481376</v>
       </c>
       <c r="J24">
-        <v>1.025152058844921</v>
+        <v>1.026029851440086</v>
       </c>
       <c r="K24">
-        <v>1.025715644017455</v>
+        <v>1.026489298729243</v>
       </c>
       <c r="L24">
-        <v>1.027301803690214</v>
+        <v>1.028083386997314</v>
       </c>
       <c r="M24">
-        <v>1.03456817177898</v>
+        <v>1.035184437229051</v>
       </c>
       <c r="N24">
-        <v>1.011891697864428</v>
+        <v>1.013999121830314</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.035930764993258</v>
+        <v>1.036418500727637</v>
       </c>
       <c r="Q24">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.029305054797686</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.029866018247052</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019261641139317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.005878083782915</v>
+        <v>1.006171875135556</v>
       </c>
       <c r="D25">
-        <v>1.018055381045489</v>
+        <v>1.018060246381797</v>
       </c>
       <c r="E25">
-        <v>1.020054319125517</v>
+        <v>1.020339268923858</v>
       </c>
       <c r="F25">
-        <v>1.027125305544921</v>
+        <v>1.027343086342188</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.050703499737885</v>
+        <v>1.05082140198904</v>
       </c>
       <c r="J25">
-        <v>1.03020923345492</v>
+        <v>1.030493301456405</v>
       </c>
       <c r="K25">
-        <v>1.030379730120288</v>
+        <v>1.030384523296254</v>
       </c>
       <c r="L25">
-        <v>1.032349094530705</v>
+        <v>1.032629840571373</v>
       </c>
       <c r="M25">
-        <v>1.039316639153735</v>
+        <v>1.039531262680795</v>
       </c>
       <c r="N25">
-        <v>1.013630614032696</v>
+        <v>1.015155900701184</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.039688872651304</v>
+        <v>1.039858732954241</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.032599961052785</v>
+        <v>1.032616962496319</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020156619936288</v>
       </c>
     </row>
   </sheetData>
